--- a/AGV线路图-2019-10.11.xlsx
+++ b/AGV线路图-2019-10.11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/touchmii/Documents/CodeRunner/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/touchmii/Documents/CodeRunner/Python-path-find/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF16E564-ECC0-C049-8580-A45C2782EFEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A576E862-9BE4-0A45-B376-E126894EFCFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="640" windowWidth="25080" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1272,6 +1272,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,51 +1337,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BI142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AN23" sqref="AN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
@@ -3283,7 +3283,7 @@
         <v>209</v>
       </c>
       <c r="AN20" s="35">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="AP20" s="20" t="s">
         <v>53</v>
@@ -3392,7 +3392,7 @@
         <v>210</v>
       </c>
       <c r="AM21" s="104">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="AN21" s="35">
         <v>204</v>
@@ -5170,13 +5170,13 @@
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
-      <c r="AW19" s="126" t="s">
+      <c r="AW19" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="AX19" s="126"/>
-      <c r="AY19" s="126"/>
-      <c r="AZ19" s="126"/>
-      <c r="BA19" s="126"/>
+      <c r="AX19" s="107"/>
+      <c r="AY19" s="107"/>
+      <c r="AZ19" s="107"/>
+      <c r="BA19" s="107"/>
       <c r="BB19" s="2"/>
       <c r="BC19" s="2"/>
       <c r="BD19" s="46">
@@ -5257,11 +5257,11 @@
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
-      <c r="AW20" s="126"/>
-      <c r="AX20" s="126"/>
-      <c r="AY20" s="126"/>
-      <c r="AZ20" s="126"/>
-      <c r="BA20" s="126"/>
+      <c r="AW20" s="107"/>
+      <c r="AX20" s="107"/>
+      <c r="AY20" s="107"/>
+      <c r="AZ20" s="107"/>
+      <c r="BA20" s="107"/>
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
       <c r="BD20" s="46">
@@ -5324,11 +5324,11 @@
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
-      <c r="AW21" s="126"/>
-      <c r="AX21" s="126"/>
-      <c r="AY21" s="126"/>
-      <c r="AZ21" s="126"/>
-      <c r="BA21" s="126"/>
+      <c r="AW21" s="107"/>
+      <c r="AX21" s="107"/>
+      <c r="AY21" s="107"/>
+      <c r="AZ21" s="107"/>
+      <c r="BA21" s="107"/>
       <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
       <c r="BD21" s="46">
@@ -6918,18 +6918,18 @@
       </c>
     </row>
     <row r="37" spans="1:67" ht="30" customHeight="1">
-      <c r="A37" s="127" t="s">
+      <c r="A37" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="128"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
       <c r="K37" s="2"/>
       <c r="L37" s="46">
         <v>445</v>
@@ -7014,16 +7014,16 @@
       <c r="BC37" s="63"/>
     </row>
     <row r="38" spans="1:67" ht="30" customHeight="1">
-      <c r="A38" s="128"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
       <c r="K38" s="2"/>
       <c r="L38" s="46">
         <v>444</v>
@@ -7093,16 +7093,16 @@
       <c r="BC38" s="63"/>
     </row>
     <row r="39" spans="1:67" ht="30" customHeight="1">
-      <c r="A39" s="128"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
       <c r="K39" s="2"/>
       <c r="L39" s="46">
         <v>443</v>
@@ -7178,16 +7178,16 @@
       <c r="BC39" s="63"/>
     </row>
     <row r="40" spans="1:67" ht="30" customHeight="1">
-      <c r="A40" s="128"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
       <c r="K40" s="2"/>
       <c r="L40" s="46">
         <v>442</v>
@@ -7224,16 +7224,16 @@
       <c r="BC40" s="63"/>
     </row>
     <row r="41" spans="1:67" ht="30" customHeight="1">
-      <c r="A41" s="128"/>
-      <c r="B41" s="128"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="109"/>
       <c r="K41" s="2"/>
       <c r="L41" s="46">
         <v>441</v>
@@ -7269,16 +7269,16 @@
       <c r="BC41" s="63"/>
     </row>
     <row r="42" spans="1:67" ht="30" customHeight="1">
-      <c r="A42" s="128"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
       <c r="K42" s="2"/>
       <c r="L42" s="7"/>
       <c r="M42" s="2"/>
@@ -7318,16 +7318,16 @@
       <c r="BC42" s="63"/>
     </row>
     <row r="43" spans="1:67" ht="30" customHeight="1">
-      <c r="A43" s="128"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
       <c r="K43" s="2"/>
       <c r="L43" s="7"/>
       <c r="M43" s="2"/>
@@ -7806,7 +7806,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="2"/>
-      <c r="W52" s="107" t="s">
+      <c r="W52" s="122" t="s">
         <v>73</v>
       </c>
       <c r="X52" s="106"/>
@@ -7825,10 +7825,10 @@
         <v>51</v>
       </c>
       <c r="F54" s="52"/>
-      <c r="G54" s="107" t="s">
+      <c r="G54" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="107"/>
+      <c r="H54" s="122"/>
       <c r="J54" s="52" t="s">
         <v>75</v>
       </c>
@@ -7853,488 +7853,488 @@
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
       <c r="I55" s="57"/>
-      <c r="J55" s="108" t="s">
+      <c r="J55" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="K55" s="109"/>
-      <c r="L55" s="110" t="s">
+      <c r="K55" s="124"/>
+      <c r="L55" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="M55" s="111"/>
-      <c r="N55" s="111"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="111"/>
-      <c r="S55" s="111"/>
-      <c r="T55" s="111"/>
-      <c r="U55" s="111"/>
-      <c r="V55" s="111"/>
-      <c r="W55" s="111"/>
-      <c r="X55" s="112"/>
+      <c r="M55" s="126"/>
+      <c r="N55" s="126"/>
+      <c r="O55" s="126"/>
+      <c r="P55" s="126"/>
+      <c r="Q55" s="126"/>
+      <c r="R55" s="126"/>
+      <c r="S55" s="126"/>
+      <c r="T55" s="126"/>
+      <c r="U55" s="126"/>
+      <c r="V55" s="126"/>
+      <c r="W55" s="126"/>
+      <c r="X55" s="127"/>
     </row>
     <row r="56" spans="1:70" ht="30" customHeight="1">
-      <c r="F56" s="113" t="s">
+      <c r="F56" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="G56" s="113"/>
-      <c r="H56" s="113"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="128"/>
       <c r="I56" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="J56" s="114" t="s">
+      <c r="J56" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="K56" s="115"/>
-      <c r="L56" s="114" t="s">
+      <c r="K56" s="111"/>
+      <c r="L56" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="M56" s="116"/>
-      <c r="N56" s="116"/>
-      <c r="O56" s="116"/>
-      <c r="P56" s="116"/>
-      <c r="Q56" s="116"/>
-      <c r="R56" s="116"/>
-      <c r="S56" s="116"/>
-      <c r="T56" s="116"/>
-      <c r="U56" s="116"/>
-      <c r="V56" s="116"/>
-      <c r="W56" s="116"/>
-      <c r="X56" s="115"/>
+      <c r="M56" s="112"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="112"/>
+      <c r="R56" s="112"/>
+      <c r="S56" s="112"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="112"/>
+      <c r="V56" s="112"/>
+      <c r="W56" s="112"/>
+      <c r="X56" s="111"/>
     </row>
     <row r="57" spans="1:70" ht="30" customHeight="1">
-      <c r="F57" s="117" t="s">
+      <c r="F57" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="121"/>
       <c r="I57" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="J57" s="114" t="s">
+      <c r="J57" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="K57" s="115"/>
-      <c r="L57" s="114" t="s">
+      <c r="K57" s="111"/>
+      <c r="L57" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="M57" s="116"/>
-      <c r="N57" s="116"/>
-      <c r="O57" s="116"/>
-      <c r="P57" s="116"/>
-      <c r="Q57" s="116"/>
-      <c r="R57" s="116"/>
-      <c r="S57" s="116"/>
-      <c r="T57" s="116"/>
-      <c r="U57" s="116"/>
-      <c r="V57" s="116"/>
-      <c r="W57" s="116"/>
-      <c r="X57" s="115"/>
+      <c r="M57" s="112"/>
+      <c r="N57" s="112"/>
+      <c r="O57" s="112"/>
+      <c r="P57" s="112"/>
+      <c r="Q57" s="112"/>
+      <c r="R57" s="112"/>
+      <c r="S57" s="112"/>
+      <c r="T57" s="112"/>
+      <c r="U57" s="112"/>
+      <c r="V57" s="112"/>
+      <c r="W57" s="112"/>
+      <c r="X57" s="111"/>
     </row>
     <row r="58" spans="1:70" ht="30" customHeight="1">
       <c r="I58" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="J58" s="114" t="s">
+      <c r="J58" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="K58" s="115"/>
-      <c r="L58" s="114" t="s">
+      <c r="K58" s="111"/>
+      <c r="L58" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="M58" s="116"/>
-      <c r="N58" s="116"/>
-      <c r="O58" s="116"/>
-      <c r="P58" s="116"/>
-      <c r="Q58" s="116"/>
-      <c r="R58" s="116"/>
-      <c r="S58" s="116"/>
-      <c r="T58" s="116"/>
-      <c r="U58" s="116"/>
-      <c r="V58" s="116"/>
-      <c r="W58" s="116"/>
-      <c r="X58" s="115"/>
+      <c r="M58" s="112"/>
+      <c r="N58" s="112"/>
+      <c r="O58" s="112"/>
+      <c r="P58" s="112"/>
+      <c r="Q58" s="112"/>
+      <c r="R58" s="112"/>
+      <c r="S58" s="112"/>
+      <c r="T58" s="112"/>
+      <c r="U58" s="112"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
+      <c r="X58" s="111"/>
     </row>
     <row r="59" spans="1:70" ht="30" customHeight="1">
       <c r="I59" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="J59" s="114" t="s">
+      <c r="J59" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="K59" s="115"/>
-      <c r="L59" s="114" t="s">
+      <c r="K59" s="111"/>
+      <c r="L59" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="116"/>
-      <c r="N59" s="116"/>
-      <c r="O59" s="116"/>
-      <c r="P59" s="116"/>
-      <c r="Q59" s="116"/>
-      <c r="R59" s="116"/>
-      <c r="S59" s="116"/>
-      <c r="T59" s="116"/>
-      <c r="U59" s="116"/>
-      <c r="V59" s="116"/>
-      <c r="W59" s="116"/>
-      <c r="X59" s="115"/>
+      <c r="M59" s="112"/>
+      <c r="N59" s="112"/>
+      <c r="O59" s="112"/>
+      <c r="P59" s="112"/>
+      <c r="Q59" s="112"/>
+      <c r="R59" s="112"/>
+      <c r="S59" s="112"/>
+      <c r="T59" s="112"/>
+      <c r="U59" s="112"/>
+      <c r="V59" s="112"/>
+      <c r="W59" s="112"/>
+      <c r="X59" s="111"/>
     </row>
     <row r="60" spans="1:70" ht="30" customHeight="1">
       <c r="I60" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="J60" s="114" t="s">
+      <c r="J60" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="K60" s="115"/>
-      <c r="L60" s="114" t="s">
+      <c r="K60" s="111"/>
+      <c r="L60" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="119"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="119"/>
-      <c r="P60" s="119"/>
-      <c r="Q60" s="119"/>
-      <c r="R60" s="119"/>
-      <c r="S60" s="119"/>
-      <c r="T60" s="119"/>
-      <c r="U60" s="119"/>
-      <c r="V60" s="119"/>
-      <c r="W60" s="119"/>
-      <c r="X60" s="120"/>
+      <c r="M60" s="118"/>
+      <c r="N60" s="118"/>
+      <c r="O60" s="118"/>
+      <c r="P60" s="118"/>
+      <c r="Q60" s="118"/>
+      <c r="R60" s="118"/>
+      <c r="S60" s="118"/>
+      <c r="T60" s="118"/>
+      <c r="U60" s="118"/>
+      <c r="V60" s="118"/>
+      <c r="W60" s="118"/>
+      <c r="X60" s="119"/>
     </row>
     <row r="61" spans="1:70" ht="30" customHeight="1">
       <c r="I61" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="J61" s="114" t="s">
+      <c r="J61" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="K61" s="115"/>
-      <c r="L61" s="114" t="s">
+      <c r="K61" s="111"/>
+      <c r="L61" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="M61" s="121"/>
-      <c r="N61" s="121"/>
-      <c r="O61" s="121"/>
-      <c r="P61" s="121"/>
-      <c r="Q61" s="121"/>
-      <c r="R61" s="121"/>
-      <c r="S61" s="121"/>
-      <c r="T61" s="121"/>
-      <c r="U61" s="121"/>
-      <c r="V61" s="121"/>
-      <c r="W61" s="121"/>
-      <c r="X61" s="121"/>
-      <c r="Y61" s="121"/>
-      <c r="Z61" s="121"/>
-      <c r="AA61" s="121"/>
-      <c r="AB61" s="121"/>
-      <c r="AC61" s="122"/>
+      <c r="M61" s="116"/>
+      <c r="N61" s="116"/>
+      <c r="O61" s="116"/>
+      <c r="P61" s="116"/>
+      <c r="Q61" s="116"/>
+      <c r="R61" s="116"/>
+      <c r="S61" s="116"/>
+      <c r="T61" s="116"/>
+      <c r="U61" s="116"/>
+      <c r="V61" s="116"/>
+      <c r="W61" s="116"/>
+      <c r="X61" s="116"/>
+      <c r="Y61" s="116"/>
+      <c r="Z61" s="116"/>
+      <c r="AA61" s="116"/>
+      <c r="AB61" s="116"/>
+      <c r="AC61" s="117"/>
       <c r="AD61" s="65"/>
     </row>
     <row r="62" spans="1:70" ht="30" customHeight="1">
       <c r="I62" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="J62" s="114" t="s">
+      <c r="J62" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="K62" s="115"/>
-      <c r="L62" s="114" t="s">
+      <c r="K62" s="111"/>
+      <c r="L62" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="M62" s="121"/>
-      <c r="N62" s="121"/>
-      <c r="O62" s="121"/>
-      <c r="P62" s="121"/>
-      <c r="Q62" s="121"/>
-      <c r="R62" s="121"/>
-      <c r="S62" s="121"/>
-      <c r="T62" s="121"/>
-      <c r="U62" s="121"/>
-      <c r="V62" s="121"/>
-      <c r="W62" s="121"/>
-      <c r="X62" s="121"/>
-      <c r="Y62" s="121"/>
-      <c r="Z62" s="121"/>
-      <c r="AA62" s="121"/>
-      <c r="AB62" s="121"/>
-      <c r="AC62" s="122"/>
+      <c r="M62" s="116"/>
+      <c r="N62" s="116"/>
+      <c r="O62" s="116"/>
+      <c r="P62" s="116"/>
+      <c r="Q62" s="116"/>
+      <c r="R62" s="116"/>
+      <c r="S62" s="116"/>
+      <c r="T62" s="116"/>
+      <c r="U62" s="116"/>
+      <c r="V62" s="116"/>
+      <c r="W62" s="116"/>
+      <c r="X62" s="116"/>
+      <c r="Y62" s="116"/>
+      <c r="Z62" s="116"/>
+      <c r="AA62" s="116"/>
+      <c r="AB62" s="116"/>
+      <c r="AC62" s="117"/>
     </row>
     <row r="63" spans="1:70" ht="30" customHeight="1">
       <c r="I63" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="J63" s="114" t="s">
+      <c r="J63" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="K63" s="115"/>
-      <c r="L63" s="123" t="s">
+      <c r="K63" s="111"/>
+      <c r="L63" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="M63" s="124"/>
-      <c r="N63" s="124"/>
-      <c r="O63" s="124"/>
-      <c r="P63" s="124"/>
-      <c r="Q63" s="124"/>
-      <c r="R63" s="124"/>
-      <c r="S63" s="124"/>
-      <c r="T63" s="124"/>
-      <c r="U63" s="124"/>
-      <c r="V63" s="124"/>
-      <c r="W63" s="124"/>
-      <c r="X63" s="125"/>
+      <c r="M63" s="114"/>
+      <c r="N63" s="114"/>
+      <c r="O63" s="114"/>
+      <c r="P63" s="114"/>
+      <c r="Q63" s="114"/>
+      <c r="R63" s="114"/>
+      <c r="S63" s="114"/>
+      <c r="T63" s="114"/>
+      <c r="U63" s="114"/>
+      <c r="V63" s="114"/>
+      <c r="W63" s="114"/>
+      <c r="X63" s="115"/>
     </row>
     <row r="64" spans="1:70" ht="30" customHeight="1">
       <c r="I64" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="J64" s="114" t="s">
+      <c r="J64" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="K64" s="115"/>
-      <c r="L64" s="114" t="s">
+      <c r="K64" s="111"/>
+      <c r="L64" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="M64" s="116"/>
-      <c r="N64" s="116"/>
-      <c r="O64" s="116"/>
-      <c r="P64" s="116"/>
-      <c r="Q64" s="116"/>
-      <c r="R64" s="116"/>
-      <c r="S64" s="116"/>
-      <c r="T64" s="116"/>
-      <c r="U64" s="116"/>
-      <c r="V64" s="116"/>
-      <c r="W64" s="116"/>
-      <c r="X64" s="115"/>
+      <c r="M64" s="112"/>
+      <c r="N64" s="112"/>
+      <c r="O64" s="112"/>
+      <c r="P64" s="112"/>
+      <c r="Q64" s="112"/>
+      <c r="R64" s="112"/>
+      <c r="S64" s="112"/>
+      <c r="T64" s="112"/>
+      <c r="U64" s="112"/>
+      <c r="V64" s="112"/>
+      <c r="W64" s="112"/>
+      <c r="X64" s="111"/>
     </row>
     <row r="65" spans="9:29" ht="30" customHeight="1">
       <c r="I65" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J65" s="114" t="s">
+      <c r="J65" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="115"/>
-      <c r="L65" s="114" t="s">
+      <c r="K65" s="111"/>
+      <c r="L65" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="M65" s="116"/>
-      <c r="N65" s="116"/>
-      <c r="O65" s="116"/>
-      <c r="P65" s="116"/>
-      <c r="Q65" s="116"/>
-      <c r="R65" s="116"/>
-      <c r="S65" s="116"/>
-      <c r="T65" s="116"/>
-      <c r="U65" s="116"/>
-      <c r="V65" s="116"/>
-      <c r="W65" s="116"/>
-      <c r="X65" s="115"/>
+      <c r="M65" s="112"/>
+      <c r="N65" s="112"/>
+      <c r="O65" s="112"/>
+      <c r="P65" s="112"/>
+      <c r="Q65" s="112"/>
+      <c r="R65" s="112"/>
+      <c r="S65" s="112"/>
+      <c r="T65" s="112"/>
+      <c r="U65" s="112"/>
+      <c r="V65" s="112"/>
+      <c r="W65" s="112"/>
+      <c r="X65" s="111"/>
     </row>
     <row r="66" spans="9:29" ht="30" customHeight="1">
       <c r="I66" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J66" s="114" t="s">
+      <c r="J66" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="K66" s="115"/>
-      <c r="L66" s="114" t="s">
+      <c r="K66" s="111"/>
+      <c r="L66" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="M66" s="116"/>
-      <c r="N66" s="116"/>
-      <c r="O66" s="116"/>
-      <c r="P66" s="116"/>
-      <c r="Q66" s="116"/>
-      <c r="R66" s="116"/>
-      <c r="S66" s="116"/>
-      <c r="T66" s="116"/>
-      <c r="U66" s="116"/>
-      <c r="V66" s="116"/>
-      <c r="W66" s="116"/>
-      <c r="X66" s="115"/>
+      <c r="M66" s="112"/>
+      <c r="N66" s="112"/>
+      <c r="O66" s="112"/>
+      <c r="P66" s="112"/>
+      <c r="Q66" s="112"/>
+      <c r="R66" s="112"/>
+      <c r="S66" s="112"/>
+      <c r="T66" s="112"/>
+      <c r="U66" s="112"/>
+      <c r="V66" s="112"/>
+      <c r="W66" s="112"/>
+      <c r="X66" s="111"/>
     </row>
     <row r="67" spans="9:29" ht="30" customHeight="1">
       <c r="I67" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="J67" s="114" t="s">
+      <c r="J67" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="K67" s="115"/>
-      <c r="L67" s="114" t="s">
+      <c r="K67" s="111"/>
+      <c r="L67" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="M67" s="121"/>
-      <c r="N67" s="121"/>
-      <c r="O67" s="121"/>
-      <c r="P67" s="121"/>
-      <c r="Q67" s="121"/>
-      <c r="R67" s="121"/>
-      <c r="S67" s="121"/>
-      <c r="T67" s="121"/>
-      <c r="U67" s="121"/>
-      <c r="V67" s="121"/>
-      <c r="W67" s="121"/>
-      <c r="X67" s="121"/>
-      <c r="Y67" s="121"/>
-      <c r="Z67" s="121"/>
-      <c r="AA67" s="121"/>
-      <c r="AB67" s="121"/>
-      <c r="AC67" s="122"/>
+      <c r="M67" s="116"/>
+      <c r="N67" s="116"/>
+      <c r="O67" s="116"/>
+      <c r="P67" s="116"/>
+      <c r="Q67" s="116"/>
+      <c r="R67" s="116"/>
+      <c r="S67" s="116"/>
+      <c r="T67" s="116"/>
+      <c r="U67" s="116"/>
+      <c r="V67" s="116"/>
+      <c r="W67" s="116"/>
+      <c r="X67" s="116"/>
+      <c r="Y67" s="116"/>
+      <c r="Z67" s="116"/>
+      <c r="AA67" s="116"/>
+      <c r="AB67" s="116"/>
+      <c r="AC67" s="117"/>
     </row>
     <row r="68" spans="9:29" ht="30" customHeight="1">
       <c r="I68" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="J68" s="114" t="s">
+      <c r="J68" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="K68" s="115"/>
-      <c r="L68" s="114" t="s">
+      <c r="K68" s="111"/>
+      <c r="L68" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="M68" s="121"/>
-      <c r="N68" s="121"/>
-      <c r="O68" s="121"/>
-      <c r="P68" s="121"/>
-      <c r="Q68" s="121"/>
-      <c r="R68" s="121"/>
-      <c r="S68" s="121"/>
-      <c r="T68" s="121"/>
-      <c r="U68" s="121"/>
-      <c r="V68" s="121"/>
-      <c r="W68" s="121"/>
-      <c r="X68" s="121"/>
-      <c r="Y68" s="121"/>
-      <c r="Z68" s="121"/>
-      <c r="AA68" s="121"/>
-      <c r="AB68" s="121"/>
-      <c r="AC68" s="122"/>
+      <c r="M68" s="116"/>
+      <c r="N68" s="116"/>
+      <c r="O68" s="116"/>
+      <c r="P68" s="116"/>
+      <c r="Q68" s="116"/>
+      <c r="R68" s="116"/>
+      <c r="S68" s="116"/>
+      <c r="T68" s="116"/>
+      <c r="U68" s="116"/>
+      <c r="V68" s="116"/>
+      <c r="W68" s="116"/>
+      <c r="X68" s="116"/>
+      <c r="Y68" s="116"/>
+      <c r="Z68" s="116"/>
+      <c r="AA68" s="116"/>
+      <c r="AB68" s="116"/>
+      <c r="AC68" s="117"/>
     </row>
     <row r="69" spans="9:29" ht="30" customHeight="1">
       <c r="I69" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="J69" s="114" t="s">
+      <c r="J69" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="K69" s="115"/>
-      <c r="L69" s="123" t="s">
+      <c r="K69" s="111"/>
+      <c r="L69" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="M69" s="124"/>
-      <c r="N69" s="124"/>
-      <c r="O69" s="124"/>
-      <c r="P69" s="124"/>
-      <c r="Q69" s="124"/>
-      <c r="R69" s="124"/>
-      <c r="S69" s="124"/>
-      <c r="T69" s="124"/>
-      <c r="U69" s="124"/>
-      <c r="V69" s="124"/>
-      <c r="W69" s="124"/>
-      <c r="X69" s="125"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="114"/>
+      <c r="P69" s="114"/>
+      <c r="Q69" s="114"/>
+      <c r="R69" s="114"/>
+      <c r="S69" s="114"/>
+      <c r="T69" s="114"/>
+      <c r="U69" s="114"/>
+      <c r="V69" s="114"/>
+      <c r="W69" s="114"/>
+      <c r="X69" s="115"/>
     </row>
     <row r="70" spans="9:29" ht="30" customHeight="1">
       <c r="I70" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="J70" s="114" t="s">
+      <c r="J70" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="K70" s="115"/>
-      <c r="L70" s="114" t="s">
+      <c r="K70" s="111"/>
+      <c r="L70" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="M70" s="116"/>
-      <c r="N70" s="116"/>
-      <c r="O70" s="116"/>
-      <c r="P70" s="116"/>
-      <c r="Q70" s="116"/>
-      <c r="R70" s="116"/>
-      <c r="S70" s="116"/>
-      <c r="T70" s="116"/>
-      <c r="U70" s="116"/>
-      <c r="V70" s="116"/>
-      <c r="W70" s="116"/>
-      <c r="X70" s="115"/>
+      <c r="M70" s="112"/>
+      <c r="N70" s="112"/>
+      <c r="O70" s="112"/>
+      <c r="P70" s="112"/>
+      <c r="Q70" s="112"/>
+      <c r="R70" s="112"/>
+      <c r="S70" s="112"/>
+      <c r="T70" s="112"/>
+      <c r="U70" s="112"/>
+      <c r="V70" s="112"/>
+      <c r="W70" s="112"/>
+      <c r="X70" s="111"/>
     </row>
     <row r="71" spans="9:29" ht="30" customHeight="1">
       <c r="I71" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="J71" s="114" t="s">
+      <c r="J71" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="115"/>
-      <c r="L71" s="114" t="s">
+      <c r="K71" s="111"/>
+      <c r="L71" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="M71" s="116"/>
-      <c r="N71" s="116"/>
-      <c r="O71" s="116"/>
-      <c r="P71" s="116"/>
-      <c r="Q71" s="116"/>
-      <c r="R71" s="116"/>
-      <c r="S71" s="116"/>
-      <c r="T71" s="116"/>
-      <c r="U71" s="116"/>
-      <c r="V71" s="116"/>
-      <c r="W71" s="116"/>
-      <c r="X71" s="115"/>
+      <c r="M71" s="112"/>
+      <c r="N71" s="112"/>
+      <c r="O71" s="112"/>
+      <c r="P71" s="112"/>
+      <c r="Q71" s="112"/>
+      <c r="R71" s="112"/>
+      <c r="S71" s="112"/>
+      <c r="T71" s="112"/>
+      <c r="U71" s="112"/>
+      <c r="V71" s="112"/>
+      <c r="W71" s="112"/>
+      <c r="X71" s="111"/>
     </row>
     <row r="72" spans="9:29" ht="30" customHeight="1">
       <c r="I72" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="J72" s="114" t="s">
+      <c r="J72" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="K72" s="115"/>
-      <c r="L72" s="123" t="s">
+      <c r="K72" s="111"/>
+      <c r="L72" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="M72" s="124"/>
-      <c r="N72" s="124"/>
-      <c r="O72" s="124"/>
-      <c r="P72" s="124"/>
-      <c r="Q72" s="124"/>
-      <c r="R72" s="124"/>
-      <c r="S72" s="124"/>
-      <c r="T72" s="124"/>
-      <c r="U72" s="124"/>
-      <c r="V72" s="124"/>
-      <c r="W72" s="124"/>
-      <c r="X72" s="125"/>
+      <c r="M72" s="114"/>
+      <c r="N72" s="114"/>
+      <c r="O72" s="114"/>
+      <c r="P72" s="114"/>
+      <c r="Q72" s="114"/>
+      <c r="R72" s="114"/>
+      <c r="S72" s="114"/>
+      <c r="T72" s="114"/>
+      <c r="U72" s="114"/>
+      <c r="V72" s="114"/>
+      <c r="W72" s="114"/>
+      <c r="X72" s="115"/>
     </row>
     <row r="73" spans="9:29" ht="30" customHeight="1">
       <c r="I73" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="J73" s="114" t="s">
+      <c r="J73" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="K73" s="115"/>
-      <c r="L73" s="114" t="s">
+      <c r="K73" s="111"/>
+      <c r="L73" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="M73" s="116"/>
-      <c r="N73" s="116"/>
-      <c r="O73" s="116"/>
-      <c r="P73" s="116"/>
-      <c r="Q73" s="116"/>
-      <c r="R73" s="116"/>
-      <c r="S73" s="116"/>
-      <c r="T73" s="116"/>
-      <c r="U73" s="116"/>
-      <c r="V73" s="116"/>
-      <c r="W73" s="116"/>
-      <c r="X73" s="115"/>
+      <c r="M73" s="112"/>
+      <c r="N73" s="112"/>
+      <c r="O73" s="112"/>
+      <c r="P73" s="112"/>
+      <c r="Q73" s="112"/>
+      <c r="R73" s="112"/>
+      <c r="S73" s="112"/>
+      <c r="T73" s="112"/>
+      <c r="U73" s="112"/>
+      <c r="V73" s="112"/>
+      <c r="W73" s="112"/>
+      <c r="X73" s="111"/>
     </row>
     <row r="74" spans="9:29" ht="30" customHeight="1"/>
     <row r="75" spans="9:29" ht="30" customHeight="1"/>
@@ -8423,6 +8423,34 @@
     <row r="158" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:X55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:X56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:X57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:X58"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:X64"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:X59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:X60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:AC61"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:X73"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:AC68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:X69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:X70"/>
     <mergeCell ref="AW19:BA21"/>
     <mergeCell ref="A37:J43"/>
     <mergeCell ref="J71:K71"/>
@@ -8439,34 +8467,6 @@
     <mergeCell ref="L62:AC62"/>
     <mergeCell ref="J63:K63"/>
     <mergeCell ref="L63:X63"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:X73"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:AC68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:X69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:X70"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:X64"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:X59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:X60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:AC61"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:X57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:X58"/>
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:X55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:X56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
@@ -8861,13 +8861,13 @@
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
-      <c r="AW19" s="126" t="s">
+      <c r="AW19" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="AX19" s="126"/>
-      <c r="AY19" s="126"/>
-      <c r="AZ19" s="126"/>
-      <c r="BA19" s="126"/>
+      <c r="AX19" s="107"/>
+      <c r="AY19" s="107"/>
+      <c r="AZ19" s="107"/>
+      <c r="BA19" s="107"/>
       <c r="BB19" s="2"/>
       <c r="BC19" s="2"/>
       <c r="BD19" s="2"/>
@@ -8946,11 +8946,11 @@
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
-      <c r="AW20" s="126"/>
-      <c r="AX20" s="126"/>
-      <c r="AY20" s="126"/>
-      <c r="AZ20" s="126"/>
-      <c r="BA20" s="126"/>
+      <c r="AW20" s="107"/>
+      <c r="AX20" s="107"/>
+      <c r="AY20" s="107"/>
+      <c r="AZ20" s="107"/>
+      <c r="BA20" s="107"/>
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
       <c r="BD20" s="2"/>
@@ -9011,11 +9011,11 @@
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
-      <c r="AW21" s="126"/>
-      <c r="AX21" s="126"/>
-      <c r="AY21" s="126"/>
-      <c r="AZ21" s="126"/>
-      <c r="BA21" s="126"/>
+      <c r="AW21" s="107"/>
+      <c r="AX21" s="107"/>
+      <c r="AY21" s="107"/>
+      <c r="AZ21" s="107"/>
+      <c r="BA21" s="107"/>
       <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
       <c r="BD21" s="2"/>
@@ -10589,18 +10589,18 @@
       </c>
     </row>
     <row r="37" spans="1:67" ht="30" customHeight="1">
-      <c r="A37" s="127" t="s">
+      <c r="A37" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="128"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
       <c r="K37" s="2"/>
       <c r="L37" s="46">
         <v>445</v>
@@ -10685,16 +10685,16 @@
       <c r="BC37" s="63"/>
     </row>
     <row r="38" spans="1:67" ht="30" customHeight="1">
-      <c r="A38" s="128"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
       <c r="K38" s="2"/>
       <c r="L38" s="46">
         <v>444</v>
@@ -10764,16 +10764,16 @@
       <c r="BC38" s="63"/>
     </row>
     <row r="39" spans="1:67" ht="30" customHeight="1">
-      <c r="A39" s="128"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
       <c r="K39" s="2"/>
       <c r="L39" s="46">
         <v>443</v>
@@ -10849,16 +10849,16 @@
       <c r="BC39" s="63"/>
     </row>
     <row r="40" spans="1:67" ht="30" customHeight="1">
-      <c r="A40" s="128"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
       <c r="K40" s="2"/>
       <c r="L40" s="46">
         <v>442</v>
@@ -10895,16 +10895,16 @@
       <c r="BC40" s="63"/>
     </row>
     <row r="41" spans="1:67" ht="30" customHeight="1">
-      <c r="A41" s="128"/>
-      <c r="B41" s="128"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="109"/>
       <c r="K41" s="2"/>
       <c r="L41" s="46">
         <v>441</v>
@@ -10940,16 +10940,16 @@
       <c r="BC41" s="63"/>
     </row>
     <row r="42" spans="1:67" ht="30" customHeight="1">
-      <c r="A42" s="128"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
       <c r="K42" s="2"/>
       <c r="L42" s="7"/>
       <c r="M42" s="2"/>
@@ -10989,16 +10989,16 @@
       <c r="BC42" s="63"/>
     </row>
     <row r="43" spans="1:67" ht="30" customHeight="1">
-      <c r="A43" s="128"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
       <c r="K43" s="2"/>
       <c r="L43" s="7"/>
       <c r="M43" s="2"/>
@@ -11477,7 +11477,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="2"/>
-      <c r="W52" s="107" t="s">
+      <c r="W52" s="122" t="s">
         <v>73</v>
       </c>
       <c r="X52" s="106"/>
@@ -11496,10 +11496,10 @@
         <v>51</v>
       </c>
       <c r="F54" s="52"/>
-      <c r="G54" s="107" t="s">
+      <c r="G54" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="107"/>
+      <c r="H54" s="122"/>
       <c r="J54" s="52" t="s">
         <v>75</v>
       </c>
@@ -11524,488 +11524,488 @@
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
       <c r="I55" s="57"/>
-      <c r="J55" s="108" t="s">
+      <c r="J55" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="K55" s="109"/>
-      <c r="L55" s="110" t="s">
+      <c r="K55" s="124"/>
+      <c r="L55" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="M55" s="111"/>
-      <c r="N55" s="111"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="111"/>
-      <c r="S55" s="111"/>
-      <c r="T55" s="111"/>
-      <c r="U55" s="111"/>
-      <c r="V55" s="111"/>
-      <c r="W55" s="111"/>
-      <c r="X55" s="112"/>
+      <c r="M55" s="126"/>
+      <c r="N55" s="126"/>
+      <c r="O55" s="126"/>
+      <c r="P55" s="126"/>
+      <c r="Q55" s="126"/>
+      <c r="R55" s="126"/>
+      <c r="S55" s="126"/>
+      <c r="T55" s="126"/>
+      <c r="U55" s="126"/>
+      <c r="V55" s="126"/>
+      <c r="W55" s="126"/>
+      <c r="X55" s="127"/>
     </row>
     <row r="56" spans="1:70" ht="30" customHeight="1">
-      <c r="F56" s="113" t="s">
+      <c r="F56" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="G56" s="113"/>
-      <c r="H56" s="113"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="128"/>
       <c r="I56" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="J56" s="114" t="s">
+      <c r="J56" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="K56" s="115"/>
-      <c r="L56" s="114" t="s">
+      <c r="K56" s="111"/>
+      <c r="L56" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="M56" s="116"/>
-      <c r="N56" s="116"/>
-      <c r="O56" s="116"/>
-      <c r="P56" s="116"/>
-      <c r="Q56" s="116"/>
-      <c r="R56" s="116"/>
-      <c r="S56" s="116"/>
-      <c r="T56" s="116"/>
-      <c r="U56" s="116"/>
-      <c r="V56" s="116"/>
-      <c r="W56" s="116"/>
-      <c r="X56" s="115"/>
+      <c r="M56" s="112"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="112"/>
+      <c r="R56" s="112"/>
+      <c r="S56" s="112"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="112"/>
+      <c r="V56" s="112"/>
+      <c r="W56" s="112"/>
+      <c r="X56" s="111"/>
     </row>
     <row r="57" spans="1:70" ht="30" customHeight="1">
-      <c r="F57" s="117" t="s">
+      <c r="F57" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="121"/>
       <c r="I57" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="J57" s="114" t="s">
+      <c r="J57" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="K57" s="115"/>
-      <c r="L57" s="114" t="s">
+      <c r="K57" s="111"/>
+      <c r="L57" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="M57" s="116"/>
-      <c r="N57" s="116"/>
-      <c r="O57" s="116"/>
-      <c r="P57" s="116"/>
-      <c r="Q57" s="116"/>
-      <c r="R57" s="116"/>
-      <c r="S57" s="116"/>
-      <c r="T57" s="116"/>
-      <c r="U57" s="116"/>
-      <c r="V57" s="116"/>
-      <c r="W57" s="116"/>
-      <c r="X57" s="115"/>
+      <c r="M57" s="112"/>
+      <c r="N57" s="112"/>
+      <c r="O57" s="112"/>
+      <c r="P57" s="112"/>
+      <c r="Q57" s="112"/>
+      <c r="R57" s="112"/>
+      <c r="S57" s="112"/>
+      <c r="T57" s="112"/>
+      <c r="U57" s="112"/>
+      <c r="V57" s="112"/>
+      <c r="W57" s="112"/>
+      <c r="X57" s="111"/>
     </row>
     <row r="58" spans="1:70" ht="30" customHeight="1">
       <c r="I58" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="J58" s="114" t="s">
+      <c r="J58" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="K58" s="115"/>
-      <c r="L58" s="114" t="s">
+      <c r="K58" s="111"/>
+      <c r="L58" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="M58" s="116"/>
-      <c r="N58" s="116"/>
-      <c r="O58" s="116"/>
-      <c r="P58" s="116"/>
-      <c r="Q58" s="116"/>
-      <c r="R58" s="116"/>
-      <c r="S58" s="116"/>
-      <c r="T58" s="116"/>
-      <c r="U58" s="116"/>
-      <c r="V58" s="116"/>
-      <c r="W58" s="116"/>
-      <c r="X58" s="115"/>
+      <c r="M58" s="112"/>
+      <c r="N58" s="112"/>
+      <c r="O58" s="112"/>
+      <c r="P58" s="112"/>
+      <c r="Q58" s="112"/>
+      <c r="R58" s="112"/>
+      <c r="S58" s="112"/>
+      <c r="T58" s="112"/>
+      <c r="U58" s="112"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
+      <c r="X58" s="111"/>
     </row>
     <row r="59" spans="1:70" ht="30" customHeight="1">
       <c r="I59" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="J59" s="114" t="s">
+      <c r="J59" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="K59" s="115"/>
-      <c r="L59" s="114" t="s">
+      <c r="K59" s="111"/>
+      <c r="L59" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="116"/>
-      <c r="N59" s="116"/>
-      <c r="O59" s="116"/>
-      <c r="P59" s="116"/>
-      <c r="Q59" s="116"/>
-      <c r="R59" s="116"/>
-      <c r="S59" s="116"/>
-      <c r="T59" s="116"/>
-      <c r="U59" s="116"/>
-      <c r="V59" s="116"/>
-      <c r="W59" s="116"/>
-      <c r="X59" s="115"/>
+      <c r="M59" s="112"/>
+      <c r="N59" s="112"/>
+      <c r="O59" s="112"/>
+      <c r="P59" s="112"/>
+      <c r="Q59" s="112"/>
+      <c r="R59" s="112"/>
+      <c r="S59" s="112"/>
+      <c r="T59" s="112"/>
+      <c r="U59" s="112"/>
+      <c r="V59" s="112"/>
+      <c r="W59" s="112"/>
+      <c r="X59" s="111"/>
     </row>
     <row r="60" spans="1:70" ht="30" customHeight="1">
       <c r="I60" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="J60" s="114" t="s">
+      <c r="J60" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="K60" s="115"/>
-      <c r="L60" s="114" t="s">
+      <c r="K60" s="111"/>
+      <c r="L60" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="119"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="119"/>
-      <c r="P60" s="119"/>
-      <c r="Q60" s="119"/>
-      <c r="R60" s="119"/>
-      <c r="S60" s="119"/>
-      <c r="T60" s="119"/>
-      <c r="U60" s="119"/>
-      <c r="V60" s="119"/>
-      <c r="W60" s="119"/>
-      <c r="X60" s="120"/>
+      <c r="M60" s="118"/>
+      <c r="N60" s="118"/>
+      <c r="O60" s="118"/>
+      <c r="P60" s="118"/>
+      <c r="Q60" s="118"/>
+      <c r="R60" s="118"/>
+      <c r="S60" s="118"/>
+      <c r="T60" s="118"/>
+      <c r="U60" s="118"/>
+      <c r="V60" s="118"/>
+      <c r="W60" s="118"/>
+      <c r="X60" s="119"/>
     </row>
     <row r="61" spans="1:70" ht="30" customHeight="1">
       <c r="I61" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="J61" s="114" t="s">
+      <c r="J61" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="K61" s="115"/>
-      <c r="L61" s="114" t="s">
+      <c r="K61" s="111"/>
+      <c r="L61" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="M61" s="121"/>
-      <c r="N61" s="121"/>
-      <c r="O61" s="121"/>
-      <c r="P61" s="121"/>
-      <c r="Q61" s="121"/>
-      <c r="R61" s="121"/>
-      <c r="S61" s="121"/>
-      <c r="T61" s="121"/>
-      <c r="U61" s="121"/>
-      <c r="V61" s="121"/>
-      <c r="W61" s="121"/>
-      <c r="X61" s="121"/>
-      <c r="Y61" s="121"/>
-      <c r="Z61" s="121"/>
-      <c r="AA61" s="121"/>
-      <c r="AB61" s="121"/>
-      <c r="AC61" s="122"/>
+      <c r="M61" s="116"/>
+      <c r="N61" s="116"/>
+      <c r="O61" s="116"/>
+      <c r="P61" s="116"/>
+      <c r="Q61" s="116"/>
+      <c r="R61" s="116"/>
+      <c r="S61" s="116"/>
+      <c r="T61" s="116"/>
+      <c r="U61" s="116"/>
+      <c r="V61" s="116"/>
+      <c r="W61" s="116"/>
+      <c r="X61" s="116"/>
+      <c r="Y61" s="116"/>
+      <c r="Z61" s="116"/>
+      <c r="AA61" s="116"/>
+      <c r="AB61" s="116"/>
+      <c r="AC61" s="117"/>
       <c r="AD61" s="65"/>
     </row>
     <row r="62" spans="1:70" ht="30" customHeight="1">
       <c r="I62" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="J62" s="114" t="s">
+      <c r="J62" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="K62" s="115"/>
-      <c r="L62" s="114" t="s">
+      <c r="K62" s="111"/>
+      <c r="L62" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="M62" s="121"/>
-      <c r="N62" s="121"/>
-      <c r="O62" s="121"/>
-      <c r="P62" s="121"/>
-      <c r="Q62" s="121"/>
-      <c r="R62" s="121"/>
-      <c r="S62" s="121"/>
-      <c r="T62" s="121"/>
-      <c r="U62" s="121"/>
-      <c r="V62" s="121"/>
-      <c r="W62" s="121"/>
-      <c r="X62" s="121"/>
-      <c r="Y62" s="121"/>
-      <c r="Z62" s="121"/>
-      <c r="AA62" s="121"/>
-      <c r="AB62" s="121"/>
-      <c r="AC62" s="122"/>
+      <c r="M62" s="116"/>
+      <c r="N62" s="116"/>
+      <c r="O62" s="116"/>
+      <c r="P62" s="116"/>
+      <c r="Q62" s="116"/>
+      <c r="R62" s="116"/>
+      <c r="S62" s="116"/>
+      <c r="T62" s="116"/>
+      <c r="U62" s="116"/>
+      <c r="V62" s="116"/>
+      <c r="W62" s="116"/>
+      <c r="X62" s="116"/>
+      <c r="Y62" s="116"/>
+      <c r="Z62" s="116"/>
+      <c r="AA62" s="116"/>
+      <c r="AB62" s="116"/>
+      <c r="AC62" s="117"/>
     </row>
     <row r="63" spans="1:70" ht="30" customHeight="1">
       <c r="I63" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="J63" s="114" t="s">
+      <c r="J63" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="K63" s="115"/>
-      <c r="L63" s="123" t="s">
+      <c r="K63" s="111"/>
+      <c r="L63" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="M63" s="124"/>
-      <c r="N63" s="124"/>
-      <c r="O63" s="124"/>
-      <c r="P63" s="124"/>
-      <c r="Q63" s="124"/>
-      <c r="R63" s="124"/>
-      <c r="S63" s="124"/>
-      <c r="T63" s="124"/>
-      <c r="U63" s="124"/>
-      <c r="V63" s="124"/>
-      <c r="W63" s="124"/>
-      <c r="X63" s="125"/>
+      <c r="M63" s="114"/>
+      <c r="N63" s="114"/>
+      <c r="O63" s="114"/>
+      <c r="P63" s="114"/>
+      <c r="Q63" s="114"/>
+      <c r="R63" s="114"/>
+      <c r="S63" s="114"/>
+      <c r="T63" s="114"/>
+      <c r="U63" s="114"/>
+      <c r="V63" s="114"/>
+      <c r="W63" s="114"/>
+      <c r="X63" s="115"/>
     </row>
     <row r="64" spans="1:70" ht="30" customHeight="1">
       <c r="I64" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="J64" s="114" t="s">
+      <c r="J64" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="K64" s="115"/>
-      <c r="L64" s="114" t="s">
+      <c r="K64" s="111"/>
+      <c r="L64" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="M64" s="116"/>
-      <c r="N64" s="116"/>
-      <c r="O64" s="116"/>
-      <c r="P64" s="116"/>
-      <c r="Q64" s="116"/>
-      <c r="R64" s="116"/>
-      <c r="S64" s="116"/>
-      <c r="T64" s="116"/>
-      <c r="U64" s="116"/>
-      <c r="V64" s="116"/>
-      <c r="W64" s="116"/>
-      <c r="X64" s="115"/>
+      <c r="M64" s="112"/>
+      <c r="N64" s="112"/>
+      <c r="O64" s="112"/>
+      <c r="P64" s="112"/>
+      <c r="Q64" s="112"/>
+      <c r="R64" s="112"/>
+      <c r="S64" s="112"/>
+      <c r="T64" s="112"/>
+      <c r="U64" s="112"/>
+      <c r="V64" s="112"/>
+      <c r="W64" s="112"/>
+      <c r="X64" s="111"/>
     </row>
     <row r="65" spans="9:29" ht="30" customHeight="1">
       <c r="I65" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J65" s="114" t="s">
+      <c r="J65" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="115"/>
-      <c r="L65" s="114" t="s">
+      <c r="K65" s="111"/>
+      <c r="L65" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="M65" s="116"/>
-      <c r="N65" s="116"/>
-      <c r="O65" s="116"/>
-      <c r="P65" s="116"/>
-      <c r="Q65" s="116"/>
-      <c r="R65" s="116"/>
-      <c r="S65" s="116"/>
-      <c r="T65" s="116"/>
-      <c r="U65" s="116"/>
-      <c r="V65" s="116"/>
-      <c r="W65" s="116"/>
-      <c r="X65" s="115"/>
+      <c r="M65" s="112"/>
+      <c r="N65" s="112"/>
+      <c r="O65" s="112"/>
+      <c r="P65" s="112"/>
+      <c r="Q65" s="112"/>
+      <c r="R65" s="112"/>
+      <c r="S65" s="112"/>
+      <c r="T65" s="112"/>
+      <c r="U65" s="112"/>
+      <c r="V65" s="112"/>
+      <c r="W65" s="112"/>
+      <c r="X65" s="111"/>
     </row>
     <row r="66" spans="9:29" ht="30" customHeight="1">
       <c r="I66" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J66" s="114" t="s">
+      <c r="J66" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="K66" s="115"/>
-      <c r="L66" s="114" t="s">
+      <c r="K66" s="111"/>
+      <c r="L66" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="M66" s="116"/>
-      <c r="N66" s="116"/>
-      <c r="O66" s="116"/>
-      <c r="P66" s="116"/>
-      <c r="Q66" s="116"/>
-      <c r="R66" s="116"/>
-      <c r="S66" s="116"/>
-      <c r="T66" s="116"/>
-      <c r="U66" s="116"/>
-      <c r="V66" s="116"/>
-      <c r="W66" s="116"/>
-      <c r="X66" s="115"/>
+      <c r="M66" s="112"/>
+      <c r="N66" s="112"/>
+      <c r="O66" s="112"/>
+      <c r="P66" s="112"/>
+      <c r="Q66" s="112"/>
+      <c r="R66" s="112"/>
+      <c r="S66" s="112"/>
+      <c r="T66" s="112"/>
+      <c r="U66" s="112"/>
+      <c r="V66" s="112"/>
+      <c r="W66" s="112"/>
+      <c r="X66" s="111"/>
     </row>
     <row r="67" spans="9:29" ht="30" customHeight="1">
       <c r="I67" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="J67" s="114" t="s">
+      <c r="J67" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="K67" s="115"/>
-      <c r="L67" s="114" t="s">
+      <c r="K67" s="111"/>
+      <c r="L67" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="M67" s="121"/>
-      <c r="N67" s="121"/>
-      <c r="O67" s="121"/>
-      <c r="P67" s="121"/>
-      <c r="Q67" s="121"/>
-      <c r="R67" s="121"/>
-      <c r="S67" s="121"/>
-      <c r="T67" s="121"/>
-      <c r="U67" s="121"/>
-      <c r="V67" s="121"/>
-      <c r="W67" s="121"/>
-      <c r="X67" s="121"/>
-      <c r="Y67" s="121"/>
-      <c r="Z67" s="121"/>
-      <c r="AA67" s="121"/>
-      <c r="AB67" s="121"/>
-      <c r="AC67" s="122"/>
+      <c r="M67" s="116"/>
+      <c r="N67" s="116"/>
+      <c r="O67" s="116"/>
+      <c r="P67" s="116"/>
+      <c r="Q67" s="116"/>
+      <c r="R67" s="116"/>
+      <c r="S67" s="116"/>
+      <c r="T67" s="116"/>
+      <c r="U67" s="116"/>
+      <c r="V67" s="116"/>
+      <c r="W67" s="116"/>
+      <c r="X67" s="116"/>
+      <c r="Y67" s="116"/>
+      <c r="Z67" s="116"/>
+      <c r="AA67" s="116"/>
+      <c r="AB67" s="116"/>
+      <c r="AC67" s="117"/>
     </row>
     <row r="68" spans="9:29" ht="30" customHeight="1">
       <c r="I68" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="J68" s="114" t="s">
+      <c r="J68" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="K68" s="115"/>
-      <c r="L68" s="114" t="s">
+      <c r="K68" s="111"/>
+      <c r="L68" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="M68" s="121"/>
-      <c r="N68" s="121"/>
-      <c r="O68" s="121"/>
-      <c r="P68" s="121"/>
-      <c r="Q68" s="121"/>
-      <c r="R68" s="121"/>
-      <c r="S68" s="121"/>
-      <c r="T68" s="121"/>
-      <c r="U68" s="121"/>
-      <c r="V68" s="121"/>
-      <c r="W68" s="121"/>
-      <c r="X68" s="121"/>
-      <c r="Y68" s="121"/>
-      <c r="Z68" s="121"/>
-      <c r="AA68" s="121"/>
-      <c r="AB68" s="121"/>
-      <c r="AC68" s="122"/>
+      <c r="M68" s="116"/>
+      <c r="N68" s="116"/>
+      <c r="O68" s="116"/>
+      <c r="P68" s="116"/>
+      <c r="Q68" s="116"/>
+      <c r="R68" s="116"/>
+      <c r="S68" s="116"/>
+      <c r="T68" s="116"/>
+      <c r="U68" s="116"/>
+      <c r="V68" s="116"/>
+      <c r="W68" s="116"/>
+      <c r="X68" s="116"/>
+      <c r="Y68" s="116"/>
+      <c r="Z68" s="116"/>
+      <c r="AA68" s="116"/>
+      <c r="AB68" s="116"/>
+      <c r="AC68" s="117"/>
     </row>
     <row r="69" spans="9:29" ht="30" customHeight="1">
       <c r="I69" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="J69" s="114" t="s">
+      <c r="J69" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="K69" s="115"/>
-      <c r="L69" s="123" t="s">
+      <c r="K69" s="111"/>
+      <c r="L69" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="M69" s="124"/>
-      <c r="N69" s="124"/>
-      <c r="O69" s="124"/>
-      <c r="P69" s="124"/>
-      <c r="Q69" s="124"/>
-      <c r="R69" s="124"/>
-      <c r="S69" s="124"/>
-      <c r="T69" s="124"/>
-      <c r="U69" s="124"/>
-      <c r="V69" s="124"/>
-      <c r="W69" s="124"/>
-      <c r="X69" s="125"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="114"/>
+      <c r="P69" s="114"/>
+      <c r="Q69" s="114"/>
+      <c r="R69" s="114"/>
+      <c r="S69" s="114"/>
+      <c r="T69" s="114"/>
+      <c r="U69" s="114"/>
+      <c r="V69" s="114"/>
+      <c r="W69" s="114"/>
+      <c r="X69" s="115"/>
     </row>
     <row r="70" spans="9:29" ht="30" customHeight="1">
       <c r="I70" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="J70" s="114" t="s">
+      <c r="J70" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="K70" s="115"/>
-      <c r="L70" s="114" t="s">
+      <c r="K70" s="111"/>
+      <c r="L70" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="M70" s="116"/>
-      <c r="N70" s="116"/>
-      <c r="O70" s="116"/>
-      <c r="P70" s="116"/>
-      <c r="Q70" s="116"/>
-      <c r="R70" s="116"/>
-      <c r="S70" s="116"/>
-      <c r="T70" s="116"/>
-      <c r="U70" s="116"/>
-      <c r="V70" s="116"/>
-      <c r="W70" s="116"/>
-      <c r="X70" s="115"/>
+      <c r="M70" s="112"/>
+      <c r="N70" s="112"/>
+      <c r="O70" s="112"/>
+      <c r="P70" s="112"/>
+      <c r="Q70" s="112"/>
+      <c r="R70" s="112"/>
+      <c r="S70" s="112"/>
+      <c r="T70" s="112"/>
+      <c r="U70" s="112"/>
+      <c r="V70" s="112"/>
+      <c r="W70" s="112"/>
+      <c r="X70" s="111"/>
     </row>
     <row r="71" spans="9:29" ht="30" customHeight="1">
       <c r="I71" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="J71" s="114" t="s">
+      <c r="J71" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="115"/>
-      <c r="L71" s="114" t="s">
+      <c r="K71" s="111"/>
+      <c r="L71" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="M71" s="116"/>
-      <c r="N71" s="116"/>
-      <c r="O71" s="116"/>
-      <c r="P71" s="116"/>
-      <c r="Q71" s="116"/>
-      <c r="R71" s="116"/>
-      <c r="S71" s="116"/>
-      <c r="T71" s="116"/>
-      <c r="U71" s="116"/>
-      <c r="V71" s="116"/>
-      <c r="W71" s="116"/>
-      <c r="X71" s="115"/>
+      <c r="M71" s="112"/>
+      <c r="N71" s="112"/>
+      <c r="O71" s="112"/>
+      <c r="P71" s="112"/>
+      <c r="Q71" s="112"/>
+      <c r="R71" s="112"/>
+      <c r="S71" s="112"/>
+      <c r="T71" s="112"/>
+      <c r="U71" s="112"/>
+      <c r="V71" s="112"/>
+      <c r="W71" s="112"/>
+      <c r="X71" s="111"/>
     </row>
     <row r="72" spans="9:29" ht="30" customHeight="1">
       <c r="I72" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="J72" s="114" t="s">
+      <c r="J72" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="K72" s="115"/>
-      <c r="L72" s="123" t="s">
+      <c r="K72" s="111"/>
+      <c r="L72" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="M72" s="124"/>
-      <c r="N72" s="124"/>
-      <c r="O72" s="124"/>
-      <c r="P72" s="124"/>
-      <c r="Q72" s="124"/>
-      <c r="R72" s="124"/>
-      <c r="S72" s="124"/>
-      <c r="T72" s="124"/>
-      <c r="U72" s="124"/>
-      <c r="V72" s="124"/>
-      <c r="W72" s="124"/>
-      <c r="X72" s="125"/>
+      <c r="M72" s="114"/>
+      <c r="N72" s="114"/>
+      <c r="O72" s="114"/>
+      <c r="P72" s="114"/>
+      <c r="Q72" s="114"/>
+      <c r="R72" s="114"/>
+      <c r="S72" s="114"/>
+      <c r="T72" s="114"/>
+      <c r="U72" s="114"/>
+      <c r="V72" s="114"/>
+      <c r="W72" s="114"/>
+      <c r="X72" s="115"/>
     </row>
     <row r="73" spans="9:29" ht="30" customHeight="1">
       <c r="I73" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="J73" s="114" t="s">
+      <c r="J73" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="K73" s="115"/>
-      <c r="L73" s="114" t="s">
+      <c r="K73" s="111"/>
+      <c r="L73" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="M73" s="116"/>
-      <c r="N73" s="116"/>
-      <c r="O73" s="116"/>
-      <c r="P73" s="116"/>
-      <c r="Q73" s="116"/>
-      <c r="R73" s="116"/>
-      <c r="S73" s="116"/>
-      <c r="T73" s="116"/>
-      <c r="U73" s="116"/>
-      <c r="V73" s="116"/>
-      <c r="W73" s="116"/>
-      <c r="X73" s="115"/>
+      <c r="M73" s="112"/>
+      <c r="N73" s="112"/>
+      <c r="O73" s="112"/>
+      <c r="P73" s="112"/>
+      <c r="Q73" s="112"/>
+      <c r="R73" s="112"/>
+      <c r="S73" s="112"/>
+      <c r="T73" s="112"/>
+      <c r="U73" s="112"/>
+      <c r="V73" s="112"/>
+      <c r="W73" s="112"/>
+      <c r="X73" s="111"/>
     </row>
     <row r="74" spans="9:29" ht="30" customHeight="1"/>
     <row r="75" spans="9:29" ht="30" customHeight="1"/>
@@ -12094,6 +12094,34 @@
     <row r="158" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:X55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:X56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:X57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:X58"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:X64"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:X59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:X60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:AC61"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:X73"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:AC68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:X69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:X70"/>
     <mergeCell ref="A37:J43"/>
     <mergeCell ref="AW19:BA21"/>
     <mergeCell ref="J71:K71"/>
@@ -12110,34 +12138,6 @@
     <mergeCell ref="L62:AC62"/>
     <mergeCell ref="J63:K63"/>
     <mergeCell ref="L63:X63"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:X73"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:AC68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:X69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:X70"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:X64"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:X59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:X60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:AC61"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:X57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:X58"/>
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:X55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:X56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
@@ -17160,14 +17160,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17182,12 +17177,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+</pixelators>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -17195,12 +17199,8 @@
 </settings>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -17218,7 +17218,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -17227,7 +17227,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -17236,7 +17236,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/AGV线路图-2019-10.11.xlsx
+++ b/AGV线路图-2019-10.11.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/touchmii/Documents/CodeRunner/Python-path-find/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A576E862-9BE4-0A45-B376-E126894EFCFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207B0F50-A1C9-EE4B-9E47-FA970F6D2CD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="640" windowWidth="25080" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="640" windowWidth="25080" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="现场实测地图" sheetId="2" r:id="rId1"/>
-    <sheet name="规划地图" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4 (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="现场实测地图.bk" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="规划地图" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet4 (2)" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="152">
   <si>
     <t>备用</t>
   </si>
@@ -489,7 +491,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +650,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -950,7 +960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,49 +1282,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1336,6 +1307,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1615,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BI142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AN23" sqref="AN23"/>
+    <sheetView zoomScale="163" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
@@ -2075,7 +2109,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3">
+      <c r="D7" s="133">
         <v>455</v>
       </c>
       <c r="E7" s="3">
@@ -2096,7 +2130,7 @@
       <c r="J7" s="3">
         <v>466</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7" s="134">
         <v>467</v>
       </c>
       <c r="L7" s="3">
@@ -2991,9 +3025,20 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="11"/>
       <c r="AE16" s="2"/>
+      <c r="AF16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="AK16" s="2"/>
-      <c r="AL16" s="11" t="s">
-        <v>21</v>
+      <c r="AL16" s="17">
+        <v>116</v>
       </c>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
@@ -3020,27 +3065,72 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="11" t="s">
+      <c r="H17" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="AL17" s="12">
-        <v>116</v>
-      </c>
-      <c r="AP17" s="2"/>
+      <c r="I17" s="97">
+        <v>134</v>
+      </c>
+      <c r="J17" s="98">
+        <v>344</v>
+      </c>
+      <c r="K17" s="13">
+        <v>252</v>
+      </c>
+      <c r="L17" s="18">
+        <v>262</v>
+      </c>
+      <c r="M17" s="18">
+        <v>263</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="W17" s="6"/>
+      <c r="X17" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="12">
+        <v>178</v>
+      </c>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="12">
+        <v>179</v>
+      </c>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="12">
+        <v>115</v>
+      </c>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="28">
+        <v>332</v>
+      </c>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
@@ -3062,72 +3152,69 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="97">
-        <v>134</v>
-      </c>
-      <c r="J18" s="98">
-        <v>344</v>
-      </c>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="99"/>
       <c r="K18" s="13">
-        <v>252</v>
-      </c>
-      <c r="L18" s="18">
-        <v>262</v>
-      </c>
-      <c r="M18" s="18">
-        <v>263</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="16" t="s">
-        <v>146</v>
+      <c r="R18" s="79">
+        <v>172</v>
+      </c>
+      <c r="S18" s="10"/>
+      <c r="T18" s="17">
+        <v>173</v>
       </c>
       <c r="U18" s="2"/>
-      <c r="V18" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="16" t="s">
-        <v>148</v>
+      <c r="V18" s="17">
+        <v>174</v>
+      </c>
+      <c r="W18" s="10"/>
+      <c r="X18" s="17">
+        <v>175</v>
       </c>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC18" s="2"/>
+      <c r="Z18" s="17">
+        <v>176</v>
+      </c>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="25">
+        <v>177</v>
+      </c>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="12">
-        <v>178</v>
-      </c>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="12">
-        <v>179</v>
-      </c>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="12">
-        <v>115</v>
-      </c>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="28">
-        <v>332</v>
-      </c>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="28">
+        <v>329</v>
+      </c>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="28">
+        <v>330</v>
+      </c>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="28">
+        <v>331</v>
+      </c>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="31">
+        <v>327</v>
+      </c>
+      <c r="AM18" s="104">
+        <v>207</v>
+      </c>
+      <c r="AN18" s="35">
+        <v>206</v>
+      </c>
+      <c r="AP18" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="AU18" s="3">
         <v>506</v>
       </c>
@@ -3144,68 +3231,70 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="99"/>
+      <c r="H19" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="97">
+        <v>133</v>
+      </c>
+      <c r="J19" s="98">
+        <v>343</v>
+      </c>
       <c r="K19" s="13">
-        <v>251</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>51</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="L19" s="6"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="79">
-        <v>172</v>
-      </c>
-      <c r="S19" s="10"/>
-      <c r="T19" s="17">
-        <v>173</v>
+      <c r="R19" s="82">
+        <v>317</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="13">
+        <v>318</v>
       </c>
       <c r="U19" s="2"/>
-      <c r="V19" s="17">
-        <v>174</v>
-      </c>
-      <c r="W19" s="10"/>
-      <c r="X19" s="17">
-        <v>175</v>
+      <c r="V19" s="18">
+        <v>319</v>
+      </c>
+      <c r="W19" s="2"/>
+      <c r="X19" s="13">
+        <v>320</v>
       </c>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="17">
-        <v>176</v>
-      </c>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="25">
-        <v>177</v>
+      <c r="Z19" s="18">
+        <v>321</v>
+      </c>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="13">
+        <v>322</v>
       </c>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="28">
-        <v>329</v>
-      </c>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="28">
-        <v>330</v>
-      </c>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="28">
-        <v>331</v>
-      </c>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="31">
-        <v>327</v>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="13">
+        <v>324</v>
+      </c>
+      <c r="AH19" s="18">
+        <v>325</v>
+      </c>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="13">
+        <v>326</v>
+      </c>
+      <c r="AL19" s="32">
+        <v>203</v>
       </c>
       <c r="AM19" s="104">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AN19" s="35">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AP19" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AU19" s="3">
         <v>507</v>
@@ -3223,70 +3312,101 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="97">
-        <v>133</v>
-      </c>
-      <c r="J20" s="98">
-        <v>343</v>
-      </c>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="101"/>
       <c r="K20" s="13">
-        <v>250</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="82">
-        <v>317</v>
-      </c>
-      <c r="S20" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="L20" s="13">
+        <v>236</v>
+      </c>
+      <c r="M20" s="13">
+        <v>235</v>
+      </c>
+      <c r="N20" s="13">
+        <v>234</v>
+      </c>
+      <c r="O20" s="13">
+        <v>233</v>
+      </c>
+      <c r="P20" s="13">
+        <v>232</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>231</v>
+      </c>
+      <c r="R20" s="13">
+        <v>230</v>
+      </c>
+      <c r="S20" s="13">
+        <v>229</v>
+      </c>
       <c r="T20" s="13">
-        <v>318</v>
-      </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="18">
-        <v>319</v>
-      </c>
-      <c r="W20" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="U20" s="13">
+        <v>227</v>
+      </c>
+      <c r="V20" s="13">
+        <v>226</v>
+      </c>
+      <c r="W20" s="13">
+        <v>225</v>
+      </c>
       <c r="X20" s="13">
-        <v>320</v>
-      </c>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="18">
-        <v>321</v>
-      </c>
-      <c r="AA20" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>223</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>222</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>221</v>
+      </c>
       <c r="AB20" s="13">
-        <v>322</v>
-      </c>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>219</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>218</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>217</v>
+      </c>
       <c r="AF20" s="13">
-        <v>324</v>
-      </c>
-      <c r="AH20" s="18">
-        <v>325</v>
-      </c>
-      <c r="AI20" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>215</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>214</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>213</v>
+      </c>
       <c r="AJ20" s="13">
-        <v>326</v>
+        <v>212</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>211</v>
       </c>
       <c r="AL20" s="32">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AM20" s="104">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="AN20" s="35">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AP20" s="20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU20" s="19">
         <v>0</v>
@@ -3304,101 +3424,70 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="101"/>
+      <c r="H21" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="97">
+        <v>132</v>
+      </c>
+      <c r="J21" s="98">
+        <v>342</v>
+      </c>
       <c r="K21" s="13">
-        <v>249</v>
-      </c>
-      <c r="L21" s="13">
-        <v>237</v>
-      </c>
-      <c r="M21" s="13">
-        <v>235</v>
-      </c>
-      <c r="N21" s="13">
-        <v>234</v>
-      </c>
-      <c r="O21" s="13">
-        <v>233</v>
-      </c>
-      <c r="P21" s="13">
-        <v>232</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>231</v>
-      </c>
-      <c r="R21" s="13">
-        <v>230</v>
-      </c>
-      <c r="S21" s="13">
-        <v>229</v>
-      </c>
-      <c r="T21" s="13">
-        <v>228</v>
-      </c>
-      <c r="U21" s="13">
-        <v>227</v>
-      </c>
-      <c r="V21" s="13">
-        <v>226</v>
-      </c>
-      <c r="W21" s="13">
-        <v>225</v>
-      </c>
-      <c r="X21" s="13">
-        <v>224</v>
-      </c>
-      <c r="Y21" s="13">
-        <v>223</v>
-      </c>
-      <c r="Z21" s="13">
-        <v>222</v>
-      </c>
-      <c r="AA21" s="13">
-        <v>221</v>
-      </c>
-      <c r="AB21" s="13">
-        <v>220</v>
-      </c>
-      <c r="AC21" s="13">
-        <v>219</v>
-      </c>
-      <c r="AD21" s="13">
-        <v>218</v>
-      </c>
-      <c r="AE21" s="13">
-        <v>217</v>
-      </c>
-      <c r="AF21" s="13">
-        <v>216</v>
-      </c>
-      <c r="AG21" s="13">
-        <v>215</v>
-      </c>
-      <c r="AH21" s="13">
-        <v>214</v>
-      </c>
-      <c r="AI21" s="13">
-        <v>213</v>
-      </c>
-      <c r="AJ21" s="13">
-        <v>212</v>
-      </c>
-      <c r="AK21" s="13">
-        <v>211</v>
-      </c>
-      <c r="AL21" s="32">
-        <v>210</v>
-      </c>
-      <c r="AM21" s="104">
-        <v>25</v>
-      </c>
-      <c r="AN21" s="35">
-        <v>204</v>
-      </c>
-      <c r="AP21" s="20" t="s">
-        <v>57</v>
+        <v>248</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="82">
+        <v>301</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="18">
+        <v>302</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="18">
+        <v>303</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="18">
+        <v>304</v>
+      </c>
+      <c r="U21" s="5"/>
+      <c r="V21" s="18">
+        <v>305</v>
+      </c>
+      <c r="W21" s="5"/>
+      <c r="X21" s="18">
+        <v>306</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="18">
+        <v>307</v>
+      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="18">
+        <v>308</v>
+      </c>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="18">
+        <v>309</v>
+      </c>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="18">
+        <v>310</v>
+      </c>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="18">
+        <v>311</v>
+      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="18">
+        <v>312</v>
+      </c>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="31">
+        <v>313</v>
       </c>
       <c r="AU21" s="19">
         <v>0</v>
@@ -3416,70 +3505,64 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="97">
-        <v>132</v>
-      </c>
-      <c r="J22" s="98">
-        <v>342</v>
-      </c>
-      <c r="K22" s="13">
-        <v>248</v>
+      <c r="H22" s="99"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="78">
+        <v>247</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="82">
-        <v>301</v>
-      </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="18">
-        <v>302</v>
-      </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="18">
-        <v>303</v>
-      </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="18">
-        <v>304</v>
-      </c>
-      <c r="U22" s="5"/>
-      <c r="V22" s="18">
-        <v>305</v>
-      </c>
-      <c r="W22" s="5"/>
-      <c r="X22" s="18">
-        <v>306</v>
-      </c>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="18">
-        <v>307</v>
-      </c>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="18">
-        <v>308</v>
-      </c>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="18">
-        <v>309</v>
-      </c>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="18">
-        <v>310</v>
-      </c>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="18">
-        <v>311</v>
-      </c>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="18">
-        <v>312</v>
-      </c>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="31">
-        <v>313</v>
+      <c r="N22" s="79">
+        <v>101</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="12">
+        <v>102</v>
+      </c>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="12">
+        <v>103</v>
+      </c>
+      <c r="S22" s="10"/>
+      <c r="T22" s="12">
+        <v>104</v>
+      </c>
+      <c r="U22" s="10"/>
+      <c r="V22" s="12">
+        <v>105</v>
+      </c>
+      <c r="W22" s="10"/>
+      <c r="X22" s="12">
+        <v>106</v>
+      </c>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="12">
+        <v>107</v>
+      </c>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="27">
+        <v>108</v>
+      </c>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="27">
+        <v>109</v>
+      </c>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="27">
+        <v>110</v>
+      </c>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="27">
+        <v>111</v>
+      </c>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="27">
+        <v>112</v>
+      </c>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="27">
+        <v>113</v>
       </c>
       <c r="AU22" s="19">
         <v>0</v>
@@ -3495,64 +3578,64 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="78">
-        <v>247</v>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="13">
+        <v>246</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="79">
-        <v>101</v>
-      </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="12">
-        <v>102</v>
-      </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="12">
-        <v>103</v>
-      </c>
-      <c r="S23" s="10"/>
-      <c r="T23" s="12">
-        <v>104</v>
-      </c>
-      <c r="U23" s="10"/>
-      <c r="V23" s="12">
-        <v>105</v>
-      </c>
-      <c r="W23" s="10"/>
-      <c r="X23" s="12">
-        <v>106</v>
-      </c>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="12">
-        <v>107</v>
-      </c>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="27">
-        <v>108</v>
-      </c>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="27">
-        <v>109</v>
-      </c>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="27">
-        <v>110</v>
-      </c>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="27">
-        <v>111</v>
-      </c>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="27">
-        <v>112</v>
-      </c>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="27">
-        <v>113</v>
+      <c r="N23" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="22"/>
+      <c r="P23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="22"/>
+      <c r="T23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W23" s="22"/>
+      <c r="X23" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="AU23" s="19">
         <v>0</v>
@@ -3568,64 +3651,8 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="13">
-        <v>246</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="S24" s="22"/>
-      <c r="T24" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="U24" s="2"/>
-      <c r="V24" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W24" s="22"/>
-      <c r="X24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="16" t="s">
-        <v>20</v>
+      <c r="K24" s="19">
+        <v>0</v>
       </c>
       <c r="AU24" s="19">
         <v>0</v>
@@ -4181,8 +4208,8 @@
       </c>
       <c r="S35" s="87"/>
       <c r="T35" s="87"/>
-      <c r="V35" s="106"/>
-      <c r="W35" s="106"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="108"/>
       <c r="AH35" s="52"/>
       <c r="AI35" s="65"/>
       <c r="AJ35" s="65"/>
@@ -4780,10 +4807,3555 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0C017D-5489-F749-B6C7-70D01A60C249}">
+  <dimension ref="A1:BI142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="82" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="51" width="4.6640625" customWidth="1"/>
+    <col min="52" max="52" width="6.6640625" customWidth="1"/>
+    <col min="53" max="61" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" ht="30" customHeight="1">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106"/>
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="3">
+        <v>850</v>
+      </c>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="106"/>
+      <c r="BB1" s="106"/>
+    </row>
+    <row r="2" spans="1:55" ht="30" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="3">
+        <v>785</v>
+      </c>
+      <c r="U2" s="3">
+        <v>784</v>
+      </c>
+      <c r="V2" s="132">
+        <v>787</v>
+      </c>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="106"/>
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="106"/>
+      <c r="AM2" s="106"/>
+      <c r="AN2" s="106"/>
+      <c r="AO2" s="106"/>
+      <c r="AP2" s="106">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="106"/>
+      <c r="AR2" s="106"/>
+      <c r="AS2" s="106"/>
+      <c r="AT2" s="106"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="106"/>
+      <c r="AX2" s="3">
+        <v>849</v>
+      </c>
+      <c r="AY2" s="106"/>
+      <c r="AZ2" s="106"/>
+      <c r="BA2" s="106"/>
+      <c r="BB2" s="106"/>
+    </row>
+    <row r="3" spans="1:55" ht="30" customHeight="1">
+      <c r="A3" s="1">
+        <v>729</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="3">
+        <v>751</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>750</v>
+      </c>
+      <c r="R3" s="131">
+        <v>749</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="3">
+        <v>788</v>
+      </c>
+      <c r="V3" s="3">
+        <v>789</v>
+      </c>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106"/>
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="106"/>
+      <c r="AK3" s="106"/>
+      <c r="AL3" s="106"/>
+      <c r="AM3" s="106"/>
+      <c r="AN3" s="106"/>
+      <c r="AO3" s="89">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ3" s="89">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="89"/>
+      <c r="AS3" s="89"/>
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106"/>
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="3">
+        <v>848</v>
+      </c>
+      <c r="AY3" s="106"/>
+      <c r="AZ3" s="106"/>
+      <c r="BA3" s="106"/>
+      <c r="BB3" s="106"/>
+    </row>
+    <row r="4" spans="1:55" ht="30" customHeight="1">
+      <c r="A4" s="135">
+        <v>728</v>
+      </c>
+      <c r="B4" s="1">
+        <v>727</v>
+      </c>
+      <c r="C4" s="1">
+        <v>726</v>
+      </c>
+      <c r="D4" s="135">
+        <v>458</v>
+      </c>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="3">
+        <v>745</v>
+      </c>
+      <c r="J4" s="3">
+        <v>744</v>
+      </c>
+      <c r="K4" s="131">
+        <v>743</v>
+      </c>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="3">
+        <v>752</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>341</v>
+      </c>
+      <c r="R4" s="131">
+        <v>138</v>
+      </c>
+      <c r="T4" s="106"/>
+      <c r="U4" s="75">
+        <v>783</v>
+      </c>
+      <c r="V4" s="132">
+        <v>786</v>
+      </c>
+      <c r="X4" s="106"/>
+      <c r="AA4" s="75">
+        <v>803</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>804</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>805</v>
+      </c>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="3">
+        <v>825</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>824</v>
+      </c>
+      <c r="AI4" s="75">
+        <v>823</v>
+      </c>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="3">
+        <v>847</v>
+      </c>
+      <c r="AY4" s="106"/>
+      <c r="AZ4" s="106">
+        <v>13</v>
+      </c>
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+    </row>
+    <row r="5" spans="1:55" ht="30" customHeight="1">
+      <c r="C5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>457</v>
+      </c>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106">
+        <v>4</v>
+      </c>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="3">
+        <v>742</v>
+      </c>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="3">
+        <v>748</v>
+      </c>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="3">
+        <v>782</v>
+      </c>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="3">
+        <v>802</v>
+      </c>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="3">
+        <v>822</v>
+      </c>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="89"/>
+      <c r="AQ5" s="89"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="106"/>
+      <c r="AU5" s="106"/>
+      <c r="AV5" s="106"/>
+      <c r="AW5" s="106"/>
+      <c r="AX5" s="75">
+        <v>846</v>
+      </c>
+      <c r="AY5" s="106"/>
+      <c r="AZ5" s="106"/>
+      <c r="BA5" s="106"/>
+      <c r="BB5" s="106"/>
+    </row>
+    <row r="6" spans="1:55" ht="30" customHeight="1">
+      <c r="D6" s="1">
+        <v>456</v>
+      </c>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>741</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>747</v>
+      </c>
+      <c r="S6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>781</v>
+      </c>
+      <c r="V6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>801</v>
+      </c>
+      <c r="AB6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="106"/>
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>821</v>
+      </c>
+      <c r="AJ6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="106"/>
+      <c r="AN6" s="106"/>
+      <c r="AO6" s="106"/>
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="106"/>
+      <c r="AT6" s="106"/>
+      <c r="AU6" s="106"/>
+      <c r="AV6" s="106"/>
+      <c r="AW6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>845</v>
+      </c>
+      <c r="AY6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="106"/>
+      <c r="BB6" s="106"/>
+    </row>
+    <row r="7" spans="1:55" ht="30" customHeight="1">
+      <c r="A7" s="3">
+        <v>685</v>
+      </c>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="132">
+        <v>455</v>
+      </c>
+      <c r="E7" s="3">
+        <v>461</v>
+      </c>
+      <c r="F7" s="3">
+        <v>462</v>
+      </c>
+      <c r="G7" s="3">
+        <v>463</v>
+      </c>
+      <c r="H7" s="3">
+        <v>464</v>
+      </c>
+      <c r="I7" s="3">
+        <v>465</v>
+      </c>
+      <c r="J7" s="3">
+        <v>466</v>
+      </c>
+      <c r="K7" s="131">
+        <v>467</v>
+      </c>
+      <c r="L7" s="3">
+        <v>468</v>
+      </c>
+      <c r="M7" s="3">
+        <v>469</v>
+      </c>
+      <c r="N7" s="3">
+        <v>470</v>
+      </c>
+      <c r="O7" s="3">
+        <v>471</v>
+      </c>
+      <c r="P7" s="3">
+        <v>472</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>473</v>
+      </c>
+      <c r="R7" s="131">
+        <v>474</v>
+      </c>
+      <c r="S7" s="3">
+        <v>475</v>
+      </c>
+      <c r="T7" s="3">
+        <v>476</v>
+      </c>
+      <c r="U7" s="131">
+        <v>477</v>
+      </c>
+      <c r="V7" s="3">
+        <v>478</v>
+      </c>
+      <c r="W7" s="3">
+        <v>479</v>
+      </c>
+      <c r="X7" s="3">
+        <v>480</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>481</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>482</v>
+      </c>
+      <c r="AA7" s="131">
+        <v>483</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>484</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>485</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>486</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>487</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>488</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>489</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>490</v>
+      </c>
+      <c r="AI7" s="131">
+        <v>491</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>492</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>493</v>
+      </c>
+      <c r="AL7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>494</v>
+      </c>
+      <c r="AU7" s="132">
+        <v>495</v>
+      </c>
+      <c r="AV7" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="3">
+        <v>844</v>
+      </c>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="29"/>
+    </row>
+    <row r="8" spans="1:55" ht="30" customHeight="1">
+      <c r="A8" s="3">
+        <v>684</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>454</v>
+      </c>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13">
+        <v>260</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="106"/>
+      <c r="AJ8" s="106"/>
+      <c r="AK8" s="106"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="106"/>
+      <c r="AN8" s="106"/>
+      <c r="AO8" s="106"/>
+      <c r="AP8" s="106"/>
+      <c r="AQ8" s="106"/>
+      <c r="AR8" s="106"/>
+      <c r="AS8" s="106"/>
+      <c r="AT8" s="106"/>
+      <c r="AU8" s="75">
+        <v>496</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>841</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>842</v>
+      </c>
+      <c r="AX8" s="75">
+        <v>843</v>
+      </c>
+      <c r="AY8" s="106"/>
+      <c r="AZ8" s="106"/>
+      <c r="BA8" s="106"/>
+      <c r="BB8" s="106"/>
+    </row>
+    <row r="9" spans="1:55" ht="30" customHeight="1">
+      <c r="A9" s="75">
+        <v>683</v>
+      </c>
+      <c r="B9" s="3">
+        <v>682</v>
+      </c>
+      <c r="C9" s="3">
+        <v>681</v>
+      </c>
+      <c r="D9" s="131">
+        <v>453</v>
+      </c>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106">
+        <v>3</v>
+      </c>
+      <c r="J9" s="106"/>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="U9" s="106"/>
+      <c r="V9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="W9" s="6"/>
+      <c r="X9" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK9" s="106"/>
+      <c r="AL9" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO9" s="106"/>
+      <c r="AP9" s="106"/>
+      <c r="AQ9" s="106"/>
+      <c r="AR9" s="106"/>
+      <c r="AS9" s="106">
+        <v>12</v>
+      </c>
+      <c r="AT9" s="106"/>
+      <c r="AU9" s="3">
+        <v>497</v>
+      </c>
+      <c r="AV9" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="106"/>
+      <c r="BB9" s="106"/>
+    </row>
+    <row r="10" spans="1:55" ht="30" customHeight="1">
+      <c r="A10" s="106"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>452</v>
+      </c>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="13">
+        <v>259</v>
+      </c>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="79">
+        <v>154</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="17">
+        <v>155</v>
+      </c>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="17">
+        <v>156</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="17">
+        <v>157</v>
+      </c>
+      <c r="U10" s="10"/>
+      <c r="V10" s="17">
+        <v>158</v>
+      </c>
+      <c r="W10" s="10"/>
+      <c r="X10" s="17">
+        <v>159</v>
+      </c>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="17">
+        <v>160</v>
+      </c>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="17">
+        <v>161</v>
+      </c>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="17">
+        <v>162</v>
+      </c>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="17">
+        <v>163</v>
+      </c>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="17">
+        <v>164</v>
+      </c>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="17">
+        <v>165</v>
+      </c>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="17">
+        <v>166</v>
+      </c>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="17">
+        <v>167</v>
+      </c>
+      <c r="AO10" s="106"/>
+      <c r="AP10" s="106"/>
+      <c r="AQ10" s="106"/>
+      <c r="AR10" s="106"/>
+      <c r="AS10" s="106"/>
+      <c r="AT10" s="106"/>
+      <c r="AU10" s="3">
+        <v>498</v>
+      </c>
+      <c r="AV10" s="106"/>
+      <c r="AY10" s="106"/>
+      <c r="AZ10" s="106"/>
+      <c r="BA10" s="106"/>
+      <c r="BB10" s="106"/>
+    </row>
+    <row r="11" spans="1:55" ht="30" customHeight="1">
+      <c r="A11" s="3">
+        <v>665</v>
+      </c>
+      <c r="D11" s="3">
+        <v>451</v>
+      </c>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="97">
+        <v>137</v>
+      </c>
+      <c r="J11" s="98">
+        <v>347</v>
+      </c>
+      <c r="K11" s="78">
+        <v>258</v>
+      </c>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="82">
+        <v>381</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="13">
+        <v>382</v>
+      </c>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="13">
+        <v>383</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="13">
+        <v>384</v>
+      </c>
+      <c r="U11" s="106"/>
+      <c r="V11" s="13">
+        <v>385</v>
+      </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="13">
+        <v>386</v>
+      </c>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="13">
+        <v>387</v>
+      </c>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="13">
+        <v>388</v>
+      </c>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="13">
+        <v>389</v>
+      </c>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="13">
+        <v>390</v>
+      </c>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="13">
+        <v>391</v>
+      </c>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="13">
+        <v>392</v>
+      </c>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="13">
+        <v>393</v>
+      </c>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="13">
+        <v>394</v>
+      </c>
+      <c r="AO11" s="106"/>
+      <c r="AP11" s="106"/>
+      <c r="AQ11" s="106"/>
+      <c r="AR11" s="106"/>
+      <c r="AS11" s="106"/>
+      <c r="AT11" s="106"/>
+      <c r="AU11" s="3">
+        <v>499</v>
+      </c>
+      <c r="AV11" s="106"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="106"/>
+      <c r="AY11" s="106"/>
+      <c r="AZ11" s="106"/>
+      <c r="BA11" s="106"/>
+      <c r="BB11" s="106"/>
+    </row>
+    <row r="12" spans="1:55" ht="30" customHeight="1">
+      <c r="A12" s="3">
+        <v>664</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>450</v>
+      </c>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="13">
+        <v>257</v>
+      </c>
+      <c r="L12" s="13">
+        <v>265</v>
+      </c>
+      <c r="M12" s="13">
+        <v>266</v>
+      </c>
+      <c r="N12" s="13">
+        <v>267</v>
+      </c>
+      <c r="O12" s="13">
+        <v>268</v>
+      </c>
+      <c r="P12" s="13">
+        <v>269</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>270</v>
+      </c>
+      <c r="R12" s="13">
+        <v>271</v>
+      </c>
+      <c r="S12" s="13">
+        <v>272</v>
+      </c>
+      <c r="T12" s="13">
+        <v>273</v>
+      </c>
+      <c r="U12" s="13">
+        <v>274</v>
+      </c>
+      <c r="V12" s="13">
+        <v>275</v>
+      </c>
+      <c r="W12" s="13">
+        <v>276</v>
+      </c>
+      <c r="X12" s="13">
+        <v>277</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>278</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>279</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>280</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>281</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>282</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>283</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>284</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>285</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>286</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>287</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>288</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>289</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>290</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>291</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>292</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>293</v>
+      </c>
+      <c r="AO12" s="106"/>
+      <c r="AP12" s="106"/>
+      <c r="AQ12" s="106"/>
+      <c r="AR12" s="106"/>
+      <c r="AS12" s="106"/>
+      <c r="AT12" s="106"/>
+      <c r="AU12" s="3">
+        <v>500</v>
+      </c>
+      <c r="AV12" s="106"/>
+      <c r="AW12" s="106"/>
+      <c r="AX12" s="106"/>
+      <c r="AY12" s="106"/>
+      <c r="AZ12" s="106"/>
+      <c r="BA12" s="106"/>
+      <c r="BB12" s="106"/>
+    </row>
+    <row r="13" spans="1:55" ht="30" customHeight="1">
+      <c r="A13" s="75">
+        <v>663</v>
+      </c>
+      <c r="B13" s="3">
+        <v>662</v>
+      </c>
+      <c r="C13" s="3">
+        <v>661</v>
+      </c>
+      <c r="D13" s="131">
+        <v>449</v>
+      </c>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="97">
+        <v>136</v>
+      </c>
+      <c r="J13" s="98">
+        <v>346</v>
+      </c>
+      <c r="K13" s="13">
+        <v>256</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="82">
+        <v>363</v>
+      </c>
+      <c r="S13" s="106"/>
+      <c r="T13" s="13">
+        <v>364</v>
+      </c>
+      <c r="U13" s="106"/>
+      <c r="V13" s="13">
+        <v>365</v>
+      </c>
+      <c r="W13" s="106"/>
+      <c r="X13" s="13">
+        <v>366</v>
+      </c>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="13">
+        <v>367</v>
+      </c>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="13">
+        <v>368</v>
+      </c>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="106"/>
+      <c r="AE13" s="106"/>
+      <c r="AF13" s="13">
+        <v>370</v>
+      </c>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="13">
+        <v>371</v>
+      </c>
+      <c r="AI13" s="106"/>
+      <c r="AJ13" s="13">
+        <v>372</v>
+      </c>
+      <c r="AK13" s="106"/>
+      <c r="AL13" s="13">
+        <v>373</v>
+      </c>
+      <c r="AM13" s="106"/>
+      <c r="AN13" s="13">
+        <v>374</v>
+      </c>
+      <c r="AO13" s="106"/>
+      <c r="AP13" s="106"/>
+      <c r="AQ13" s="106"/>
+      <c r="AR13" s="106"/>
+      <c r="AS13" s="106"/>
+      <c r="AU13" s="3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" ht="30" customHeight="1">
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>448</v>
+      </c>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="13">
+        <v>255</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="79">
+        <v>141</v>
+      </c>
+      <c r="S14" s="21"/>
+      <c r="T14" s="17">
+        <v>142</v>
+      </c>
+      <c r="U14" s="21"/>
+      <c r="V14" s="17">
+        <v>143</v>
+      </c>
+      <c r="W14" s="21"/>
+      <c r="X14" s="17">
+        <v>144</v>
+      </c>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="17">
+        <v>145</v>
+      </c>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="17">
+        <v>146</v>
+      </c>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="106"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="17">
+        <v>148</v>
+      </c>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="17">
+        <v>149</v>
+      </c>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="17">
+        <v>150</v>
+      </c>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="17">
+        <v>151</v>
+      </c>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="17">
+        <v>152</v>
+      </c>
+      <c r="AO14" s="106"/>
+      <c r="AP14" s="106"/>
+      <c r="AQ14" s="106"/>
+      <c r="AR14" s="106"/>
+      <c r="AS14" s="106"/>
+      <c r="AU14" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" ht="30" customHeight="1">
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="3">
+        <v>447</v>
+      </c>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="97">
+        <v>135</v>
+      </c>
+      <c r="J15" s="98">
+        <v>345</v>
+      </c>
+      <c r="K15" s="13">
+        <v>254</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="W15" s="6"/>
+      <c r="X15" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y15" s="106"/>
+      <c r="Z15" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC15" s="106"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG15" s="106"/>
+      <c r="AH15" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK15" s="106"/>
+      <c r="AL15" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO15" s="106"/>
+      <c r="AP15" s="106"/>
+      <c r="AQ15" s="106"/>
+      <c r="AR15" s="106"/>
+      <c r="AS15" s="106"/>
+      <c r="AU15" s="3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" ht="30" customHeight="1">
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>446</v>
+      </c>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="13">
+        <v>253</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="106"/>
+      <c r="AK16" s="106"/>
+      <c r="AL16" s="17">
+        <v>116</v>
+      </c>
+      <c r="AM16" s="106"/>
+      <c r="AN16" s="106"/>
+      <c r="AO16" s="106"/>
+      <c r="AP16" s="106"/>
+      <c r="AQ16" s="106"/>
+      <c r="AR16" s="106"/>
+      <c r="AS16" s="106"/>
+      <c r="AU16" s="3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" ht="30" customHeight="1">
+      <c r="A17" s="106"/>
+      <c r="B17" s="75">
+        <v>642</v>
+      </c>
+      <c r="C17" s="3">
+        <v>641</v>
+      </c>
+      <c r="D17" s="131">
+        <v>445</v>
+      </c>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="97">
+        <v>134</v>
+      </c>
+      <c r="J17" s="98">
+        <v>344</v>
+      </c>
+      <c r="K17" s="13">
+        <v>252</v>
+      </c>
+      <c r="L17" s="18">
+        <v>262</v>
+      </c>
+      <c r="M17" s="18">
+        <v>263</v>
+      </c>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="U17" s="106"/>
+      <c r="V17" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="W17" s="6"/>
+      <c r="X17" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="106"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="12">
+        <v>178</v>
+      </c>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="12">
+        <v>179</v>
+      </c>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="12">
+        <v>115</v>
+      </c>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="28">
+        <v>332</v>
+      </c>
+      <c r="AM17" s="106"/>
+      <c r="AN17" s="106"/>
+      <c r="AO17" s="106"/>
+      <c r="AQ17" s="106"/>
+      <c r="AR17" s="106"/>
+      <c r="AS17" s="106"/>
+      <c r="AU17" s="3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" ht="30" customHeight="1">
+      <c r="A18" s="106"/>
+      <c r="B18" s="3">
+        <v>643</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>444</v>
+      </c>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="13">
+        <v>251</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="79">
+        <v>172</v>
+      </c>
+      <c r="S18" s="10"/>
+      <c r="T18" s="17">
+        <v>173</v>
+      </c>
+      <c r="U18" s="106"/>
+      <c r="V18" s="17">
+        <v>174</v>
+      </c>
+      <c r="W18" s="10"/>
+      <c r="X18" s="17">
+        <v>175</v>
+      </c>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="17">
+        <v>176</v>
+      </c>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="25">
+        <v>177</v>
+      </c>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="28">
+        <v>329</v>
+      </c>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="28">
+        <v>330</v>
+      </c>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="28">
+        <v>331</v>
+      </c>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="31">
+        <v>327</v>
+      </c>
+      <c r="AM18" s="104">
+        <v>207</v>
+      </c>
+      <c r="AN18" s="35">
+        <v>206</v>
+      </c>
+      <c r="AP18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU18" s="3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" ht="30" customHeight="1">
+      <c r="A19" s="106"/>
+      <c r="B19" s="3">
+        <v>644</v>
+      </c>
+      <c r="C19" s="106"/>
+      <c r="D19" s="3">
+        <v>443</v>
+      </c>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="97">
+        <v>133</v>
+      </c>
+      <c r="J19" s="98">
+        <v>343</v>
+      </c>
+      <c r="K19" s="13">
+        <v>250</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="82">
+        <v>317</v>
+      </c>
+      <c r="S19" s="106"/>
+      <c r="T19" s="13">
+        <v>318</v>
+      </c>
+      <c r="U19" s="106"/>
+      <c r="V19" s="18">
+        <v>319</v>
+      </c>
+      <c r="W19" s="106"/>
+      <c r="X19" s="13">
+        <v>320</v>
+      </c>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="18">
+        <v>321</v>
+      </c>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="13">
+        <v>322</v>
+      </c>
+      <c r="AD19" s="106"/>
+      <c r="AE19" s="106"/>
+      <c r="AF19" s="13">
+        <v>324</v>
+      </c>
+      <c r="AH19" s="18">
+        <v>325</v>
+      </c>
+      <c r="AI19" s="106"/>
+      <c r="AJ19" s="13">
+        <v>326</v>
+      </c>
+      <c r="AL19" s="32">
+        <v>203</v>
+      </c>
+      <c r="AM19" s="104">
+        <v>209</v>
+      </c>
+      <c r="AN19" s="35">
+        <v>208</v>
+      </c>
+      <c r="AP19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU19" s="3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" ht="30" customHeight="1">
+      <c r="A20" s="106"/>
+      <c r="B20" s="3">
+        <v>645</v>
+      </c>
+      <c r="C20" s="106"/>
+      <c r="D20" s="3">
+        <v>442</v>
+      </c>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="13">
+        <v>249</v>
+      </c>
+      <c r="L20" s="13">
+        <v>236</v>
+      </c>
+      <c r="M20" s="13">
+        <v>235</v>
+      </c>
+      <c r="N20" s="13">
+        <v>234</v>
+      </c>
+      <c r="O20" s="13">
+        <v>233</v>
+      </c>
+      <c r="P20" s="13">
+        <v>232</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>231</v>
+      </c>
+      <c r="R20" s="13">
+        <v>230</v>
+      </c>
+      <c r="S20" s="13">
+        <v>229</v>
+      </c>
+      <c r="T20" s="13">
+        <v>228</v>
+      </c>
+      <c r="U20" s="13">
+        <v>227</v>
+      </c>
+      <c r="V20" s="13">
+        <v>226</v>
+      </c>
+      <c r="W20" s="13">
+        <v>225</v>
+      </c>
+      <c r="X20" s="13">
+        <v>224</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>223</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>222</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>221</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>220</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>219</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>218</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>217</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>216</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>215</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>214</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>213</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>212</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>211</v>
+      </c>
+      <c r="AL20" s="32">
+        <v>210</v>
+      </c>
+      <c r="AM20" s="104">
+        <v>25</v>
+      </c>
+      <c r="AN20" s="35">
+        <v>204</v>
+      </c>
+      <c r="AP20" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" ht="30" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3">
+        <v>646</v>
+      </c>
+      <c r="C21" s="106"/>
+      <c r="D21" s="105">
+        <v>0</v>
+      </c>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="97">
+        <v>132</v>
+      </c>
+      <c r="J21" s="98">
+        <v>342</v>
+      </c>
+      <c r="K21" s="13">
+        <v>248</v>
+      </c>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="82">
+        <v>301</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="18">
+        <v>302</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="18">
+        <v>303</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="18">
+        <v>304</v>
+      </c>
+      <c r="U21" s="5"/>
+      <c r="V21" s="18">
+        <v>305</v>
+      </c>
+      <c r="W21" s="5"/>
+      <c r="X21" s="18">
+        <v>306</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="18">
+        <v>307</v>
+      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="18">
+        <v>308</v>
+      </c>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="18">
+        <v>309</v>
+      </c>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="18">
+        <v>310</v>
+      </c>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="18">
+        <v>311</v>
+      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="18">
+        <v>312</v>
+      </c>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="31">
+        <v>313</v>
+      </c>
+      <c r="AU21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" ht="30" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3">
+        <v>647</v>
+      </c>
+      <c r="C22" s="106"/>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="78">
+        <v>247</v>
+      </c>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="79">
+        <v>101</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="12">
+        <v>102</v>
+      </c>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="12">
+        <v>103</v>
+      </c>
+      <c r="S22" s="10"/>
+      <c r="T22" s="12">
+        <v>104</v>
+      </c>
+      <c r="U22" s="10"/>
+      <c r="V22" s="12">
+        <v>105</v>
+      </c>
+      <c r="W22" s="10"/>
+      <c r="X22" s="12">
+        <v>106</v>
+      </c>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="12">
+        <v>107</v>
+      </c>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="27">
+        <v>108</v>
+      </c>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="27">
+        <v>109</v>
+      </c>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="27">
+        <v>110</v>
+      </c>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="27">
+        <v>111</v>
+      </c>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="27">
+        <v>112</v>
+      </c>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="27">
+        <v>113</v>
+      </c>
+      <c r="AU22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" ht="30" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="13">
+        <v>246</v>
+      </c>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="22"/>
+      <c r="P23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="22"/>
+      <c r="T23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="U23" s="106"/>
+      <c r="V23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W23" s="22"/>
+      <c r="X23" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC23" s="106"/>
+      <c r="AD23" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG23" s="106"/>
+      <c r="AH23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK23" s="106"/>
+      <c r="AL23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" ht="30" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="K24" s="19">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" ht="30" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="106"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AD25" s="87"/>
+      <c r="AE25" s="87"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="106"/>
+      <c r="AJ25" s="106"/>
+      <c r="AK25" s="106"/>
+      <c r="AM25" s="29"/>
+      <c r="AU25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" ht="30" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="M26" s="106"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="106"/>
+      <c r="AD26" s="87"/>
+      <c r="AE26" s="87"/>
+      <c r="AG26" s="3">
+        <v>880</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>879</v>
+      </c>
+      <c r="AI26" s="75">
+        <v>878</v>
+      </c>
+      <c r="AK26">
+        <v>11</v>
+      </c>
+      <c r="AL26" s="106"/>
+      <c r="AU26" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" ht="30" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="19">
+        <v>0</v>
+      </c>
+      <c r="M27" s="106"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106">
+        <v>6</v>
+      </c>
+      <c r="S27" s="106"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="106"/>
+      <c r="AI27" s="3">
+        <v>877</v>
+      </c>
+      <c r="AJ27" s="106"/>
+      <c r="AK27" s="106"/>
+      <c r="AL27" s="106"/>
+      <c r="AU27" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>10</v>
+      </c>
+      <c r="BF27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" ht="30" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="3">
+        <v>441</v>
+      </c>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="13">
+        <v>245</v>
+      </c>
+      <c r="L28" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="106"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106"/>
+      <c r="AG28" s="106"/>
+      <c r="AH28" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>876</v>
+      </c>
+      <c r="AJ28" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="106"/>
+      <c r="AL28" s="106"/>
+      <c r="AU28" s="3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" ht="30" customHeight="1">
+      <c r="A29" s="103"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3">
+        <v>436</v>
+      </c>
+      <c r="E29" s="3">
+        <v>435</v>
+      </c>
+      <c r="F29" s="3">
+        <v>434</v>
+      </c>
+      <c r="G29" s="3">
+        <v>433</v>
+      </c>
+      <c r="H29" s="3">
+        <v>432</v>
+      </c>
+      <c r="I29" s="3">
+        <v>431</v>
+      </c>
+      <c r="J29" s="3">
+        <v>430</v>
+      </c>
+      <c r="K29" s="131">
+        <v>429</v>
+      </c>
+      <c r="L29" s="3">
+        <v>428</v>
+      </c>
+      <c r="M29" s="3">
+        <v>427</v>
+      </c>
+      <c r="N29" s="3">
+        <v>426</v>
+      </c>
+      <c r="O29" s="3">
+        <v>425</v>
+      </c>
+      <c r="P29" s="3">
+        <v>424</v>
+      </c>
+      <c r="Q29" s="131">
+        <v>423</v>
+      </c>
+      <c r="R29" s="3">
+        <v>422</v>
+      </c>
+      <c r="S29" s="3">
+        <v>421</v>
+      </c>
+      <c r="T29" s="3">
+        <v>420</v>
+      </c>
+      <c r="U29" s="3">
+        <v>419</v>
+      </c>
+      <c r="V29" s="3">
+        <v>418</v>
+      </c>
+      <c r="W29" s="3">
+        <v>417</v>
+      </c>
+      <c r="X29" s="3">
+        <v>416</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>415</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>414</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>413</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>412</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>411</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>410</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>409</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>408</v>
+      </c>
+      <c r="AG29" s="131">
+        <v>407</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>406</v>
+      </c>
+      <c r="AI29" s="131">
+        <v>405</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>404</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>403</v>
+      </c>
+      <c r="AL29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="3">
+        <v>402</v>
+      </c>
+      <c r="AU29" s="3">
+        <v>401</v>
+      </c>
+      <c r="AV29" s="3">
+        <v>551</v>
+      </c>
+      <c r="AW29" s="3">
+        <v>552</v>
+      </c>
+      <c r="AX29" s="75">
+        <v>553</v>
+      </c>
+      <c r="AY29" s="3">
+        <v>554</v>
+      </c>
+      <c r="AZ29" s="3">
+        <v>555</v>
+      </c>
+      <c r="BA29" s="3">
+        <v>556</v>
+      </c>
+      <c r="BB29" s="3">
+        <v>557</v>
+      </c>
+      <c r="BC29" s="3">
+        <v>558</v>
+      </c>
+      <c r="BD29" s="3">
+        <v>559</v>
+      </c>
+      <c r="BE29" s="3">
+        <v>560</v>
+      </c>
+      <c r="BF29" s="75">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" ht="30" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="8"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106">
+        <v>2</v>
+      </c>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="23">
+        <v>621</v>
+      </c>
+      <c r="R30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="30">
+        <v>601</v>
+      </c>
+      <c r="AH30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX30" s="1">
+        <v>581</v>
+      </c>
+      <c r="AY30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF30" s="1">
+        <v>565</v>
+      </c>
+      <c r="BG30" s="56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" ht="30" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="8"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="75">
+        <v>622</v>
+      </c>
+      <c r="AG31" s="30">
+        <v>602</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>582</v>
+      </c>
+      <c r="BF31" s="3">
+        <v>566</v>
+      </c>
+      <c r="BI31" s="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" ht="30" customHeight="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="Q32" s="23">
+        <v>624</v>
+      </c>
+      <c r="AG32" s="74">
+        <v>603</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>607</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>604</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>605</v>
+      </c>
+      <c r="AX32" s="74">
+        <v>583</v>
+      </c>
+      <c r="BF32" s="74">
+        <v>567</v>
+      </c>
+      <c r="BG32" s="1">
+        <v>568</v>
+      </c>
+      <c r="BH32" s="1">
+        <v>569</v>
+      </c>
+      <c r="BI32" s="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:61" ht="30" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="106"/>
+      <c r="P33" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="23">
+        <v>623</v>
+      </c>
+      <c r="R33" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>9</v>
+      </c>
+      <c r="AE33">
+        <v>7</v>
+      </c>
+      <c r="AG33" s="29"/>
+      <c r="AK33" s="87"/>
+      <c r="AL33" s="87"/>
+      <c r="AU33" s="87"/>
+      <c r="AV33" s="87"/>
+      <c r="AX33" s="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="34" spans="1:61" ht="30" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="106"/>
+      <c r="P34" s="136">
+        <v>626</v>
+      </c>
+      <c r="Q34" s="131">
+        <v>625</v>
+      </c>
+      <c r="AK34" s="87"/>
+      <c r="AL34" s="87"/>
+      <c r="AU34" s="87"/>
+      <c r="AV34" s="87"/>
+      <c r="AX34" s="1">
+        <v>585</v>
+      </c>
+      <c r="BH34" s="87"/>
+      <c r="BI34" s="87"/>
+    </row>
+    <row r="35" spans="1:61" ht="30" customHeight="1">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="106"/>
+      <c r="L35" s="20"/>
+      <c r="P35" s="23">
+        <v>627</v>
+      </c>
+      <c r="S35" s="87"/>
+      <c r="T35" s="87"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="108"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="65"/>
+      <c r="AJ35" s="65"/>
+      <c r="AV35" s="1">
+        <v>588</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>587</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>586</v>
+      </c>
+      <c r="BH35" s="87"/>
+      <c r="BI35" s="87"/>
+    </row>
+    <row r="36" spans="1:61" ht="30" customHeight="1">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="106"/>
+      <c r="P36" s="23">
+        <v>628</v>
+      </c>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="84"/>
+      <c r="V36" s="84"/>
+      <c r="W36" s="52"/>
+      <c r="BG36" s="52"/>
+      <c r="BH36" s="65"/>
+      <c r="BI36" s="65"/>
+    </row>
+    <row r="37" spans="1:61" ht="30" customHeight="1">
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="AV37" s="52"/>
+      <c r="AW37" s="65"/>
+      <c r="AX37" s="65"/>
+    </row>
+    <row r="38" spans="1:61" ht="30" customHeight="1">
+      <c r="A38" s="90"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="91"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+    </row>
+    <row r="39" spans="1:61" ht="30" customHeight="1">
+      <c r="A39" s="90"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+    </row>
+    <row r="40" spans="1:61" ht="30" customHeight="1">
+      <c r="A40" s="94"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="91"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="90"/>
+      <c r="T40" s="90"/>
+      <c r="U40" s="90"/>
+    </row>
+    <row r="41" spans="1:61" ht="30" customHeight="1">
+      <c r="A41" s="95"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="90"/>
+      <c r="U41" s="90"/>
+    </row>
+    <row r="42" spans="1:61" ht="30" customHeight="1">
+      <c r="A42" s="94"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="91"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="90"/>
+      <c r="U42" s="90"/>
+    </row>
+    <row r="43" spans="1:61" ht="30" customHeight="1">
+      <c r="A43" s="94"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="91"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="91"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="90"/>
+      <c r="U43" s="90"/>
+    </row>
+    <row r="44" spans="1:61" ht="30" customHeight="1">
+      <c r="A44" s="95"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="91"/>
+      <c r="O44" s="91"/>
+      <c r="P44" s="91"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="90"/>
+      <c r="S44" s="90"/>
+      <c r="T44" s="90"/>
+      <c r="U44" s="90"/>
+    </row>
+    <row r="45" spans="1:61" ht="30" customHeight="1">
+      <c r="A45" s="94"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="84"/>
+      <c r="R45" s="84"/>
+      <c r="S45" s="84"/>
+      <c r="T45" s="84"/>
+      <c r="U45" s="84"/>
+      <c r="V45" s="65"/>
+    </row>
+    <row r="46" spans="1:61" ht="30" customHeight="1">
+      <c r="A46" s="94"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="84"/>
+      <c r="T46" s="84"/>
+      <c r="U46" s="84"/>
+    </row>
+    <row r="47" spans="1:61" ht="30" customHeight="1">
+      <c r="A47" s="95"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="91"/>
+      <c r="P47" s="91"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="90"/>
+      <c r="U47" s="90"/>
+    </row>
+    <row r="48" spans="1:61" ht="30" customHeight="1">
+      <c r="A48" s="94"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="91"/>
+      <c r="L48" s="91"/>
+      <c r="M48" s="91"/>
+      <c r="N48" s="91"/>
+      <c r="O48" s="91"/>
+      <c r="P48" s="91"/>
+      <c r="Q48" s="90"/>
+      <c r="R48" s="90"/>
+      <c r="S48" s="90"/>
+      <c r="T48" s="90"/>
+      <c r="U48" s="90"/>
+    </row>
+    <row r="49" spans="1:21" ht="30" customHeight="1">
+      <c r="A49" s="94"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="91"/>
+      <c r="M49" s="91"/>
+      <c r="N49" s="91"/>
+      <c r="O49" s="91"/>
+      <c r="P49" s="91"/>
+      <c r="Q49" s="90"/>
+      <c r="R49" s="90"/>
+      <c r="S49" s="90"/>
+      <c r="T49" s="90"/>
+      <c r="U49" s="90"/>
+    </row>
+    <row r="50" spans="1:21" ht="30" customHeight="1">
+      <c r="A50" s="95"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="91"/>
+      <c r="N50" s="91"/>
+      <c r="O50" s="91"/>
+      <c r="P50" s="91"/>
+      <c r="Q50" s="90"/>
+      <c r="R50" s="90"/>
+      <c r="S50" s="90"/>
+      <c r="T50" s="90"/>
+      <c r="U50" s="90"/>
+    </row>
+    <row r="51" spans="1:21" ht="30" customHeight="1">
+      <c r="A51" s="94"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="84"/>
+      <c r="S51" s="84"/>
+      <c r="T51" s="84"/>
+      <c r="U51" s="84"/>
+    </row>
+    <row r="52" spans="1:21" ht="30" customHeight="1">
+      <c r="A52" s="94"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="84"/>
+      <c r="T52" s="84"/>
+      <c r="U52" s="84"/>
+    </row>
+    <row r="53" spans="1:21" ht="30" customHeight="1">
+      <c r="A53" s="95"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="91"/>
+      <c r="N53" s="91"/>
+      <c r="O53" s="91"/>
+      <c r="P53" s="91"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="90"/>
+      <c r="U53" s="90"/>
+    </row>
+    <row r="54" spans="1:21" ht="30" customHeight="1">
+      <c r="A54" s="94"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="91"/>
+      <c r="M54" s="91"/>
+      <c r="N54" s="91"/>
+      <c r="O54" s="91"/>
+      <c r="P54" s="91"/>
+      <c r="Q54" s="90"/>
+      <c r="R54" s="90"/>
+      <c r="S54" s="90"/>
+      <c r="T54" s="90"/>
+      <c r="U54" s="90"/>
+    </row>
+    <row r="55" spans="1:21" ht="30" customHeight="1">
+      <c r="A55" s="94"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="91"/>
+      <c r="L55" s="91"/>
+      <c r="M55" s="91"/>
+      <c r="N55" s="91"/>
+      <c r="O55" s="91"/>
+      <c r="P55" s="91"/>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="90"/>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="90"/>
+    </row>
+    <row r="56" spans="1:21" ht="30" customHeight="1">
+      <c r="A56" s="95"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="91"/>
+      <c r="I56" s="91"/>
+      <c r="J56" s="91"/>
+      <c r="K56" s="91"/>
+      <c r="L56" s="91"/>
+      <c r="M56" s="91"/>
+      <c r="N56" s="91"/>
+      <c r="O56" s="91"/>
+      <c r="P56" s="91"/>
+      <c r="Q56" s="90"/>
+      <c r="R56" s="90"/>
+      <c r="S56" s="90"/>
+      <c r="T56" s="90"/>
+      <c r="U56" s="90"/>
+    </row>
+    <row r="57" spans="1:21" ht="30" customHeight="1">
+      <c r="A57" s="94"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="91"/>
+      <c r="M57" s="91"/>
+      <c r="N57" s="91"/>
+      <c r="O57" s="91"/>
+      <c r="P57" s="91"/>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="90"/>
+      <c r="T57" s="90"/>
+      <c r="U57" s="90"/>
+    </row>
+    <row r="58" spans="1:21" ht="30" customHeight="1"/>
+    <row r="59" spans="1:21" ht="30" customHeight="1"/>
+    <row r="60" spans="1:21" ht="30" customHeight="1"/>
+    <row r="61" spans="1:21" ht="30" customHeight="1"/>
+    <row r="62" spans="1:21" ht="30" customHeight="1"/>
+    <row r="63" spans="1:21" ht="30" customHeight="1"/>
+    <row r="64" spans="1:21" ht="30" customHeight="1"/>
+    <row r="65" ht="30" customHeight="1"/>
+    <row r="66" ht="30" customHeight="1"/>
+    <row r="67" ht="30" customHeight="1"/>
+    <row r="68" ht="30" customHeight="1"/>
+    <row r="69" ht="30" customHeight="1"/>
+    <row r="70" ht="30" customHeight="1"/>
+    <row r="71" ht="30" customHeight="1"/>
+    <row r="72" ht="30" customHeight="1"/>
+    <row r="73" ht="30" customHeight="1"/>
+    <row r="74" ht="30" customHeight="1"/>
+    <row r="75" ht="30" customHeight="1"/>
+    <row r="76" ht="30" customHeight="1"/>
+    <row r="77" ht="30" customHeight="1"/>
+    <row r="78" ht="30" customHeight="1"/>
+    <row r="79" ht="30" customHeight="1"/>
+    <row r="80" ht="30" customHeight="1"/>
+    <row r="81" ht="30" customHeight="1"/>
+    <row r="82" ht="30" customHeight="1"/>
+    <row r="83" ht="30" customHeight="1"/>
+    <row r="84" ht="30" customHeight="1"/>
+    <row r="85" ht="30" customHeight="1"/>
+    <row r="86" ht="30" customHeight="1"/>
+    <row r="87" ht="30" customHeight="1"/>
+    <row r="88" ht="30" customHeight="1"/>
+    <row r="89" ht="30" customHeight="1"/>
+    <row r="90" ht="30" customHeight="1"/>
+    <row r="91" ht="30" customHeight="1"/>
+    <row r="92" ht="30" customHeight="1"/>
+    <row r="93" ht="30" customHeight="1"/>
+    <row r="94" ht="30" customHeight="1"/>
+    <row r="95" ht="30" customHeight="1"/>
+    <row r="96" ht="30" customHeight="1"/>
+    <row r="97" ht="30" customHeight="1"/>
+    <row r="98" ht="30" customHeight="1"/>
+    <row r="99" ht="30" customHeight="1"/>
+    <row r="100" ht="30" customHeight="1"/>
+    <row r="101" ht="30" customHeight="1"/>
+    <row r="102" ht="30" customHeight="1"/>
+    <row r="103" ht="30" customHeight="1"/>
+    <row r="104" ht="30" customHeight="1"/>
+    <row r="105" ht="30" customHeight="1"/>
+    <row r="106" ht="30" customHeight="1"/>
+    <row r="107" ht="30" customHeight="1"/>
+    <row r="108" ht="30" customHeight="1"/>
+    <row r="109" ht="30" customHeight="1"/>
+    <row r="110" ht="30" customHeight="1"/>
+    <row r="111" ht="30" customHeight="1"/>
+    <row r="112" ht="30" customHeight="1"/>
+    <row r="113" ht="30" customHeight="1"/>
+    <row r="114" ht="30" customHeight="1"/>
+    <row r="115" ht="30" customHeight="1"/>
+    <row r="116" ht="30" customHeight="1"/>
+    <row r="117" ht="30" customHeight="1"/>
+    <row r="118" ht="30" customHeight="1"/>
+    <row r="119" ht="30" customHeight="1"/>
+    <row r="120" ht="30" customHeight="1"/>
+    <row r="121" ht="30" customHeight="1"/>
+    <row r="122" ht="30" customHeight="1"/>
+    <row r="123" ht="30" customHeight="1"/>
+    <row r="124" ht="30" customHeight="1"/>
+    <row r="125" ht="30" customHeight="1"/>
+    <row r="126" ht="30" customHeight="1"/>
+    <row r="127" ht="30" customHeight="1"/>
+    <row r="128" ht="30" customHeight="1"/>
+    <row r="129" ht="30" customHeight="1"/>
+    <row r="130" ht="30" customHeight="1"/>
+    <row r="131" ht="30" customHeight="1"/>
+    <row r="132" ht="30" customHeight="1"/>
+    <row r="133" ht="30" customHeight="1"/>
+    <row r="134" ht="30" customHeight="1"/>
+    <row r="135" ht="30" customHeight="1"/>
+    <row r="136" ht="30" customHeight="1"/>
+    <row r="137" ht="30" customHeight="1"/>
+    <row r="138" ht="30" customHeight="1"/>
+    <row r="139" ht="30" customHeight="1"/>
+    <row r="140" ht="30" customHeight="1"/>
+    <row r="141" ht="30" customHeight="1"/>
+    <row r="142" ht="30" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V35:W35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E88B41-67D6-9B4B-BDEE-F28062C18C80}">
+  <dimension ref="A1:AE5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1">
+        <v>729</v>
+      </c>
+      <c r="B1">
+        <v>685</v>
+      </c>
+      <c r="C1">
+        <v>665</v>
+      </c>
+      <c r="D1">
+        <v>647</v>
+      </c>
+      <c r="E1">
+        <v>628</v>
+      </c>
+      <c r="F1">
+        <v>605</v>
+      </c>
+      <c r="G1">
+        <v>880</v>
+      </c>
+      <c r="H1">
+        <v>588</v>
+      </c>
+      <c r="I1">
+        <v>571</v>
+      </c>
+      <c r="J1">
+        <v>850</v>
+      </c>
+      <c r="K1">
+        <v>825</v>
+      </c>
+      <c r="L1">
+        <v>805</v>
+      </c>
+      <c r="M1">
+        <v>785</v>
+      </c>
+      <c r="N1">
+        <v>752</v>
+      </c>
+      <c r="O1">
+        <v>745</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2">
+        <v>137</v>
+      </c>
+      <c r="B2">
+        <v>136</v>
+      </c>
+      <c r="C2">
+        <v>135</v>
+      </c>
+      <c r="D2">
+        <v>134</v>
+      </c>
+      <c r="E2">
+        <v>133</v>
+      </c>
+      <c r="F2">
+        <v>132</v>
+      </c>
+      <c r="G2">
+        <v>154</v>
+      </c>
+      <c r="H2">
+        <v>155</v>
+      </c>
+      <c r="I2">
+        <v>156</v>
+      </c>
+      <c r="J2">
+        <v>157</v>
+      </c>
+      <c r="K2">
+        <v>158</v>
+      </c>
+      <c r="L2">
+        <v>159</v>
+      </c>
+      <c r="M2">
+        <v>160</v>
+      </c>
+      <c r="N2">
+        <v>161</v>
+      </c>
+      <c r="O2">
+        <v>162</v>
+      </c>
+      <c r="P2">
+        <v>163</v>
+      </c>
+      <c r="Q2">
+        <v>164</v>
+      </c>
+      <c r="R2">
+        <v>165</v>
+      </c>
+      <c r="S2">
+        <v>166</v>
+      </c>
+      <c r="T2">
+        <v>167</v>
+      </c>
+      <c r="U2">
+        <v>141</v>
+      </c>
+      <c r="V2">
+        <v>142</v>
+      </c>
+      <c r="W2">
+        <v>143</v>
+      </c>
+      <c r="X2">
+        <v>144</v>
+      </c>
+      <c r="Y2">
+        <v>145</v>
+      </c>
+      <c r="Z2">
+        <v>146</v>
+      </c>
+      <c r="AA2">
+        <v>148</v>
+      </c>
+      <c r="AB2">
+        <v>149</v>
+      </c>
+      <c r="AC2">
+        <v>150</v>
+      </c>
+      <c r="AD2">
+        <v>151</v>
+      </c>
+      <c r="AE2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>103</v>
+      </c>
+      <c r="D3">
+        <v>104</v>
+      </c>
+      <c r="E3">
+        <v>105</v>
+      </c>
+      <c r="F3">
+        <v>106</v>
+      </c>
+      <c r="G3">
+        <v>107</v>
+      </c>
+      <c r="H3">
+        <v>108</v>
+      </c>
+      <c r="I3">
+        <v>109</v>
+      </c>
+      <c r="J3">
+        <v>110</v>
+      </c>
+      <c r="K3">
+        <v>111</v>
+      </c>
+      <c r="L3">
+        <v>112</v>
+      </c>
+      <c r="M3">
+        <v>113</v>
+      </c>
+      <c r="N3">
+        <v>172</v>
+      </c>
+      <c r="O3">
+        <v>173</v>
+      </c>
+      <c r="P3">
+        <v>174</v>
+      </c>
+      <c r="Q3">
+        <v>175</v>
+      </c>
+      <c r="R3">
+        <v>176</v>
+      </c>
+      <c r="S3">
+        <v>177</v>
+      </c>
+      <c r="T3">
+        <v>178</v>
+      </c>
+      <c r="U3">
+        <v>179</v>
+      </c>
+      <c r="V3">
+        <v>115</v>
+      </c>
+      <c r="W3">
+        <v>116</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5">
+        <v>726</v>
+      </c>
+      <c r="B5">
+        <v>681</v>
+      </c>
+      <c r="C5">
+        <v>661</v>
+      </c>
+      <c r="D5">
+        <v>641</v>
+      </c>
+      <c r="E5">
+        <v>245</v>
+      </c>
+      <c r="F5">
+        <v>621</v>
+      </c>
+      <c r="G5">
+        <v>623</v>
+      </c>
+      <c r="H5">
+        <v>601</v>
+      </c>
+      <c r="I5">
+        <v>876</v>
+      </c>
+      <c r="J5">
+        <v>581</v>
+      </c>
+      <c r="K5">
+        <v>565</v>
+      </c>
+      <c r="L5">
+        <v>841</v>
+      </c>
+      <c r="M5">
+        <v>845</v>
+      </c>
+      <c r="N5">
+        <v>821</v>
+      </c>
+      <c r="O5">
+        <v>801</v>
+      </c>
+      <c r="P5">
+        <v>781</v>
+      </c>
+      <c r="Q5">
+        <v>747</v>
+      </c>
+      <c r="R5">
+        <v>741</v>
+      </c>
+      <c r="S5">
+        <v>260</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BR158"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="F22" zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AA41" sqref="AA41"/>
     </sheetView>
   </sheetViews>
@@ -5170,13 +8742,13 @@
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
-      <c r="AW19" s="107" t="s">
+      <c r="AW19" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="AX19" s="107"/>
-      <c r="AY19" s="107"/>
-      <c r="AZ19" s="107"/>
-      <c r="BA19" s="107"/>
+      <c r="AX19" s="128"/>
+      <c r="AY19" s="128"/>
+      <c r="AZ19" s="128"/>
+      <c r="BA19" s="128"/>
       <c r="BB19" s="2"/>
       <c r="BC19" s="2"/>
       <c r="BD19" s="46">
@@ -5257,11 +8829,11 @@
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
-      <c r="AW20" s="107"/>
-      <c r="AX20" s="107"/>
-      <c r="AY20" s="107"/>
-      <c r="AZ20" s="107"/>
-      <c r="BA20" s="107"/>
+      <c r="AW20" s="128"/>
+      <c r="AX20" s="128"/>
+      <c r="AY20" s="128"/>
+      <c r="AZ20" s="128"/>
+      <c r="BA20" s="128"/>
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
       <c r="BD20" s="46">
@@ -5324,11 +8896,11 @@
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
-      <c r="AW21" s="107"/>
-      <c r="AX21" s="107"/>
-      <c r="AY21" s="107"/>
-      <c r="AZ21" s="107"/>
-      <c r="BA21" s="107"/>
+      <c r="AW21" s="128"/>
+      <c r="AX21" s="128"/>
+      <c r="AY21" s="128"/>
+      <c r="AZ21" s="128"/>
+      <c r="BA21" s="128"/>
       <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
       <c r="BD21" s="46">
@@ -6918,18 +10490,18 @@
       </c>
     </row>
     <row r="37" spans="1:67" ht="30" customHeight="1">
-      <c r="A37" s="108" t="s">
+      <c r="A37" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="130"/>
       <c r="K37" s="2"/>
       <c r="L37" s="46">
         <v>445</v>
@@ -7014,16 +10586,16 @@
       <c r="BC37" s="63"/>
     </row>
     <row r="38" spans="1:67" ht="30" customHeight="1">
-      <c r="A38" s="109"/>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
+      <c r="A38" s="130"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
       <c r="K38" s="2"/>
       <c r="L38" s="46">
         <v>444</v>
@@ -7093,16 +10665,16 @@
       <c r="BC38" s="63"/>
     </row>
     <row r="39" spans="1:67" ht="30" customHeight="1">
-      <c r="A39" s="109"/>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
+      <c r="A39" s="130"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
       <c r="K39" s="2"/>
       <c r="L39" s="46">
         <v>443</v>
@@ -7178,16 +10750,16 @@
       <c r="BC39" s="63"/>
     </row>
     <row r="40" spans="1:67" ht="30" customHeight="1">
-      <c r="A40" s="109"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
       <c r="K40" s="2"/>
       <c r="L40" s="46">
         <v>442</v>
@@ -7224,16 +10796,16 @@
       <c r="BC40" s="63"/>
     </row>
     <row r="41" spans="1:67" ht="30" customHeight="1">
-      <c r="A41" s="109"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
       <c r="K41" s="2"/>
       <c r="L41" s="46">
         <v>441</v>
@@ -7269,16 +10841,16 @@
       <c r="BC41" s="63"/>
     </row>
     <row r="42" spans="1:67" ht="30" customHeight="1">
-      <c r="A42" s="109"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
+      <c r="A42" s="130"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
       <c r="K42" s="2"/>
       <c r="L42" s="7"/>
       <c r="M42" s="2"/>
@@ -7318,16 +10890,16 @@
       <c r="BC42" s="63"/>
     </row>
     <row r="43" spans="1:67" ht="30" customHeight="1">
-      <c r="A43" s="109"/>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
+      <c r="A43" s="130"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
       <c r="K43" s="2"/>
       <c r="L43" s="7"/>
       <c r="M43" s="2"/>
@@ -7806,11 +11378,11 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="2"/>
-      <c r="W52" s="122" t="s">
+      <c r="W52" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="X52" s="106"/>
-      <c r="Y52" s="106"/>
+      <c r="X52" s="108"/>
+      <c r="Y52" s="108"/>
       <c r="AM52" s="30">
         <v>608</v>
       </c>
@@ -7825,10 +11397,10 @@
         <v>51</v>
       </c>
       <c r="F54" s="52"/>
-      <c r="G54" s="122" t="s">
+      <c r="G54" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="122"/>
+      <c r="H54" s="109"/>
       <c r="J54" s="52" t="s">
         <v>75</v>
       </c>
@@ -7853,488 +11425,488 @@
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
       <c r="I55" s="57"/>
-      <c r="J55" s="123" t="s">
+      <c r="J55" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="K55" s="124"/>
-      <c r="L55" s="125" t="s">
+      <c r="K55" s="111"/>
+      <c r="L55" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="M55" s="126"/>
-      <c r="N55" s="126"/>
-      <c r="O55" s="126"/>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="126"/>
-      <c r="S55" s="126"/>
-      <c r="T55" s="126"/>
-      <c r="U55" s="126"/>
-      <c r="V55" s="126"/>
-      <c r="W55" s="126"/>
-      <c r="X55" s="127"/>
+      <c r="M55" s="113"/>
+      <c r="N55" s="113"/>
+      <c r="O55" s="113"/>
+      <c r="P55" s="113"/>
+      <c r="Q55" s="113"/>
+      <c r="R55" s="113"/>
+      <c r="S55" s="113"/>
+      <c r="T55" s="113"/>
+      <c r="U55" s="113"/>
+      <c r="V55" s="113"/>
+      <c r="W55" s="113"/>
+      <c r="X55" s="114"/>
     </row>
     <row r="56" spans="1:70" ht="30" customHeight="1">
-      <c r="F56" s="128" t="s">
+      <c r="F56" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="G56" s="128"/>
-      <c r="H56" s="128"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="115"/>
       <c r="I56" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="J56" s="110" t="s">
+      <c r="J56" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="K56" s="111"/>
-      <c r="L56" s="110" t="s">
+      <c r="K56" s="117"/>
+      <c r="L56" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="M56" s="112"/>
-      <c r="N56" s="112"/>
-      <c r="O56" s="112"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="112"/>
-      <c r="R56" s="112"/>
-      <c r="S56" s="112"/>
-      <c r="T56" s="112"/>
-      <c r="U56" s="112"/>
-      <c r="V56" s="112"/>
-      <c r="W56" s="112"/>
-      <c r="X56" s="111"/>
+      <c r="M56" s="118"/>
+      <c r="N56" s="118"/>
+      <c r="O56" s="118"/>
+      <c r="P56" s="118"/>
+      <c r="Q56" s="118"/>
+      <c r="R56" s="118"/>
+      <c r="S56" s="118"/>
+      <c r="T56" s="118"/>
+      <c r="U56" s="118"/>
+      <c r="V56" s="118"/>
+      <c r="W56" s="118"/>
+      <c r="X56" s="117"/>
     </row>
     <row r="57" spans="1:70" ht="30" customHeight="1">
-      <c r="F57" s="120" t="s">
+      <c r="F57" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="121"/>
-      <c r="H57" s="121"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
       <c r="I57" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="J57" s="110" t="s">
+      <c r="J57" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="K57" s="111"/>
-      <c r="L57" s="110" t="s">
+      <c r="K57" s="117"/>
+      <c r="L57" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="M57" s="112"/>
-      <c r="N57" s="112"/>
-      <c r="O57" s="112"/>
-      <c r="P57" s="112"/>
-      <c r="Q57" s="112"/>
-      <c r="R57" s="112"/>
-      <c r="S57" s="112"/>
-      <c r="T57" s="112"/>
-      <c r="U57" s="112"/>
-      <c r="V57" s="112"/>
-      <c r="W57" s="112"/>
-      <c r="X57" s="111"/>
+      <c r="M57" s="118"/>
+      <c r="N57" s="118"/>
+      <c r="O57" s="118"/>
+      <c r="P57" s="118"/>
+      <c r="Q57" s="118"/>
+      <c r="R57" s="118"/>
+      <c r="S57" s="118"/>
+      <c r="T57" s="118"/>
+      <c r="U57" s="118"/>
+      <c r="V57" s="118"/>
+      <c r="W57" s="118"/>
+      <c r="X57" s="117"/>
     </row>
     <row r="58" spans="1:70" ht="30" customHeight="1">
       <c r="I58" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="J58" s="110" t="s">
+      <c r="J58" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="K58" s="111"/>
-      <c r="L58" s="110" t="s">
+      <c r="K58" s="117"/>
+      <c r="L58" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="M58" s="112"/>
-      <c r="N58" s="112"/>
-      <c r="O58" s="112"/>
-      <c r="P58" s="112"/>
-      <c r="Q58" s="112"/>
-      <c r="R58" s="112"/>
-      <c r="S58" s="112"/>
-      <c r="T58" s="112"/>
-      <c r="U58" s="112"/>
-      <c r="V58" s="112"/>
-      <c r="W58" s="112"/>
-      <c r="X58" s="111"/>
+      <c r="M58" s="118"/>
+      <c r="N58" s="118"/>
+      <c r="O58" s="118"/>
+      <c r="P58" s="118"/>
+      <c r="Q58" s="118"/>
+      <c r="R58" s="118"/>
+      <c r="S58" s="118"/>
+      <c r="T58" s="118"/>
+      <c r="U58" s="118"/>
+      <c r="V58" s="118"/>
+      <c r="W58" s="118"/>
+      <c r="X58" s="117"/>
     </row>
     <row r="59" spans="1:70" ht="30" customHeight="1">
       <c r="I59" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="J59" s="110" t="s">
+      <c r="J59" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="K59" s="111"/>
-      <c r="L59" s="110" t="s">
+      <c r="K59" s="117"/>
+      <c r="L59" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="112"/>
-      <c r="N59" s="112"/>
-      <c r="O59" s="112"/>
-      <c r="P59" s="112"/>
-      <c r="Q59" s="112"/>
-      <c r="R59" s="112"/>
-      <c r="S59" s="112"/>
-      <c r="T59" s="112"/>
-      <c r="U59" s="112"/>
-      <c r="V59" s="112"/>
-      <c r="W59" s="112"/>
-      <c r="X59" s="111"/>
+      <c r="M59" s="118"/>
+      <c r="N59" s="118"/>
+      <c r="O59" s="118"/>
+      <c r="P59" s="118"/>
+      <c r="Q59" s="118"/>
+      <c r="R59" s="118"/>
+      <c r="S59" s="118"/>
+      <c r="T59" s="118"/>
+      <c r="U59" s="118"/>
+      <c r="V59" s="118"/>
+      <c r="W59" s="118"/>
+      <c r="X59" s="117"/>
     </row>
     <row r="60" spans="1:70" ht="30" customHeight="1">
       <c r="I60" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="J60" s="110" t="s">
+      <c r="J60" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="K60" s="111"/>
-      <c r="L60" s="110" t="s">
+      <c r="K60" s="117"/>
+      <c r="L60" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="118"/>
-      <c r="N60" s="118"/>
-      <c r="O60" s="118"/>
-      <c r="P60" s="118"/>
-      <c r="Q60" s="118"/>
-      <c r="R60" s="118"/>
-      <c r="S60" s="118"/>
-      <c r="T60" s="118"/>
-      <c r="U60" s="118"/>
-      <c r="V60" s="118"/>
-      <c r="W60" s="118"/>
-      <c r="X60" s="119"/>
+      <c r="M60" s="121"/>
+      <c r="N60" s="121"/>
+      <c r="O60" s="121"/>
+      <c r="P60" s="121"/>
+      <c r="Q60" s="121"/>
+      <c r="R60" s="121"/>
+      <c r="S60" s="121"/>
+      <c r="T60" s="121"/>
+      <c r="U60" s="121"/>
+      <c r="V60" s="121"/>
+      <c r="W60" s="121"/>
+      <c r="X60" s="122"/>
     </row>
     <row r="61" spans="1:70" ht="30" customHeight="1">
       <c r="I61" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="J61" s="110" t="s">
+      <c r="J61" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="K61" s="111"/>
-      <c r="L61" s="110" t="s">
+      <c r="K61" s="117"/>
+      <c r="L61" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="M61" s="116"/>
-      <c r="N61" s="116"/>
-      <c r="O61" s="116"/>
-      <c r="P61" s="116"/>
-      <c r="Q61" s="116"/>
-      <c r="R61" s="116"/>
-      <c r="S61" s="116"/>
-      <c r="T61" s="116"/>
-      <c r="U61" s="116"/>
-      <c r="V61" s="116"/>
-      <c r="W61" s="116"/>
-      <c r="X61" s="116"/>
-      <c r="Y61" s="116"/>
-      <c r="Z61" s="116"/>
-      <c r="AA61" s="116"/>
-      <c r="AB61" s="116"/>
-      <c r="AC61" s="117"/>
+      <c r="M61" s="123"/>
+      <c r="N61" s="123"/>
+      <c r="O61" s="123"/>
+      <c r="P61" s="123"/>
+      <c r="Q61" s="123"/>
+      <c r="R61" s="123"/>
+      <c r="S61" s="123"/>
+      <c r="T61" s="123"/>
+      <c r="U61" s="123"/>
+      <c r="V61" s="123"/>
+      <c r="W61" s="123"/>
+      <c r="X61" s="123"/>
+      <c r="Y61" s="123"/>
+      <c r="Z61" s="123"/>
+      <c r="AA61" s="123"/>
+      <c r="AB61" s="123"/>
+      <c r="AC61" s="124"/>
       <c r="AD61" s="65"/>
     </row>
     <row r="62" spans="1:70" ht="30" customHeight="1">
       <c r="I62" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="J62" s="110" t="s">
+      <c r="J62" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="K62" s="111"/>
-      <c r="L62" s="110" t="s">
+      <c r="K62" s="117"/>
+      <c r="L62" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="M62" s="116"/>
-      <c r="N62" s="116"/>
-      <c r="O62" s="116"/>
-      <c r="P62" s="116"/>
-      <c r="Q62" s="116"/>
-      <c r="R62" s="116"/>
-      <c r="S62" s="116"/>
-      <c r="T62" s="116"/>
-      <c r="U62" s="116"/>
-      <c r="V62" s="116"/>
-      <c r="W62" s="116"/>
-      <c r="X62" s="116"/>
-      <c r="Y62" s="116"/>
-      <c r="Z62" s="116"/>
-      <c r="AA62" s="116"/>
-      <c r="AB62" s="116"/>
-      <c r="AC62" s="117"/>
+      <c r="M62" s="123"/>
+      <c r="N62" s="123"/>
+      <c r="O62" s="123"/>
+      <c r="P62" s="123"/>
+      <c r="Q62" s="123"/>
+      <c r="R62" s="123"/>
+      <c r="S62" s="123"/>
+      <c r="T62" s="123"/>
+      <c r="U62" s="123"/>
+      <c r="V62" s="123"/>
+      <c r="W62" s="123"/>
+      <c r="X62" s="123"/>
+      <c r="Y62" s="123"/>
+      <c r="Z62" s="123"/>
+      <c r="AA62" s="123"/>
+      <c r="AB62" s="123"/>
+      <c r="AC62" s="124"/>
     </row>
     <row r="63" spans="1:70" ht="30" customHeight="1">
       <c r="I63" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="J63" s="110" t="s">
+      <c r="J63" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="K63" s="111"/>
-      <c r="L63" s="113" t="s">
+      <c r="K63" s="117"/>
+      <c r="L63" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="M63" s="114"/>
-      <c r="N63" s="114"/>
-      <c r="O63" s="114"/>
-      <c r="P63" s="114"/>
-      <c r="Q63" s="114"/>
-      <c r="R63" s="114"/>
-      <c r="S63" s="114"/>
-      <c r="T63" s="114"/>
-      <c r="U63" s="114"/>
-      <c r="V63" s="114"/>
-      <c r="W63" s="114"/>
-      <c r="X63" s="115"/>
+      <c r="M63" s="126"/>
+      <c r="N63" s="126"/>
+      <c r="O63" s="126"/>
+      <c r="P63" s="126"/>
+      <c r="Q63" s="126"/>
+      <c r="R63" s="126"/>
+      <c r="S63" s="126"/>
+      <c r="T63" s="126"/>
+      <c r="U63" s="126"/>
+      <c r="V63" s="126"/>
+      <c r="W63" s="126"/>
+      <c r="X63" s="127"/>
     </row>
     <row r="64" spans="1:70" ht="30" customHeight="1">
       <c r="I64" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="J64" s="110" t="s">
+      <c r="J64" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="K64" s="111"/>
-      <c r="L64" s="110" t="s">
+      <c r="K64" s="117"/>
+      <c r="L64" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="M64" s="112"/>
-      <c r="N64" s="112"/>
-      <c r="O64" s="112"/>
-      <c r="P64" s="112"/>
-      <c r="Q64" s="112"/>
-      <c r="R64" s="112"/>
-      <c r="S64" s="112"/>
-      <c r="T64" s="112"/>
-      <c r="U64" s="112"/>
-      <c r="V64" s="112"/>
-      <c r="W64" s="112"/>
-      <c r="X64" s="111"/>
+      <c r="M64" s="118"/>
+      <c r="N64" s="118"/>
+      <c r="O64" s="118"/>
+      <c r="P64" s="118"/>
+      <c r="Q64" s="118"/>
+      <c r="R64" s="118"/>
+      <c r="S64" s="118"/>
+      <c r="T64" s="118"/>
+      <c r="U64" s="118"/>
+      <c r="V64" s="118"/>
+      <c r="W64" s="118"/>
+      <c r="X64" s="117"/>
     </row>
     <row r="65" spans="9:29" ht="30" customHeight="1">
       <c r="I65" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J65" s="110" t="s">
+      <c r="J65" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="111"/>
-      <c r="L65" s="110" t="s">
+      <c r="K65" s="117"/>
+      <c r="L65" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="M65" s="112"/>
-      <c r="N65" s="112"/>
-      <c r="O65" s="112"/>
-      <c r="P65" s="112"/>
-      <c r="Q65" s="112"/>
-      <c r="R65" s="112"/>
-      <c r="S65" s="112"/>
-      <c r="T65" s="112"/>
-      <c r="U65" s="112"/>
-      <c r="V65" s="112"/>
-      <c r="W65" s="112"/>
-      <c r="X65" s="111"/>
+      <c r="M65" s="118"/>
+      <c r="N65" s="118"/>
+      <c r="O65" s="118"/>
+      <c r="P65" s="118"/>
+      <c r="Q65" s="118"/>
+      <c r="R65" s="118"/>
+      <c r="S65" s="118"/>
+      <c r="T65" s="118"/>
+      <c r="U65" s="118"/>
+      <c r="V65" s="118"/>
+      <c r="W65" s="118"/>
+      <c r="X65" s="117"/>
     </row>
     <row r="66" spans="9:29" ht="30" customHeight="1">
       <c r="I66" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J66" s="110" t="s">
+      <c r="J66" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="K66" s="111"/>
-      <c r="L66" s="110" t="s">
+      <c r="K66" s="117"/>
+      <c r="L66" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="M66" s="112"/>
-      <c r="N66" s="112"/>
-      <c r="O66" s="112"/>
-      <c r="P66" s="112"/>
-      <c r="Q66" s="112"/>
-      <c r="R66" s="112"/>
-      <c r="S66" s="112"/>
-      <c r="T66" s="112"/>
-      <c r="U66" s="112"/>
-      <c r="V66" s="112"/>
-      <c r="W66" s="112"/>
-      <c r="X66" s="111"/>
+      <c r="M66" s="118"/>
+      <c r="N66" s="118"/>
+      <c r="O66" s="118"/>
+      <c r="P66" s="118"/>
+      <c r="Q66" s="118"/>
+      <c r="R66" s="118"/>
+      <c r="S66" s="118"/>
+      <c r="T66" s="118"/>
+      <c r="U66" s="118"/>
+      <c r="V66" s="118"/>
+      <c r="W66" s="118"/>
+      <c r="X66" s="117"/>
     </row>
     <row r="67" spans="9:29" ht="30" customHeight="1">
       <c r="I67" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="J67" s="110" t="s">
+      <c r="J67" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="K67" s="111"/>
-      <c r="L67" s="110" t="s">
+      <c r="K67" s="117"/>
+      <c r="L67" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="M67" s="116"/>
-      <c r="N67" s="116"/>
-      <c r="O67" s="116"/>
-      <c r="P67" s="116"/>
-      <c r="Q67" s="116"/>
-      <c r="R67" s="116"/>
-      <c r="S67" s="116"/>
-      <c r="T67" s="116"/>
-      <c r="U67" s="116"/>
-      <c r="V67" s="116"/>
-      <c r="W67" s="116"/>
-      <c r="X67" s="116"/>
-      <c r="Y67" s="116"/>
-      <c r="Z67" s="116"/>
-      <c r="AA67" s="116"/>
-      <c r="AB67" s="116"/>
-      <c r="AC67" s="117"/>
+      <c r="M67" s="123"/>
+      <c r="N67" s="123"/>
+      <c r="O67" s="123"/>
+      <c r="P67" s="123"/>
+      <c r="Q67" s="123"/>
+      <c r="R67" s="123"/>
+      <c r="S67" s="123"/>
+      <c r="T67" s="123"/>
+      <c r="U67" s="123"/>
+      <c r="V67" s="123"/>
+      <c r="W67" s="123"/>
+      <c r="X67" s="123"/>
+      <c r="Y67" s="123"/>
+      <c r="Z67" s="123"/>
+      <c r="AA67" s="123"/>
+      <c r="AB67" s="123"/>
+      <c r="AC67" s="124"/>
     </row>
     <row r="68" spans="9:29" ht="30" customHeight="1">
       <c r="I68" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="J68" s="110" t="s">
+      <c r="J68" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="K68" s="111"/>
-      <c r="L68" s="110" t="s">
+      <c r="K68" s="117"/>
+      <c r="L68" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="M68" s="116"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="116"/>
-      <c r="P68" s="116"/>
-      <c r="Q68" s="116"/>
-      <c r="R68" s="116"/>
-      <c r="S68" s="116"/>
-      <c r="T68" s="116"/>
-      <c r="U68" s="116"/>
-      <c r="V68" s="116"/>
-      <c r="W68" s="116"/>
-      <c r="X68" s="116"/>
-      <c r="Y68" s="116"/>
-      <c r="Z68" s="116"/>
-      <c r="AA68" s="116"/>
-      <c r="AB68" s="116"/>
-      <c r="AC68" s="117"/>
+      <c r="M68" s="123"/>
+      <c r="N68" s="123"/>
+      <c r="O68" s="123"/>
+      <c r="P68" s="123"/>
+      <c r="Q68" s="123"/>
+      <c r="R68" s="123"/>
+      <c r="S68" s="123"/>
+      <c r="T68" s="123"/>
+      <c r="U68" s="123"/>
+      <c r="V68" s="123"/>
+      <c r="W68" s="123"/>
+      <c r="X68" s="123"/>
+      <c r="Y68" s="123"/>
+      <c r="Z68" s="123"/>
+      <c r="AA68" s="123"/>
+      <c r="AB68" s="123"/>
+      <c r="AC68" s="124"/>
     </row>
     <row r="69" spans="9:29" ht="30" customHeight="1">
       <c r="I69" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="J69" s="110" t="s">
+      <c r="J69" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="K69" s="111"/>
-      <c r="L69" s="113" t="s">
+      <c r="K69" s="117"/>
+      <c r="L69" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="114"/>
-      <c r="P69" s="114"/>
-      <c r="Q69" s="114"/>
-      <c r="R69" s="114"/>
-      <c r="S69" s="114"/>
-      <c r="T69" s="114"/>
-      <c r="U69" s="114"/>
-      <c r="V69" s="114"/>
-      <c r="W69" s="114"/>
-      <c r="X69" s="115"/>
+      <c r="M69" s="126"/>
+      <c r="N69" s="126"/>
+      <c r="O69" s="126"/>
+      <c r="P69" s="126"/>
+      <c r="Q69" s="126"/>
+      <c r="R69" s="126"/>
+      <c r="S69" s="126"/>
+      <c r="T69" s="126"/>
+      <c r="U69" s="126"/>
+      <c r="V69" s="126"/>
+      <c r="W69" s="126"/>
+      <c r="X69" s="127"/>
     </row>
     <row r="70" spans="9:29" ht="30" customHeight="1">
       <c r="I70" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="J70" s="110" t="s">
+      <c r="J70" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="K70" s="111"/>
-      <c r="L70" s="110" t="s">
+      <c r="K70" s="117"/>
+      <c r="L70" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="M70" s="112"/>
-      <c r="N70" s="112"/>
-      <c r="O70" s="112"/>
-      <c r="P70" s="112"/>
-      <c r="Q70" s="112"/>
-      <c r="R70" s="112"/>
-      <c r="S70" s="112"/>
-      <c r="T70" s="112"/>
-      <c r="U70" s="112"/>
-      <c r="V70" s="112"/>
-      <c r="W70" s="112"/>
-      <c r="X70" s="111"/>
+      <c r="M70" s="118"/>
+      <c r="N70" s="118"/>
+      <c r="O70" s="118"/>
+      <c r="P70" s="118"/>
+      <c r="Q70" s="118"/>
+      <c r="R70" s="118"/>
+      <c r="S70" s="118"/>
+      <c r="T70" s="118"/>
+      <c r="U70" s="118"/>
+      <c r="V70" s="118"/>
+      <c r="W70" s="118"/>
+      <c r="X70" s="117"/>
     </row>
     <row r="71" spans="9:29" ht="30" customHeight="1">
       <c r="I71" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="J71" s="110" t="s">
+      <c r="J71" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="111"/>
-      <c r="L71" s="110" t="s">
+      <c r="K71" s="117"/>
+      <c r="L71" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="M71" s="112"/>
-      <c r="N71" s="112"/>
-      <c r="O71" s="112"/>
-      <c r="P71" s="112"/>
-      <c r="Q71" s="112"/>
-      <c r="R71" s="112"/>
-      <c r="S71" s="112"/>
-      <c r="T71" s="112"/>
-      <c r="U71" s="112"/>
-      <c r="V71" s="112"/>
-      <c r="W71" s="112"/>
-      <c r="X71" s="111"/>
+      <c r="M71" s="118"/>
+      <c r="N71" s="118"/>
+      <c r="O71" s="118"/>
+      <c r="P71" s="118"/>
+      <c r="Q71" s="118"/>
+      <c r="R71" s="118"/>
+      <c r="S71" s="118"/>
+      <c r="T71" s="118"/>
+      <c r="U71" s="118"/>
+      <c r="V71" s="118"/>
+      <c r="W71" s="118"/>
+      <c r="X71" s="117"/>
     </row>
     <row r="72" spans="9:29" ht="30" customHeight="1">
       <c r="I72" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="J72" s="110" t="s">
+      <c r="J72" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="K72" s="111"/>
-      <c r="L72" s="113" t="s">
+      <c r="K72" s="117"/>
+      <c r="L72" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="M72" s="114"/>
-      <c r="N72" s="114"/>
-      <c r="O72" s="114"/>
-      <c r="P72" s="114"/>
-      <c r="Q72" s="114"/>
-      <c r="R72" s="114"/>
-      <c r="S72" s="114"/>
-      <c r="T72" s="114"/>
-      <c r="U72" s="114"/>
-      <c r="V72" s="114"/>
-      <c r="W72" s="114"/>
-      <c r="X72" s="115"/>
+      <c r="M72" s="126"/>
+      <c r="N72" s="126"/>
+      <c r="O72" s="126"/>
+      <c r="P72" s="126"/>
+      <c r="Q72" s="126"/>
+      <c r="R72" s="126"/>
+      <c r="S72" s="126"/>
+      <c r="T72" s="126"/>
+      <c r="U72" s="126"/>
+      <c r="V72" s="126"/>
+      <c r="W72" s="126"/>
+      <c r="X72" s="127"/>
     </row>
     <row r="73" spans="9:29" ht="30" customHeight="1">
       <c r="I73" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="J73" s="110" t="s">
+      <c r="J73" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="K73" s="111"/>
-      <c r="L73" s="110" t="s">
+      <c r="K73" s="117"/>
+      <c r="L73" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="M73" s="112"/>
-      <c r="N73" s="112"/>
-      <c r="O73" s="112"/>
-      <c r="P73" s="112"/>
-      <c r="Q73" s="112"/>
-      <c r="R73" s="112"/>
-      <c r="S73" s="112"/>
-      <c r="T73" s="112"/>
-      <c r="U73" s="112"/>
-      <c r="V73" s="112"/>
-      <c r="W73" s="112"/>
-      <c r="X73" s="111"/>
+      <c r="M73" s="118"/>
+      <c r="N73" s="118"/>
+      <c r="O73" s="118"/>
+      <c r="P73" s="118"/>
+      <c r="Q73" s="118"/>
+      <c r="R73" s="118"/>
+      <c r="S73" s="118"/>
+      <c r="T73" s="118"/>
+      <c r="U73" s="118"/>
+      <c r="V73" s="118"/>
+      <c r="W73" s="118"/>
+      <c r="X73" s="117"/>
     </row>
     <row r="74" spans="9:29" ht="30" customHeight="1"/>
     <row r="75" spans="9:29" ht="30" customHeight="1"/>
@@ -8423,34 +11995,6 @@
     <row r="158" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:X55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:X56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:X57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:X58"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:X64"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:X59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:X60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:AC61"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:X73"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:AC68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:X69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:X70"/>
     <mergeCell ref="AW19:BA21"/>
     <mergeCell ref="A37:J43"/>
     <mergeCell ref="J71:K71"/>
@@ -8467,12 +12011,40 @@
     <mergeCell ref="L62:AC62"/>
     <mergeCell ref="J63:K63"/>
     <mergeCell ref="L63:X63"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:X73"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:AC68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:X69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:X70"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:X64"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:X59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:X60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:AC61"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:X57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:X58"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:X55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:X56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR158"/>
   <sheetViews>
@@ -8861,13 +12433,13 @@
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
-      <c r="AW19" s="107" t="s">
+      <c r="AW19" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="AX19" s="107"/>
-      <c r="AY19" s="107"/>
-      <c r="AZ19" s="107"/>
-      <c r="BA19" s="107"/>
+      <c r="AX19" s="128"/>
+      <c r="AY19" s="128"/>
+      <c r="AZ19" s="128"/>
+      <c r="BA19" s="128"/>
       <c r="BB19" s="2"/>
       <c r="BC19" s="2"/>
       <c r="BD19" s="2"/>
@@ -8946,11 +12518,11 @@
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
-      <c r="AW20" s="107"/>
-      <c r="AX20" s="107"/>
-      <c r="AY20" s="107"/>
-      <c r="AZ20" s="107"/>
-      <c r="BA20" s="107"/>
+      <c r="AW20" s="128"/>
+      <c r="AX20" s="128"/>
+      <c r="AY20" s="128"/>
+      <c r="AZ20" s="128"/>
+      <c r="BA20" s="128"/>
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
       <c r="BD20" s="2"/>
@@ -9011,11 +12583,11 @@
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
-      <c r="AW21" s="107"/>
-      <c r="AX21" s="107"/>
-      <c r="AY21" s="107"/>
-      <c r="AZ21" s="107"/>
-      <c r="BA21" s="107"/>
+      <c r="AW21" s="128"/>
+      <c r="AX21" s="128"/>
+      <c r="AY21" s="128"/>
+      <c r="AZ21" s="128"/>
+      <c r="BA21" s="128"/>
       <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
       <c r="BD21" s="2"/>
@@ -10589,18 +14161,18 @@
       </c>
     </row>
     <row r="37" spans="1:67" ht="30" customHeight="1">
-      <c r="A37" s="108" t="s">
+      <c r="A37" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="130"/>
       <c r="K37" s="2"/>
       <c r="L37" s="46">
         <v>445</v>
@@ -10685,16 +14257,16 @@
       <c r="BC37" s="63"/>
     </row>
     <row r="38" spans="1:67" ht="30" customHeight="1">
-      <c r="A38" s="109"/>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
+      <c r="A38" s="130"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
       <c r="K38" s="2"/>
       <c r="L38" s="46">
         <v>444</v>
@@ -10764,16 +14336,16 @@
       <c r="BC38" s="63"/>
     </row>
     <row r="39" spans="1:67" ht="30" customHeight="1">
-      <c r="A39" s="109"/>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
+      <c r="A39" s="130"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
       <c r="K39" s="2"/>
       <c r="L39" s="46">
         <v>443</v>
@@ -10849,16 +14421,16 @@
       <c r="BC39" s="63"/>
     </row>
     <row r="40" spans="1:67" ht="30" customHeight="1">
-      <c r="A40" s="109"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
       <c r="K40" s="2"/>
       <c r="L40" s="46">
         <v>442</v>
@@ -10895,16 +14467,16 @@
       <c r="BC40" s="63"/>
     </row>
     <row r="41" spans="1:67" ht="30" customHeight="1">
-      <c r="A41" s="109"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
       <c r="K41" s="2"/>
       <c r="L41" s="46">
         <v>441</v>
@@ -10940,16 +14512,16 @@
       <c r="BC41" s="63"/>
     </row>
     <row r="42" spans="1:67" ht="30" customHeight="1">
-      <c r="A42" s="109"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
+      <c r="A42" s="130"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
       <c r="K42" s="2"/>
       <c r="L42" s="7"/>
       <c r="M42" s="2"/>
@@ -10989,16 +14561,16 @@
       <c r="BC42" s="63"/>
     </row>
     <row r="43" spans="1:67" ht="30" customHeight="1">
-      <c r="A43" s="109"/>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
+      <c r="A43" s="130"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
       <c r="K43" s="2"/>
       <c r="L43" s="7"/>
       <c r="M43" s="2"/>
@@ -11477,11 +15049,11 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="2"/>
-      <c r="W52" s="122" t="s">
+      <c r="W52" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="X52" s="106"/>
-      <c r="Y52" s="106"/>
+      <c r="X52" s="108"/>
+      <c r="Y52" s="108"/>
       <c r="AM52" s="30">
         <v>608</v>
       </c>
@@ -11496,10 +15068,10 @@
         <v>51</v>
       </c>
       <c r="F54" s="52"/>
-      <c r="G54" s="122" t="s">
+      <c r="G54" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="122"/>
+      <c r="H54" s="109"/>
       <c r="J54" s="52" t="s">
         <v>75</v>
       </c>
@@ -11524,488 +15096,488 @@
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
       <c r="I55" s="57"/>
-      <c r="J55" s="123" t="s">
+      <c r="J55" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="K55" s="124"/>
-      <c r="L55" s="125" t="s">
+      <c r="K55" s="111"/>
+      <c r="L55" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="M55" s="126"/>
-      <c r="N55" s="126"/>
-      <c r="O55" s="126"/>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="126"/>
-      <c r="S55" s="126"/>
-      <c r="T55" s="126"/>
-      <c r="U55" s="126"/>
-      <c r="V55" s="126"/>
-      <c r="W55" s="126"/>
-      <c r="X55" s="127"/>
+      <c r="M55" s="113"/>
+      <c r="N55" s="113"/>
+      <c r="O55" s="113"/>
+      <c r="P55" s="113"/>
+      <c r="Q55" s="113"/>
+      <c r="R55" s="113"/>
+      <c r="S55" s="113"/>
+      <c r="T55" s="113"/>
+      <c r="U55" s="113"/>
+      <c r="V55" s="113"/>
+      <c r="W55" s="113"/>
+      <c r="X55" s="114"/>
     </row>
     <row r="56" spans="1:70" ht="30" customHeight="1">
-      <c r="F56" s="128" t="s">
+      <c r="F56" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="G56" s="128"/>
-      <c r="H56" s="128"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="115"/>
       <c r="I56" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="J56" s="110" t="s">
+      <c r="J56" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="K56" s="111"/>
-      <c r="L56" s="110" t="s">
+      <c r="K56" s="117"/>
+      <c r="L56" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="M56" s="112"/>
-      <c r="N56" s="112"/>
-      <c r="O56" s="112"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="112"/>
-      <c r="R56" s="112"/>
-      <c r="S56" s="112"/>
-      <c r="T56" s="112"/>
-      <c r="U56" s="112"/>
-      <c r="V56" s="112"/>
-      <c r="W56" s="112"/>
-      <c r="X56" s="111"/>
+      <c r="M56" s="118"/>
+      <c r="N56" s="118"/>
+      <c r="O56" s="118"/>
+      <c r="P56" s="118"/>
+      <c r="Q56" s="118"/>
+      <c r="R56" s="118"/>
+      <c r="S56" s="118"/>
+      <c r="T56" s="118"/>
+      <c r="U56" s="118"/>
+      <c r="V56" s="118"/>
+      <c r="W56" s="118"/>
+      <c r="X56" s="117"/>
     </row>
     <row r="57" spans="1:70" ht="30" customHeight="1">
-      <c r="F57" s="120" t="s">
+      <c r="F57" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="121"/>
-      <c r="H57" s="121"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
       <c r="I57" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="J57" s="110" t="s">
+      <c r="J57" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="K57" s="111"/>
-      <c r="L57" s="110" t="s">
+      <c r="K57" s="117"/>
+      <c r="L57" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="M57" s="112"/>
-      <c r="N57" s="112"/>
-      <c r="O57" s="112"/>
-      <c r="P57" s="112"/>
-      <c r="Q57" s="112"/>
-      <c r="R57" s="112"/>
-      <c r="S57" s="112"/>
-      <c r="T57" s="112"/>
-      <c r="U57" s="112"/>
-      <c r="V57" s="112"/>
-      <c r="W57" s="112"/>
-      <c r="X57" s="111"/>
+      <c r="M57" s="118"/>
+      <c r="N57" s="118"/>
+      <c r="O57" s="118"/>
+      <c r="P57" s="118"/>
+      <c r="Q57" s="118"/>
+      <c r="R57" s="118"/>
+      <c r="S57" s="118"/>
+      <c r="T57" s="118"/>
+      <c r="U57" s="118"/>
+      <c r="V57" s="118"/>
+      <c r="W57" s="118"/>
+      <c r="X57" s="117"/>
     </row>
     <row r="58" spans="1:70" ht="30" customHeight="1">
       <c r="I58" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="J58" s="110" t="s">
+      <c r="J58" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="K58" s="111"/>
-      <c r="L58" s="110" t="s">
+      <c r="K58" s="117"/>
+      <c r="L58" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="M58" s="112"/>
-      <c r="N58" s="112"/>
-      <c r="O58" s="112"/>
-      <c r="P58" s="112"/>
-      <c r="Q58" s="112"/>
-      <c r="R58" s="112"/>
-      <c r="S58" s="112"/>
-      <c r="T58" s="112"/>
-      <c r="U58" s="112"/>
-      <c r="V58" s="112"/>
-      <c r="W58" s="112"/>
-      <c r="X58" s="111"/>
+      <c r="M58" s="118"/>
+      <c r="N58" s="118"/>
+      <c r="O58" s="118"/>
+      <c r="P58" s="118"/>
+      <c r="Q58" s="118"/>
+      <c r="R58" s="118"/>
+      <c r="S58" s="118"/>
+      <c r="T58" s="118"/>
+      <c r="U58" s="118"/>
+      <c r="V58" s="118"/>
+      <c r="W58" s="118"/>
+      <c r="X58" s="117"/>
     </row>
     <row r="59" spans="1:70" ht="30" customHeight="1">
       <c r="I59" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="J59" s="110" t="s">
+      <c r="J59" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="K59" s="111"/>
-      <c r="L59" s="110" t="s">
+      <c r="K59" s="117"/>
+      <c r="L59" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="112"/>
-      <c r="N59" s="112"/>
-      <c r="O59" s="112"/>
-      <c r="P59" s="112"/>
-      <c r="Q59" s="112"/>
-      <c r="R59" s="112"/>
-      <c r="S59" s="112"/>
-      <c r="T59" s="112"/>
-      <c r="U59" s="112"/>
-      <c r="V59" s="112"/>
-      <c r="W59" s="112"/>
-      <c r="X59" s="111"/>
+      <c r="M59" s="118"/>
+      <c r="N59" s="118"/>
+      <c r="O59" s="118"/>
+      <c r="P59" s="118"/>
+      <c r="Q59" s="118"/>
+      <c r="R59" s="118"/>
+      <c r="S59" s="118"/>
+      <c r="T59" s="118"/>
+      <c r="U59" s="118"/>
+      <c r="V59" s="118"/>
+      <c r="W59" s="118"/>
+      <c r="X59" s="117"/>
     </row>
     <row r="60" spans="1:70" ht="30" customHeight="1">
       <c r="I60" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="J60" s="110" t="s">
+      <c r="J60" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="K60" s="111"/>
-      <c r="L60" s="110" t="s">
+      <c r="K60" s="117"/>
+      <c r="L60" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="118"/>
-      <c r="N60" s="118"/>
-      <c r="O60" s="118"/>
-      <c r="P60" s="118"/>
-      <c r="Q60" s="118"/>
-      <c r="R60" s="118"/>
-      <c r="S60" s="118"/>
-      <c r="T60" s="118"/>
-      <c r="U60" s="118"/>
-      <c r="V60" s="118"/>
-      <c r="W60" s="118"/>
-      <c r="X60" s="119"/>
+      <c r="M60" s="121"/>
+      <c r="N60" s="121"/>
+      <c r="O60" s="121"/>
+      <c r="P60" s="121"/>
+      <c r="Q60" s="121"/>
+      <c r="R60" s="121"/>
+      <c r="S60" s="121"/>
+      <c r="T60" s="121"/>
+      <c r="U60" s="121"/>
+      <c r="V60" s="121"/>
+      <c r="W60" s="121"/>
+      <c r="X60" s="122"/>
     </row>
     <row r="61" spans="1:70" ht="30" customHeight="1">
       <c r="I61" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="J61" s="110" t="s">
+      <c r="J61" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="K61" s="111"/>
-      <c r="L61" s="110" t="s">
+      <c r="K61" s="117"/>
+      <c r="L61" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="M61" s="116"/>
-      <c r="N61" s="116"/>
-      <c r="O61" s="116"/>
-      <c r="P61" s="116"/>
-      <c r="Q61" s="116"/>
-      <c r="R61" s="116"/>
-      <c r="S61" s="116"/>
-      <c r="T61" s="116"/>
-      <c r="U61" s="116"/>
-      <c r="V61" s="116"/>
-      <c r="W61" s="116"/>
-      <c r="X61" s="116"/>
-      <c r="Y61" s="116"/>
-      <c r="Z61" s="116"/>
-      <c r="AA61" s="116"/>
-      <c r="AB61" s="116"/>
-      <c r="AC61" s="117"/>
+      <c r="M61" s="123"/>
+      <c r="N61" s="123"/>
+      <c r="O61" s="123"/>
+      <c r="P61" s="123"/>
+      <c r="Q61" s="123"/>
+      <c r="R61" s="123"/>
+      <c r="S61" s="123"/>
+      <c r="T61" s="123"/>
+      <c r="U61" s="123"/>
+      <c r="V61" s="123"/>
+      <c r="W61" s="123"/>
+      <c r="X61" s="123"/>
+      <c r="Y61" s="123"/>
+      <c r="Z61" s="123"/>
+      <c r="AA61" s="123"/>
+      <c r="AB61" s="123"/>
+      <c r="AC61" s="124"/>
       <c r="AD61" s="65"/>
     </row>
     <row r="62" spans="1:70" ht="30" customHeight="1">
       <c r="I62" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="J62" s="110" t="s">
+      <c r="J62" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="K62" s="111"/>
-      <c r="L62" s="110" t="s">
+      <c r="K62" s="117"/>
+      <c r="L62" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="M62" s="116"/>
-      <c r="N62" s="116"/>
-      <c r="O62" s="116"/>
-      <c r="P62" s="116"/>
-      <c r="Q62" s="116"/>
-      <c r="R62" s="116"/>
-      <c r="S62" s="116"/>
-      <c r="T62" s="116"/>
-      <c r="U62" s="116"/>
-      <c r="V62" s="116"/>
-      <c r="W62" s="116"/>
-      <c r="X62" s="116"/>
-      <c r="Y62" s="116"/>
-      <c r="Z62" s="116"/>
-      <c r="AA62" s="116"/>
-      <c r="AB62" s="116"/>
-      <c r="AC62" s="117"/>
+      <c r="M62" s="123"/>
+      <c r="N62" s="123"/>
+      <c r="O62" s="123"/>
+      <c r="P62" s="123"/>
+      <c r="Q62" s="123"/>
+      <c r="R62" s="123"/>
+      <c r="S62" s="123"/>
+      <c r="T62" s="123"/>
+      <c r="U62" s="123"/>
+      <c r="V62" s="123"/>
+      <c r="W62" s="123"/>
+      <c r="X62" s="123"/>
+      <c r="Y62" s="123"/>
+      <c r="Z62" s="123"/>
+      <c r="AA62" s="123"/>
+      <c r="AB62" s="123"/>
+      <c r="AC62" s="124"/>
     </row>
     <row r="63" spans="1:70" ht="30" customHeight="1">
       <c r="I63" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="J63" s="110" t="s">
+      <c r="J63" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="K63" s="111"/>
-      <c r="L63" s="113" t="s">
+      <c r="K63" s="117"/>
+      <c r="L63" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="M63" s="114"/>
-      <c r="N63" s="114"/>
-      <c r="O63" s="114"/>
-      <c r="P63" s="114"/>
-      <c r="Q63" s="114"/>
-      <c r="R63" s="114"/>
-      <c r="S63" s="114"/>
-      <c r="T63" s="114"/>
-      <c r="U63" s="114"/>
-      <c r="V63" s="114"/>
-      <c r="W63" s="114"/>
-      <c r="X63" s="115"/>
+      <c r="M63" s="126"/>
+      <c r="N63" s="126"/>
+      <c r="O63" s="126"/>
+      <c r="P63" s="126"/>
+      <c r="Q63" s="126"/>
+      <c r="R63" s="126"/>
+      <c r="S63" s="126"/>
+      <c r="T63" s="126"/>
+      <c r="U63" s="126"/>
+      <c r="V63" s="126"/>
+      <c r="W63" s="126"/>
+      <c r="X63" s="127"/>
     </row>
     <row r="64" spans="1:70" ht="30" customHeight="1">
       <c r="I64" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="J64" s="110" t="s">
+      <c r="J64" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="K64" s="111"/>
-      <c r="L64" s="110" t="s">
+      <c r="K64" s="117"/>
+      <c r="L64" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="M64" s="112"/>
-      <c r="N64" s="112"/>
-      <c r="O64" s="112"/>
-      <c r="P64" s="112"/>
-      <c r="Q64" s="112"/>
-      <c r="R64" s="112"/>
-      <c r="S64" s="112"/>
-      <c r="T64" s="112"/>
-      <c r="U64" s="112"/>
-      <c r="V64" s="112"/>
-      <c r="W64" s="112"/>
-      <c r="X64" s="111"/>
+      <c r="M64" s="118"/>
+      <c r="N64" s="118"/>
+      <c r="O64" s="118"/>
+      <c r="P64" s="118"/>
+      <c r="Q64" s="118"/>
+      <c r="R64" s="118"/>
+      <c r="S64" s="118"/>
+      <c r="T64" s="118"/>
+      <c r="U64" s="118"/>
+      <c r="V64" s="118"/>
+      <c r="W64" s="118"/>
+      <c r="X64" s="117"/>
     </row>
     <row r="65" spans="9:29" ht="30" customHeight="1">
       <c r="I65" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J65" s="110" t="s">
+      <c r="J65" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="111"/>
-      <c r="L65" s="110" t="s">
+      <c r="K65" s="117"/>
+      <c r="L65" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="M65" s="112"/>
-      <c r="N65" s="112"/>
-      <c r="O65" s="112"/>
-      <c r="P65" s="112"/>
-      <c r="Q65" s="112"/>
-      <c r="R65" s="112"/>
-      <c r="S65" s="112"/>
-      <c r="T65" s="112"/>
-      <c r="U65" s="112"/>
-      <c r="V65" s="112"/>
-      <c r="W65" s="112"/>
-      <c r="X65" s="111"/>
+      <c r="M65" s="118"/>
+      <c r="N65" s="118"/>
+      <c r="O65" s="118"/>
+      <c r="P65" s="118"/>
+      <c r="Q65" s="118"/>
+      <c r="R65" s="118"/>
+      <c r="S65" s="118"/>
+      <c r="T65" s="118"/>
+      <c r="U65" s="118"/>
+      <c r="V65" s="118"/>
+      <c r="W65" s="118"/>
+      <c r="X65" s="117"/>
     </row>
     <row r="66" spans="9:29" ht="30" customHeight="1">
       <c r="I66" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J66" s="110" t="s">
+      <c r="J66" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="K66" s="111"/>
-      <c r="L66" s="110" t="s">
+      <c r="K66" s="117"/>
+      <c r="L66" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="M66" s="112"/>
-      <c r="N66" s="112"/>
-      <c r="O66" s="112"/>
-      <c r="P66" s="112"/>
-      <c r="Q66" s="112"/>
-      <c r="R66" s="112"/>
-      <c r="S66" s="112"/>
-      <c r="T66" s="112"/>
-      <c r="U66" s="112"/>
-      <c r="V66" s="112"/>
-      <c r="W66" s="112"/>
-      <c r="X66" s="111"/>
+      <c r="M66" s="118"/>
+      <c r="N66" s="118"/>
+      <c r="O66" s="118"/>
+      <c r="P66" s="118"/>
+      <c r="Q66" s="118"/>
+      <c r="R66" s="118"/>
+      <c r="S66" s="118"/>
+      <c r="T66" s="118"/>
+      <c r="U66" s="118"/>
+      <c r="V66" s="118"/>
+      <c r="W66" s="118"/>
+      <c r="X66" s="117"/>
     </row>
     <row r="67" spans="9:29" ht="30" customHeight="1">
       <c r="I67" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="J67" s="110" t="s">
+      <c r="J67" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="K67" s="111"/>
-      <c r="L67" s="110" t="s">
+      <c r="K67" s="117"/>
+      <c r="L67" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="M67" s="116"/>
-      <c r="N67" s="116"/>
-      <c r="O67" s="116"/>
-      <c r="P67" s="116"/>
-      <c r="Q67" s="116"/>
-      <c r="R67" s="116"/>
-      <c r="S67" s="116"/>
-      <c r="T67" s="116"/>
-      <c r="U67" s="116"/>
-      <c r="V67" s="116"/>
-      <c r="W67" s="116"/>
-      <c r="X67" s="116"/>
-      <c r="Y67" s="116"/>
-      <c r="Z67" s="116"/>
-      <c r="AA67" s="116"/>
-      <c r="AB67" s="116"/>
-      <c r="AC67" s="117"/>
+      <c r="M67" s="123"/>
+      <c r="N67" s="123"/>
+      <c r="O67" s="123"/>
+      <c r="P67" s="123"/>
+      <c r="Q67" s="123"/>
+      <c r="R67" s="123"/>
+      <c r="S67" s="123"/>
+      <c r="T67" s="123"/>
+      <c r="U67" s="123"/>
+      <c r="V67" s="123"/>
+      <c r="W67" s="123"/>
+      <c r="X67" s="123"/>
+      <c r="Y67" s="123"/>
+      <c r="Z67" s="123"/>
+      <c r="AA67" s="123"/>
+      <c r="AB67" s="123"/>
+      <c r="AC67" s="124"/>
     </row>
     <row r="68" spans="9:29" ht="30" customHeight="1">
       <c r="I68" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="J68" s="110" t="s">
+      <c r="J68" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="K68" s="111"/>
-      <c r="L68" s="110" t="s">
+      <c r="K68" s="117"/>
+      <c r="L68" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="M68" s="116"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="116"/>
-      <c r="P68" s="116"/>
-      <c r="Q68" s="116"/>
-      <c r="R68" s="116"/>
-      <c r="S68" s="116"/>
-      <c r="T68" s="116"/>
-      <c r="U68" s="116"/>
-      <c r="V68" s="116"/>
-      <c r="W68" s="116"/>
-      <c r="X68" s="116"/>
-      <c r="Y68" s="116"/>
-      <c r="Z68" s="116"/>
-      <c r="AA68" s="116"/>
-      <c r="AB68" s="116"/>
-      <c r="AC68" s="117"/>
+      <c r="M68" s="123"/>
+      <c r="N68" s="123"/>
+      <c r="O68" s="123"/>
+      <c r="P68" s="123"/>
+      <c r="Q68" s="123"/>
+      <c r="R68" s="123"/>
+      <c r="S68" s="123"/>
+      <c r="T68" s="123"/>
+      <c r="U68" s="123"/>
+      <c r="V68" s="123"/>
+      <c r="W68" s="123"/>
+      <c r="X68" s="123"/>
+      <c r="Y68" s="123"/>
+      <c r="Z68" s="123"/>
+      <c r="AA68" s="123"/>
+      <c r="AB68" s="123"/>
+      <c r="AC68" s="124"/>
     </row>
     <row r="69" spans="9:29" ht="30" customHeight="1">
       <c r="I69" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="J69" s="110" t="s">
+      <c r="J69" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="K69" s="111"/>
-      <c r="L69" s="113" t="s">
+      <c r="K69" s="117"/>
+      <c r="L69" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="114"/>
-      <c r="P69" s="114"/>
-      <c r="Q69" s="114"/>
-      <c r="R69" s="114"/>
-      <c r="S69" s="114"/>
-      <c r="T69" s="114"/>
-      <c r="U69" s="114"/>
-      <c r="V69" s="114"/>
-      <c r="W69" s="114"/>
-      <c r="X69" s="115"/>
+      <c r="M69" s="126"/>
+      <c r="N69" s="126"/>
+      <c r="O69" s="126"/>
+      <c r="P69" s="126"/>
+      <c r="Q69" s="126"/>
+      <c r="R69" s="126"/>
+      <c r="S69" s="126"/>
+      <c r="T69" s="126"/>
+      <c r="U69" s="126"/>
+      <c r="V69" s="126"/>
+      <c r="W69" s="126"/>
+      <c r="X69" s="127"/>
     </row>
     <row r="70" spans="9:29" ht="30" customHeight="1">
       <c r="I70" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="J70" s="110" t="s">
+      <c r="J70" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="K70" s="111"/>
-      <c r="L70" s="110" t="s">
+      <c r="K70" s="117"/>
+      <c r="L70" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="M70" s="112"/>
-      <c r="N70" s="112"/>
-      <c r="O70" s="112"/>
-      <c r="P70" s="112"/>
-      <c r="Q70" s="112"/>
-      <c r="R70" s="112"/>
-      <c r="S70" s="112"/>
-      <c r="T70" s="112"/>
-      <c r="U70" s="112"/>
-      <c r="V70" s="112"/>
-      <c r="W70" s="112"/>
-      <c r="X70" s="111"/>
+      <c r="M70" s="118"/>
+      <c r="N70" s="118"/>
+      <c r="O70" s="118"/>
+      <c r="P70" s="118"/>
+      <c r="Q70" s="118"/>
+      <c r="R70" s="118"/>
+      <c r="S70" s="118"/>
+      <c r="T70" s="118"/>
+      <c r="U70" s="118"/>
+      <c r="V70" s="118"/>
+      <c r="W70" s="118"/>
+      <c r="X70" s="117"/>
     </row>
     <row r="71" spans="9:29" ht="30" customHeight="1">
       <c r="I71" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="J71" s="110" t="s">
+      <c r="J71" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="111"/>
-      <c r="L71" s="110" t="s">
+      <c r="K71" s="117"/>
+      <c r="L71" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="M71" s="112"/>
-      <c r="N71" s="112"/>
-      <c r="O71" s="112"/>
-      <c r="P71" s="112"/>
-      <c r="Q71" s="112"/>
-      <c r="R71" s="112"/>
-      <c r="S71" s="112"/>
-      <c r="T71" s="112"/>
-      <c r="U71" s="112"/>
-      <c r="V71" s="112"/>
-      <c r="W71" s="112"/>
-      <c r="X71" s="111"/>
+      <c r="M71" s="118"/>
+      <c r="N71" s="118"/>
+      <c r="O71" s="118"/>
+      <c r="P71" s="118"/>
+      <c r="Q71" s="118"/>
+      <c r="R71" s="118"/>
+      <c r="S71" s="118"/>
+      <c r="T71" s="118"/>
+      <c r="U71" s="118"/>
+      <c r="V71" s="118"/>
+      <c r="W71" s="118"/>
+      <c r="X71" s="117"/>
     </row>
     <row r="72" spans="9:29" ht="30" customHeight="1">
       <c r="I72" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="J72" s="110" t="s">
+      <c r="J72" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="K72" s="111"/>
-      <c r="L72" s="113" t="s">
+      <c r="K72" s="117"/>
+      <c r="L72" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="M72" s="114"/>
-      <c r="N72" s="114"/>
-      <c r="O72" s="114"/>
-      <c r="P72" s="114"/>
-      <c r="Q72" s="114"/>
-      <c r="R72" s="114"/>
-      <c r="S72" s="114"/>
-      <c r="T72" s="114"/>
-      <c r="U72" s="114"/>
-      <c r="V72" s="114"/>
-      <c r="W72" s="114"/>
-      <c r="X72" s="115"/>
+      <c r="M72" s="126"/>
+      <c r="N72" s="126"/>
+      <c r="O72" s="126"/>
+      <c r="P72" s="126"/>
+      <c r="Q72" s="126"/>
+      <c r="R72" s="126"/>
+      <c r="S72" s="126"/>
+      <c r="T72" s="126"/>
+      <c r="U72" s="126"/>
+      <c r="V72" s="126"/>
+      <c r="W72" s="126"/>
+      <c r="X72" s="127"/>
     </row>
     <row r="73" spans="9:29" ht="30" customHeight="1">
       <c r="I73" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="J73" s="110" t="s">
+      <c r="J73" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="K73" s="111"/>
-      <c r="L73" s="110" t="s">
+      <c r="K73" s="117"/>
+      <c r="L73" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="M73" s="112"/>
-      <c r="N73" s="112"/>
-      <c r="O73" s="112"/>
-      <c r="P73" s="112"/>
-      <c r="Q73" s="112"/>
-      <c r="R73" s="112"/>
-      <c r="S73" s="112"/>
-      <c r="T73" s="112"/>
-      <c r="U73" s="112"/>
-      <c r="V73" s="112"/>
-      <c r="W73" s="112"/>
-      <c r="X73" s="111"/>
+      <c r="M73" s="118"/>
+      <c r="N73" s="118"/>
+      <c r="O73" s="118"/>
+      <c r="P73" s="118"/>
+      <c r="Q73" s="118"/>
+      <c r="R73" s="118"/>
+      <c r="S73" s="118"/>
+      <c r="T73" s="118"/>
+      <c r="U73" s="118"/>
+      <c r="V73" s="118"/>
+      <c r="W73" s="118"/>
+      <c r="X73" s="117"/>
     </row>
     <row r="74" spans="9:29" ht="30" customHeight="1"/>
     <row r="75" spans="9:29" ht="30" customHeight="1"/>
@@ -12094,34 +15666,6 @@
     <row r="158" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:X55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:X56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:X57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:X58"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:X64"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:X59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:X60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:AC61"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:X73"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:AC68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:X69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:X70"/>
     <mergeCell ref="A37:J43"/>
     <mergeCell ref="AW19:BA21"/>
     <mergeCell ref="J71:K71"/>
@@ -12138,12 +15682,40 @@
     <mergeCell ref="L62:AC62"/>
     <mergeCell ref="J63:K63"/>
     <mergeCell ref="L63:X63"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:X73"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:AC68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:X69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:X70"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:X64"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:X59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:X60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:AC61"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:X57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:X58"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:X55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:X56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BK37"/>
   <sheetViews>
@@ -14652,11 +18224,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BK37"/>
   <sheetViews>
-    <sheetView topLeftCell="AL4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AX9" sqref="AX9"/>
     </sheetView>
   </sheetViews>
@@ -17160,9 +20732,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17177,21 +20754,12 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -17199,8 +20767,12 @@
 </settings>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -17218,7 +20790,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -17227,7 +20799,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -17236,7 +20808,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/AGV线路图-2019-10.11.xlsx
+++ b/AGV线路图-2019-10.11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/touchmii/Documents/CodeRunner/Python-path-find/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207B0F50-A1C9-EE4B-9E47-FA970F6D2CD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B61EE9-5263-EB40-ADA1-77B590F3ABAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="640" windowWidth="25080" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="1100" windowWidth="22220" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="现场实测地图" sheetId="2" r:id="rId1"/>
@@ -1210,9 +1210,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1371,6 +1368,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1649,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BI142"/>
   <sheetViews>
-    <sheetView zoomScale="163" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
@@ -1671,9 +1671,9 @@
       <c r="I1" s="77"/>
       <c r="J1" s="77"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="84"/>
+      <c r="L1" s="83"/>
       <c r="M1" s="52"/>
-      <c r="N1" s="84"/>
+      <c r="N1" s="83"/>
       <c r="O1" s="52"/>
       <c r="P1" s="52"/>
       <c r="Q1" s="52"/>
@@ -1687,13 +1687,13 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="77"/>
-      <c r="AB1" s="87"/>
+      <c r="AB1" s="86"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="80"/>
-      <c r="AH1" s="88"/>
+      <c r="AH1" s="87"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
@@ -1706,8 +1706,8 @@
       <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="87"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
       <c r="AW1" s="2"/>
       <c r="AX1" s="3">
         <v>850</v>
@@ -1728,14 +1728,14 @@
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
       <c r="T2" s="3">
         <v>785</v>
       </c>
@@ -1749,14 +1749,14 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
@@ -1771,8 +1771,8 @@
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="3">
         <v>849</v>
@@ -1832,17 +1832,17 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
-      <c r="AO3" s="89">
+      <c r="AO3" s="88">
         <v>4</v>
       </c>
-      <c r="AP3" s="89" t="s">
+      <c r="AP3" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="AQ3" s="89">
+      <c r="AQ3" s="88">
         <v>2</v>
       </c>
-      <c r="AR3" s="89"/>
-      <c r="AS3" s="89"/>
+      <c r="AR3" s="88"/>
+      <c r="AS3" s="88"/>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
@@ -1924,13 +1924,13 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
@@ -1998,11 +1998,11 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="89"/>
-      <c r="AQ5" s="89"/>
-      <c r="AR5" s="89"/>
-      <c r="AS5" s="89"/>
+      <c r="AO5" s="88"/>
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="88"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="88"/>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="133">
+      <c r="D7" s="132">
         <v>455</v>
       </c>
       <c r="E7" s="3">
@@ -2130,7 +2130,7 @@
       <c r="J7" s="3">
         <v>466</v>
       </c>
-      <c r="K7" s="134">
+      <c r="K7" s="133">
         <v>467</v>
       </c>
       <c r="L7" s="3">
@@ -2343,76 +2343,11 @@
       <c r="D9" s="75">
         <v>453</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2">
-        <v>3</v>
-      </c>
-      <c r="J9" s="2"/>
       <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2">
@@ -2441,74 +2376,11 @@
       <c r="D10" s="3">
         <v>452</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="13">
-        <v>259</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="79">
-        <v>154</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="17">
-        <v>155</v>
-      </c>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="17">
-        <v>156</v>
-      </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="17">
-        <v>157</v>
-      </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="17">
-        <v>158</v>
-      </c>
-      <c r="W10" s="10"/>
-      <c r="X10" s="17">
-        <v>159</v>
-      </c>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="17">
-        <v>160</v>
-      </c>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="17">
-        <v>161</v>
-      </c>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="17">
-        <v>162</v>
-      </c>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="17">
-        <v>163</v>
-      </c>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="17">
-        <v>164</v>
-      </c>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="17">
-        <v>165</v>
-      </c>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="17">
-        <v>166</v>
-      </c>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="17">
-        <v>167</v>
-      </c>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
@@ -2532,74 +2404,70 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="97">
-        <v>137</v>
-      </c>
-      <c r="J11" s="98">
-        <v>347</v>
-      </c>
-      <c r="K11" s="78">
-        <v>258</v>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="7">
+        <v>0</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="82">
-        <v>381</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="13">
-        <v>382</v>
+      <c r="N11" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="13">
-        <v>383</v>
-      </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="13">
-        <v>384</v>
+      <c r="R11" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="U11" s="2"/>
-      <c r="V11" s="13">
-        <v>385</v>
-      </c>
-      <c r="W11" s="5"/>
-      <c r="X11" s="13">
-        <v>386</v>
+      <c r="V11" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="13">
-        <v>387</v>
-      </c>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="13">
-        <v>388</v>
+      <c r="Z11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="13">
-        <v>389</v>
-      </c>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="13">
-        <v>390</v>
+      <c r="AD11" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="13">
-        <v>391</v>
-      </c>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="13">
-        <v>392</v>
+      <c r="AH11" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="AK11" s="2"/>
-      <c r="AL11" s="13">
-        <v>393</v>
-      </c>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="13">
-        <v>394</v>
+      <c r="AL11" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2631,98 +2499,68 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="101"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="13">
-        <v>257</v>
-      </c>
-      <c r="L12" s="13">
-        <v>265</v>
-      </c>
-      <c r="M12" s="13">
-        <v>266</v>
-      </c>
-      <c r="N12" s="13">
-        <v>267</v>
-      </c>
-      <c r="O12" s="13">
-        <v>268</v>
-      </c>
-      <c r="P12" s="13">
-        <v>269</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>270</v>
-      </c>
-      <c r="R12" s="13">
-        <v>271</v>
-      </c>
-      <c r="S12" s="13">
-        <v>272</v>
-      </c>
-      <c r="T12" s="13">
-        <v>273</v>
-      </c>
-      <c r="U12" s="13">
-        <v>274</v>
-      </c>
-      <c r="V12" s="13">
-        <v>275</v>
-      </c>
-      <c r="W12" s="13">
-        <v>276</v>
-      </c>
-      <c r="X12" s="13">
-        <v>277</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>278</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>279</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>280</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>281</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>282</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>283</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>284</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>285</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>286</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>287</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>288</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>289</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>290</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>291</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>292</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>293</v>
+        <v>259</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="79">
+        <v>154</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="17">
+        <v>155</v>
+      </c>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="17">
+        <v>156</v>
+      </c>
+      <c r="S12" s="10"/>
+      <c r="T12" s="17">
+        <v>157</v>
+      </c>
+      <c r="U12" s="10"/>
+      <c r="V12" s="17">
+        <v>158</v>
+      </c>
+      <c r="W12" s="10"/>
+      <c r="X12" s="17">
+        <v>159</v>
+      </c>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="17">
+        <v>160</v>
+      </c>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="17">
+        <v>161</v>
+      </c>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="17">
+        <v>162</v>
+      </c>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="17">
+        <v>163</v>
+      </c>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="17">
+        <v>164</v>
+      </c>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="17">
+        <v>165</v>
+      </c>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="17">
+        <v>166</v>
+      </c>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="17">
+        <v>167</v>
       </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
@@ -2757,68 +2595,74 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="97">
-        <v>136</v>
-      </c>
-      <c r="J13" s="98">
-        <v>346</v>
-      </c>
-      <c r="K13" s="13">
-        <v>256</v>
-      </c>
-      <c r="L13" s="6"/>
+      <c r="H13" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="96">
+        <v>137</v>
+      </c>
+      <c r="J13" s="97">
+        <v>347</v>
+      </c>
+      <c r="K13" s="78">
+        <v>258</v>
+      </c>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="N13" s="82">
+        <v>381</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="13">
+        <v>382</v>
+      </c>
       <c r="Q13" s="2"/>
-      <c r="R13" s="82">
-        <v>363</v>
-      </c>
-      <c r="S13" s="2"/>
+      <c r="R13" s="13">
+        <v>383</v>
+      </c>
+      <c r="S13" s="5"/>
       <c r="T13" s="13">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="13">
-        <v>365</v>
-      </c>
-      <c r="W13" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="W13" s="5"/>
       <c r="X13" s="13">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="13">
-        <v>367</v>
-      </c>
-      <c r="AA13" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="AA13" s="5"/>
       <c r="AB13" s="13">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
+      <c r="AD13" s="13">
+        <v>389</v>
+      </c>
+      <c r="AE13" s="5"/>
       <c r="AF13" s="13">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="AG13" s="2"/>
       <c r="AH13" s="13">
-        <v>371</v>
-      </c>
-      <c r="AI13" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="AI13" s="5"/>
       <c r="AJ13" s="13">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="AK13" s="2"/>
       <c r="AL13" s="13">
-        <v>373</v>
-      </c>
-      <c r="AM13" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="AM13" s="5"/>
       <c r="AN13" s="13">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
@@ -2841,62 +2685,98 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="99"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="100"/>
       <c r="K14" s="13">
-        <v>255</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="79">
-        <v>141</v>
-      </c>
-      <c r="S14" s="21"/>
-      <c r="T14" s="17">
-        <v>142</v>
-      </c>
-      <c r="U14" s="21"/>
-      <c r="V14" s="17">
-        <v>143</v>
-      </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="17">
-        <v>144</v>
-      </c>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="17">
-        <v>145</v>
-      </c>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="17">
-        <v>146</v>
-      </c>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="17">
-        <v>148</v>
-      </c>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="17">
-        <v>149</v>
-      </c>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="17">
-        <v>150</v>
-      </c>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="17">
-        <v>151</v>
-      </c>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="17">
-        <v>152</v>
+        <v>257</v>
+      </c>
+      <c r="L14" s="13">
+        <v>265</v>
+      </c>
+      <c r="M14" s="13">
+        <v>266</v>
+      </c>
+      <c r="N14" s="13">
+        <v>267</v>
+      </c>
+      <c r="O14" s="13">
+        <v>268</v>
+      </c>
+      <c r="P14" s="13">
+        <v>269</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>270</v>
+      </c>
+      <c r="R14" s="13">
+        <v>271</v>
+      </c>
+      <c r="S14" s="13">
+        <v>272</v>
+      </c>
+      <c r="T14" s="13">
+        <v>273</v>
+      </c>
+      <c r="U14" s="13">
+        <v>274</v>
+      </c>
+      <c r="V14" s="13">
+        <v>275</v>
+      </c>
+      <c r="W14" s="13">
+        <v>276</v>
+      </c>
+      <c r="X14" s="13">
+        <v>277</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>278</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>279</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>280</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>281</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>282</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>283</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>284</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>285</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>286</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>287</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>288</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>289</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>290</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>291</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>292</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>293</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -2908,26 +2788,23 @@
       </c>
     </row>
     <row r="15" spans="1:55" ht="30" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3">
-        <v>447</v>
+      <c r="D15" s="19">
+        <v>0</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="97">
-        <v>135</v>
-      </c>
-      <c r="J15" s="98">
-        <v>345</v>
+      <c r="H15" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="96">
+        <v>136</v>
+      </c>
+      <c r="J15" s="97">
+        <v>346</v>
       </c>
       <c r="K15" s="13">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="2"/>
@@ -2935,785 +2812,856 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="16" t="s">
-        <v>135</v>
+      <c r="R15" s="82">
+        <v>363</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="13">
+        <v>364</v>
       </c>
       <c r="U15" s="2"/>
-      <c r="V15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="16" t="s">
-        <v>137</v>
+      <c r="V15" s="13">
+        <v>365</v>
+      </c>
+      <c r="W15" s="2"/>
+      <c r="X15" s="13">
+        <v>366</v>
       </c>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="16" t="s">
-        <v>139</v>
+      <c r="Z15" s="13">
+        <v>367</v>
+      </c>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="13">
+        <v>368</v>
       </c>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="16" t="s">
-        <v>140</v>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="13">
+        <v>370</v>
       </c>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="16" t="s">
-        <v>142</v>
+      <c r="AH15" s="13">
+        <v>371</v>
+      </c>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="13">
+        <v>372</v>
       </c>
       <c r="AK15" s="2"/>
-      <c r="AL15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="16" t="s">
-        <v>144</v>
+      <c r="AL15" s="13">
+        <v>373</v>
+      </c>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="13">
+        <v>374</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
-      <c r="AU15" s="3">
-        <v>503</v>
+      <c r="AU15" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:55" ht="30" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>446</v>
+      <c r="D16" s="19">
+        <v>0</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="101"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="98"/>
       <c r="K16" s="13">
-        <v>253</v>
-      </c>
-      <c r="N16" s="52"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK16" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="79">
+        <v>141</v>
+      </c>
+      <c r="S16" s="21"/>
+      <c r="T16" s="17">
+        <v>142</v>
+      </c>
+      <c r="U16" s="21"/>
+      <c r="V16" s="17">
+        <v>143</v>
+      </c>
+      <c r="W16" s="21"/>
+      <c r="X16" s="17">
+        <v>144</v>
+      </c>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="17">
+        <v>145</v>
+      </c>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="17">
+        <v>146</v>
+      </c>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="17">
+        <v>148</v>
+      </c>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="17">
+        <v>149</v>
+      </c>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="17">
+        <v>150</v>
+      </c>
+      <c r="AK16" s="21"/>
       <c r="AL16" s="17">
-        <v>116</v>
-      </c>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="17">
+        <v>152</v>
+      </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
-      <c r="AU16" s="3">
-        <v>504</v>
+      <c r="AU16" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:61" ht="30" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="75">
-        <v>642</v>
-      </c>
-      <c r="C17" s="3">
-        <v>641</v>
-      </c>
-      <c r="D17" s="75">
-        <v>445</v>
+      <c r="D17" s="19">
+        <v>0</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="97">
-        <v>134</v>
-      </c>
-      <c r="J17" s="98">
-        <v>344</v>
+      <c r="H17" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="96">
+        <v>135</v>
+      </c>
+      <c r="J17" s="97">
+        <v>345</v>
       </c>
       <c r="K17" s="13">
-        <v>252</v>
-      </c>
-      <c r="L17" s="18">
-        <v>262</v>
-      </c>
-      <c r="M17" s="18">
-        <v>263</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="81" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="S17" s="6"/>
       <c r="T17" s="16" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="U17" s="2"/>
-      <c r="V17" s="16" t="s">
-        <v>147</v>
+      <c r="V17" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="W17" s="6"/>
       <c r="X17" s="16" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="16" t="s">
-        <v>149</v>
+      <c r="Z17" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="AA17" s="6"/>
       <c r="AB17" s="16" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="12">
-        <v>178</v>
-      </c>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="12">
-        <v>179</v>
-      </c>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="12">
-        <v>115</v>
-      </c>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="28">
-        <v>332</v>
-      </c>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
-      <c r="AU17" s="3">
-        <v>505</v>
+      <c r="AU17" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:61" ht="30" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="3">
-        <v>643</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>444</v>
+      <c r="D18" s="19">
+        <v>0</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="99"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
       <c r="K18" s="13">
-        <v>251</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N18" s="52"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="79">
-        <v>172</v>
-      </c>
-      <c r="S18" s="10"/>
-      <c r="T18" s="17">
-        <v>173</v>
-      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="17">
-        <v>174</v>
-      </c>
-      <c r="W18" s="10"/>
-      <c r="X18" s="17">
-        <v>175</v>
-      </c>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="17">
-        <v>176</v>
-      </c>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="25">
-        <v>177</v>
-      </c>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="28">
-        <v>329</v>
-      </c>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="28">
-        <v>330</v>
-      </c>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="28">
-        <v>331</v>
-      </c>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="31">
-        <v>327</v>
-      </c>
-      <c r="AM18" s="104">
-        <v>207</v>
-      </c>
-      <c r="AN18" s="35">
-        <v>206</v>
-      </c>
-      <c r="AP18" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU18" s="3">
-        <v>506</v>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="17">
+        <v>116</v>
+      </c>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AU18" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:61" ht="30" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="3">
-        <v>644</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3">
-        <v>443</v>
+      <c r="D19" s="19">
+        <v>0</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="97">
-        <v>133</v>
-      </c>
-      <c r="J19" s="98">
-        <v>343</v>
+      <c r="H19" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="96">
+        <v>134</v>
+      </c>
+      <c r="J19" s="97">
+        <v>344</v>
       </c>
       <c r="K19" s="13">
-        <v>250</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="L19" s="18">
+        <v>262</v>
+      </c>
+      <c r="M19" s="18">
+        <v>263</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="82">
-        <v>317</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="13">
-        <v>318</v>
+      <c r="R19" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="U19" s="2"/>
-      <c r="V19" s="18">
-        <v>319</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="13">
-        <v>320</v>
+      <c r="V19" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="W19" s="6"/>
+      <c r="X19" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="18">
-        <v>321</v>
-      </c>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="13">
-        <v>322</v>
-      </c>
+      <c r="Z19" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="13">
-        <v>324</v>
-      </c>
-      <c r="AH19" s="18">
-        <v>325</v>
-      </c>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="13">
-        <v>326</v>
-      </c>
-      <c r="AL19" s="32">
-        <v>203</v>
-      </c>
-      <c r="AM19" s="104">
-        <v>209</v>
-      </c>
-      <c r="AN19" s="35">
-        <v>208</v>
-      </c>
-      <c r="AP19" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU19" s="3">
-        <v>507</v>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="12">
+        <v>178</v>
+      </c>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="12">
+        <v>179</v>
+      </c>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="12">
+        <v>115</v>
+      </c>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="28">
+        <v>332</v>
+      </c>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AU19" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:61" ht="30" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="3">
-        <v>645</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3">
-        <v>442</v>
+      <c r="D20" s="19">
+        <v>0</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="101"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="98"/>
       <c r="K20" s="13">
-        <v>249</v>
-      </c>
-      <c r="L20" s="13">
-        <v>236</v>
-      </c>
-      <c r="M20" s="13">
-        <v>235</v>
-      </c>
-      <c r="N20" s="13">
-        <v>234</v>
-      </c>
-      <c r="O20" s="13">
-        <v>233</v>
-      </c>
-      <c r="P20" s="13">
-        <v>232</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>231</v>
-      </c>
-      <c r="R20" s="13">
-        <v>230</v>
-      </c>
-      <c r="S20" s="13">
-        <v>229</v>
-      </c>
-      <c r="T20" s="13">
-        <v>228</v>
-      </c>
-      <c r="U20" s="13">
-        <v>227</v>
-      </c>
-      <c r="V20" s="13">
-        <v>226</v>
-      </c>
-      <c r="W20" s="13">
-        <v>225</v>
-      </c>
-      <c r="X20" s="13">
-        <v>224</v>
-      </c>
-      <c r="Y20" s="13">
-        <v>223</v>
-      </c>
-      <c r="Z20" s="13">
-        <v>222</v>
-      </c>
-      <c r="AA20" s="13">
-        <v>221</v>
-      </c>
-      <c r="AB20" s="13">
-        <v>220</v>
-      </c>
-      <c r="AC20" s="13">
-        <v>219</v>
-      </c>
-      <c r="AD20" s="13">
-        <v>218</v>
-      </c>
-      <c r="AE20" s="13">
-        <v>217</v>
-      </c>
-      <c r="AF20" s="13">
-        <v>216</v>
-      </c>
-      <c r="AG20" s="13">
-        <v>215</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>214</v>
-      </c>
-      <c r="AI20" s="13">
-        <v>213</v>
-      </c>
-      <c r="AJ20" s="13">
-        <v>212</v>
-      </c>
-      <c r="AK20" s="13">
-        <v>211</v>
-      </c>
-      <c r="AL20" s="32">
-        <v>210</v>
-      </c>
-      <c r="AM20" s="104">
-        <v>25</v>
+        <v>251</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="79">
+        <v>172</v>
+      </c>
+      <c r="S20" s="10"/>
+      <c r="T20" s="17">
+        <v>173</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="17">
+        <v>174</v>
+      </c>
+      <c r="W20" s="10"/>
+      <c r="X20" s="17">
+        <v>175</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="17">
+        <v>176</v>
+      </c>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="25">
+        <v>177</v>
+      </c>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="28">
+        <v>329</v>
+      </c>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="28">
+        <v>330</v>
+      </c>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="28">
+        <v>331</v>
+      </c>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="31">
+        <v>327</v>
+      </c>
+      <c r="AM20" s="103">
+        <v>207</v>
       </c>
       <c r="AN20" s="35">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AP20" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AU20" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:61" ht="30" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3">
-        <v>646</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="105">
+      <c r="A21" s="2"/>
+      <c r="D21" s="19">
         <v>0</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="97">
-        <v>132</v>
-      </c>
-      <c r="J21" s="98">
-        <v>342</v>
+      <c r="H21" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="96">
+        <v>133</v>
+      </c>
+      <c r="J21" s="97">
+        <v>343</v>
       </c>
       <c r="K21" s="13">
-        <v>248</v>
-      </c>
-      <c r="L21" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="82">
-        <v>301</v>
-      </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="18">
-        <v>302</v>
-      </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="18">
-        <v>303</v>
-      </c>
-      <c r="S21" s="5"/>
-      <c r="T21" s="18">
-        <v>304</v>
-      </c>
-      <c r="U21" s="5"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="82">
+        <v>317</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="13">
+        <v>318</v>
+      </c>
+      <c r="U21" s="2"/>
       <c r="V21" s="18">
-        <v>305</v>
-      </c>
-      <c r="W21" s="5"/>
-      <c r="X21" s="18">
-        <v>306</v>
-      </c>
-      <c r="Y21" s="5"/>
+        <v>319</v>
+      </c>
+      <c r="W21" s="2"/>
+      <c r="X21" s="13">
+        <v>320</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="18">
-        <v>307</v>
-      </c>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="18">
-        <v>308</v>
-      </c>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="18">
-        <v>309</v>
-      </c>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="18">
-        <v>310</v>
-      </c>
-      <c r="AG21" s="5"/>
+        <v>321</v>
+      </c>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="13">
+        <v>322</v>
+      </c>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="13">
+        <v>324</v>
+      </c>
       <c r="AH21" s="18">
-        <v>311</v>
-      </c>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="18">
-        <v>312</v>
-      </c>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="31">
-        <v>313</v>
+        <v>325</v>
+      </c>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="13">
+        <v>326</v>
+      </c>
+      <c r="AL21" s="32">
+        <v>203</v>
+      </c>
+      <c r="AM21" s="103">
+        <v>209</v>
+      </c>
+      <c r="AN21" s="35">
+        <v>208</v>
+      </c>
+      <c r="AP21" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="AU21" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:61" ht="30" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3">
-        <v>647</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="7">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>447</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="78">
-        <v>247</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="79">
-        <v>101</v>
-      </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="12">
-        <v>102</v>
-      </c>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="12">
-        <v>103</v>
-      </c>
-      <c r="S22" s="10"/>
-      <c r="T22" s="12">
-        <v>104</v>
-      </c>
-      <c r="U22" s="10"/>
-      <c r="V22" s="12">
-        <v>105</v>
-      </c>
-      <c r="W22" s="10"/>
-      <c r="X22" s="12">
-        <v>106</v>
-      </c>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="12">
-        <v>107</v>
-      </c>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="27">
-        <v>108</v>
-      </c>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="27">
-        <v>109</v>
-      </c>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="27">
-        <v>110</v>
-      </c>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="27">
-        <v>111</v>
-      </c>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="27">
-        <v>112</v>
-      </c>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="27">
-        <v>113</v>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="13">
+        <v>249</v>
+      </c>
+      <c r="L22" s="13">
+        <v>236</v>
+      </c>
+      <c r="M22" s="13">
+        <v>235</v>
+      </c>
+      <c r="N22" s="13">
+        <v>234</v>
+      </c>
+      <c r="O22" s="13">
+        <v>233</v>
+      </c>
+      <c r="P22" s="13">
+        <v>232</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>231</v>
+      </c>
+      <c r="R22" s="13">
+        <v>230</v>
+      </c>
+      <c r="S22" s="13">
+        <v>229</v>
+      </c>
+      <c r="T22" s="13">
+        <v>228</v>
+      </c>
+      <c r="U22" s="13">
+        <v>227</v>
+      </c>
+      <c r="V22" s="13">
+        <v>226</v>
+      </c>
+      <c r="W22" s="13">
+        <v>225</v>
+      </c>
+      <c r="X22" s="13">
+        <v>224</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>223</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>222</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>221</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>220</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>219</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>218</v>
+      </c>
+      <c r="AE22" s="13">
+        <v>217</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>216</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>215</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>214</v>
+      </c>
+      <c r="AI22" s="13">
+        <v>213</v>
+      </c>
+      <c r="AJ22" s="13">
+        <v>212</v>
+      </c>
+      <c r="AK22" s="13">
+        <v>211</v>
+      </c>
+      <c r="AL22" s="32">
+        <v>210</v>
+      </c>
+      <c r="AM22" s="103">
+        <v>25</v>
+      </c>
+      <c r="AN22" s="35">
+        <v>204</v>
+      </c>
+      <c r="AP22" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AU22" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:61" ht="30" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="7">
-        <v>0</v>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>446</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="H23" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="96">
+        <v>132</v>
+      </c>
+      <c r="J23" s="97">
+        <v>342</v>
+      </c>
       <c r="K23" s="13">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="S23" s="22"/>
-      <c r="T23" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="U23" s="2"/>
-      <c r="V23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W23" s="22"/>
-      <c r="X23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU23" s="19">
-        <v>0</v>
+      <c r="N23" s="82">
+        <v>301</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="18">
+        <v>302</v>
+      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="18">
+        <v>303</v>
+      </c>
+      <c r="S23" s="5"/>
+      <c r="T23" s="18">
+        <v>304</v>
+      </c>
+      <c r="U23" s="5"/>
+      <c r="V23" s="18">
+        <v>305</v>
+      </c>
+      <c r="W23" s="5"/>
+      <c r="X23" s="18">
+        <v>306</v>
+      </c>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="18">
+        <v>307</v>
+      </c>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="18">
+        <v>308</v>
+      </c>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="18">
+        <v>309</v>
+      </c>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="18">
+        <v>310</v>
+      </c>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="18">
+        <v>311</v>
+      </c>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="18">
+        <v>312</v>
+      </c>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="31">
+        <v>313</v>
+      </c>
+      <c r="AU23" s="3">
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:61" ht="30" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="7">
-        <v>0</v>
+      <c r="B24" s="75">
+        <v>642</v>
+      </c>
+      <c r="C24" s="3">
+        <v>641</v>
+      </c>
+      <c r="D24" s="75">
+        <v>445</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="K24" s="19">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="19">
-        <v>0</v>
+      <c r="H24" s="98"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="78">
+        <v>247</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="79">
+        <v>101</v>
+      </c>
+      <c r="O24" s="10"/>
+      <c r="P24" s="12">
+        <v>102</v>
+      </c>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="12">
+        <v>103</v>
+      </c>
+      <c r="S24" s="10"/>
+      <c r="T24" s="12">
+        <v>104</v>
+      </c>
+      <c r="U24" s="10"/>
+      <c r="V24" s="12">
+        <v>105</v>
+      </c>
+      <c r="W24" s="10"/>
+      <c r="X24" s="12">
+        <v>106</v>
+      </c>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="12">
+        <v>107</v>
+      </c>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="27">
+        <v>108</v>
+      </c>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="27">
+        <v>109</v>
+      </c>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="27">
+        <v>110</v>
+      </c>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="27">
+        <v>111</v>
+      </c>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="27">
+        <v>112</v>
+      </c>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="27">
+        <v>113</v>
+      </c>
+      <c r="AU24" s="3">
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:61" ht="30" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="7">
-        <v>0</v>
+      <c r="B25" s="3">
+        <v>643</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>444</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="19">
-        <v>0</v>
-      </c>
-      <c r="L25" s="83"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="13">
+        <v>246</v>
+      </c>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="N25" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="22"/>
+      <c r="P25" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="R25" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S25" s="22"/>
+      <c r="T25" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
+      <c r="V25" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W25" s="22"/>
+      <c r="X25" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="87"/>
-      <c r="AF25" s="2"/>
+      <c r="Z25" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="AG25" s="2"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
+      <c r="AH25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="AK25" s="2"/>
-      <c r="AM25" s="29"/>
-      <c r="AU25" s="19">
-        <v>0</v>
+      <c r="AL25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU25" s="3">
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="30" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="B26" s="3">
+        <v>644</v>
+      </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="7">
-        <v>0</v>
+      <c r="D26" s="3">
+        <v>443</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
       <c r="J26" s="2"/>
       <c r="K26" s="19">
         <v>0</v>
@@ -3733,8 +3681,8 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="86"/>
       <c r="AG26" s="3">
         <v>880</v>
       </c>
@@ -3748,22 +3696,24 @@
         <v>11</v>
       </c>
       <c r="AL26" s="2"/>
-      <c r="AU26" s="19">
-        <v>0</v>
+      <c r="AU26" s="3">
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="30" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="B27" s="3">
+        <v>645</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="7">
-        <v>0</v>
+      <c r="D27" s="3">
+        <v>442</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
       <c r="J27" s="2"/>
       <c r="K27" s="19">
         <v>0</v>
@@ -3795,8 +3745,8 @@
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
-      <c r="AU27" s="19">
-        <v>0</v>
+      <c r="AU27" s="3">
+        <v>507</v>
       </c>
       <c r="AX27">
         <v>10</v>
@@ -3807,7 +3757,9 @@
     </row>
     <row r="28" spans="1:61" ht="30" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="3">
+        <v>646</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3">
         <v>441</v>
@@ -3858,8 +3810,10 @@
       </c>
     </row>
     <row r="29" spans="1:61" ht="30" customHeight="1">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="3">
+        <v>647</v>
+      </c>
       <c r="C29" s="5"/>
       <c r="D29" s="3">
         <v>436</v>
@@ -4167,10 +4121,10 @@
         <v>7</v>
       </c>
       <c r="AG33" s="29"/>
-      <c r="AK33" s="87"/>
-      <c r="AL33" s="87"/>
-      <c r="AU33" s="87"/>
-      <c r="AV33" s="87"/>
+      <c r="AK33" s="86"/>
+      <c r="AL33" s="86"/>
+      <c r="AU33" s="86"/>
+      <c r="AV33" s="86"/>
       <c r="AX33" s="1">
         <v>584</v>
       </c>
@@ -4188,15 +4142,15 @@
       <c r="Q34" s="75">
         <v>625</v>
       </c>
-      <c r="AK34" s="87"/>
-      <c r="AL34" s="87"/>
-      <c r="AU34" s="87"/>
-      <c r="AV34" s="87"/>
+      <c r="AK34" s="86"/>
+      <c r="AL34" s="86"/>
+      <c r="AU34" s="86"/>
+      <c r="AV34" s="86"/>
       <c r="AX34" s="1">
         <v>585</v>
       </c>
-      <c r="BH34" s="87"/>
-      <c r="BI34" s="87"/>
+      <c r="BH34" s="86"/>
+      <c r="BI34" s="86"/>
     </row>
     <row r="35" spans="1:61" ht="30" customHeight="1">
       <c r="D35" s="5"/>
@@ -4206,10 +4160,10 @@
       <c r="P35" s="23">
         <v>627</v>
       </c>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
-      <c r="V35" s="108"/>
-      <c r="W35" s="108"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="V35" s="107"/>
+      <c r="W35" s="107"/>
       <c r="AH35" s="52"/>
       <c r="AI35" s="65"/>
       <c r="AJ35" s="65"/>
@@ -4222,8 +4176,8 @@
       <c r="AX35" s="1">
         <v>586</v>
       </c>
-      <c r="BH35" s="87"/>
-      <c r="BI35" s="87"/>
+      <c r="BH35" s="86"/>
+      <c r="BI35" s="86"/>
     </row>
     <row r="36" spans="1:61" ht="30" customHeight="1">
       <c r="D36" s="5"/>
@@ -4234,10 +4188,10 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="83"/>
+      <c r="V36" s="83"/>
       <c r="W36" s="52"/>
       <c r="BG36" s="52"/>
       <c r="BH36" s="65"/>
@@ -4252,465 +4206,465 @@
       <c r="AX37" s="65"/>
     </row>
     <row r="38" spans="1:61" ht="30" customHeight="1">
-      <c r="A38" s="90"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="89"/>
     </row>
     <row r="39" spans="1:61" ht="30" customHeight="1">
-      <c r="A39" s="90"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="90"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="90"/>
-      <c r="U39" s="90"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="89"/>
+      <c r="T39" s="89"/>
+      <c r="U39" s="89"/>
     </row>
     <row r="40" spans="1:61" ht="30" customHeight="1">
-      <c r="A40" s="94"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="90"/>
-      <c r="U40" s="90"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="89"/>
     </row>
     <row r="41" spans="1:61" ht="30" customHeight="1">
-      <c r="A41" s="95"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="90"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="89"/>
     </row>
     <row r="42" spans="1:61" ht="30" customHeight="1">
-      <c r="A42" s="94"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="91"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="90"/>
-      <c r="U42" s="90"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="89"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="89"/>
     </row>
     <row r="43" spans="1:61" ht="30" customHeight="1">
-      <c r="A43" s="94"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="91"/>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="90"/>
-      <c r="S43" s="90"/>
-      <c r="T43" s="90"/>
-      <c r="U43" s="90"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="90"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="89"/>
     </row>
     <row r="44" spans="1:61" ht="30" customHeight="1">
-      <c r="A44" s="95"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="91"/>
-      <c r="O44" s="91"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="90"/>
-      <c r="U44" s="90"/>
+      <c r="A44" s="94"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="90"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
     </row>
     <row r="45" spans="1:61" ht="30" customHeight="1">
-      <c r="A45" s="94"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="84"/>
-      <c r="S45" s="84"/>
-      <c r="T45" s="84"/>
-      <c r="U45" s="84"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="83"/>
+      <c r="T45" s="83"/>
+      <c r="U45" s="83"/>
       <c r="V45" s="65"/>
     </row>
     <row r="46" spans="1:61" ht="30" customHeight="1">
-      <c r="A46" s="94"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="84"/>
-      <c r="U46" s="84"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="83"/>
+      <c r="Q46" s="83"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="83"/>
+      <c r="T46" s="83"/>
+      <c r="U46" s="83"/>
     </row>
     <row r="47" spans="1:61" ht="30" customHeight="1">
-      <c r="A47" s="95"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="91"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="90"/>
-      <c r="R47" s="90"/>
-      <c r="S47" s="90"/>
-      <c r="T47" s="90"/>
-      <c r="U47" s="90"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="90"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
     </row>
     <row r="48" spans="1:61" ht="30" customHeight="1">
-      <c r="A48" s="94"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="91"/>
-      <c r="M48" s="91"/>
-      <c r="N48" s="91"/>
-      <c r="O48" s="91"/>
-      <c r="P48" s="91"/>
-      <c r="Q48" s="90"/>
-      <c r="R48" s="90"/>
-      <c r="S48" s="90"/>
-      <c r="T48" s="90"/>
-      <c r="U48" s="90"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="90"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
     </row>
     <row r="49" spans="1:21" ht="30" customHeight="1">
-      <c r="A49" s="94"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="91"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="91"/>
-      <c r="O49" s="91"/>
-      <c r="P49" s="91"/>
-      <c r="Q49" s="90"/>
-      <c r="R49" s="90"/>
-      <c r="S49" s="90"/>
-      <c r="T49" s="90"/>
-      <c r="U49" s="90"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
     </row>
     <row r="50" spans="1:21" ht="30" customHeight="1">
-      <c r="A50" s="95"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="91"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="91"/>
-      <c r="O50" s="91"/>
-      <c r="P50" s="91"/>
-      <c r="Q50" s="90"/>
-      <c r="R50" s="90"/>
-      <c r="S50" s="90"/>
-      <c r="T50" s="90"/>
-      <c r="U50" s="90"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="90"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="90"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
     </row>
     <row r="51" spans="1:21" ht="30" customHeight="1">
-      <c r="A51" s="94"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="84"/>
-      <c r="U51" s="84"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="83"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="83"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="83"/>
     </row>
     <row r="52" spans="1:21" ht="30" customHeight="1">
-      <c r="A52" s="94"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
-      <c r="U52" s="84"/>
+      <c r="A52" s="93"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="83"/>
     </row>
     <row r="53" spans="1:21" ht="30" customHeight="1">
-      <c r="A53" s="95"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="91"/>
-      <c r="L53" s="91"/>
-      <c r="M53" s="91"/>
-      <c r="N53" s="91"/>
-      <c r="O53" s="91"/>
-      <c r="P53" s="91"/>
-      <c r="Q53" s="90"/>
-      <c r="R53" s="90"/>
-      <c r="S53" s="90"/>
-      <c r="T53" s="90"/>
-      <c r="U53" s="90"/>
+      <c r="A53" s="94"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="89"/>
+      <c r="R53" s="89"/>
+      <c r="S53" s="89"/>
+      <c r="T53" s="89"/>
+      <c r="U53" s="89"/>
     </row>
     <row r="54" spans="1:21" ht="30" customHeight="1">
-      <c r="A54" s="94"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="91"/>
-      <c r="M54" s="91"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="91"/>
-      <c r="P54" s="91"/>
-      <c r="Q54" s="90"/>
-      <c r="R54" s="90"/>
-      <c r="S54" s="90"/>
-      <c r="T54" s="90"/>
-      <c r="U54" s="90"/>
+      <c r="A54" s="93"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="90"/>
+      <c r="Q54" s="89"/>
+      <c r="R54" s="89"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
     </row>
     <row r="55" spans="1:21" ht="30" customHeight="1">
-      <c r="A55" s="94"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="91"/>
-      <c r="K55" s="91"/>
-      <c r="L55" s="91"/>
-      <c r="M55" s="91"/>
-      <c r="N55" s="91"/>
-      <c r="O55" s="91"/>
-      <c r="P55" s="91"/>
-      <c r="Q55" s="90"/>
-      <c r="R55" s="90"/>
-      <c r="S55" s="90"/>
-      <c r="T55" s="90"/>
-      <c r="U55" s="90"/>
+      <c r="A55" s="93"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="90"/>
+      <c r="N55" s="90"/>
+      <c r="O55" s="90"/>
+      <c r="P55" s="90"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="89"/>
     </row>
     <row r="56" spans="1:21" ht="30" customHeight="1">
-      <c r="A56" s="95"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="91"/>
-      <c r="K56" s="91"/>
-      <c r="L56" s="91"/>
-      <c r="M56" s="91"/>
-      <c r="N56" s="91"/>
-      <c r="O56" s="91"/>
-      <c r="P56" s="91"/>
-      <c r="Q56" s="90"/>
-      <c r="R56" s="90"/>
-      <c r="S56" s="90"/>
-      <c r="T56" s="90"/>
-      <c r="U56" s="90"/>
+      <c r="A56" s="94"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
+      <c r="K56" s="90"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="90"/>
+      <c r="N56" s="90"/>
+      <c r="O56" s="90"/>
+      <c r="P56" s="90"/>
+      <c r="Q56" s="89"/>
+      <c r="R56" s="89"/>
+      <c r="S56" s="89"/>
+      <c r="T56" s="89"/>
+      <c r="U56" s="89"/>
     </row>
     <row r="57" spans="1:21" ht="30" customHeight="1">
-      <c r="A57" s="94"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="91"/>
-      <c r="M57" s="91"/>
-      <c r="N57" s="91"/>
-      <c r="O57" s="91"/>
-      <c r="P57" s="91"/>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
-      <c r="S57" s="90"/>
-      <c r="T57" s="90"/>
-      <c r="U57" s="90"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="90"/>
+      <c r="Q57" s="89"/>
+      <c r="R57" s="89"/>
+      <c r="S57" s="89"/>
+      <c r="T57" s="89"/>
+      <c r="U57" s="89"/>
     </row>
     <row r="58" spans="1:21" ht="30" customHeight="1"/>
     <row r="59" spans="1:21" ht="30" customHeight="1"/>
@@ -4810,8 +4764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0C017D-5489-F749-B6C7-70D01A60C249}">
   <dimension ref="A1:BI142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="82" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="AO1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AX29" sqref="AX29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
@@ -4827,14 +4781,14 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
       <c r="I1" s="77"/>
       <c r="J1" s="77"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="84"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="83"/>
       <c r="M1" s="52"/>
-      <c r="N1" s="84"/>
+      <c r="N1" s="83"/>
       <c r="O1" s="52"/>
       <c r="P1" s="52"/>
       <c r="Q1" s="52"/>
@@ -4842,41 +4796,41 @@
       <c r="S1" s="52"/>
       <c r="T1" s="77"/>
       <c r="U1" s="77"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
       <c r="AA1" s="77"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
       <c r="AG1" s="80"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="106"/>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="87"/>
-      <c r="AW1" s="106"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="105"/>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="105"/>
+      <c r="AQ1" s="105"/>
+      <c r="AR1" s="105"/>
+      <c r="AS1" s="105"/>
+      <c r="AT1" s="105"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="105"/>
       <c r="AX1" s="3">
         <v>850</v>
       </c>
-      <c r="AY1" s="106"/>
-      <c r="AZ1" s="106"/>
-      <c r="BA1" s="106"/>
-      <c r="BB1" s="106"/>
+      <c r="AY1" s="105"/>
+      <c r="AZ1" s="105"/>
+      <c r="BA1" s="105"/>
+      <c r="BB1" s="105"/>
     </row>
     <row r="2" spans="1:55" ht="30" customHeight="1">
       <c r="A2" s="29"/>
@@ -4884,64 +4838,64 @@
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
-      <c r="G2" s="106"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="76"/>
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
       <c r="T2" s="3">
         <v>785</v>
       </c>
       <c r="U2" s="3">
         <v>784</v>
       </c>
-      <c r="V2" s="132">
+      <c r="V2" s="131">
         <v>787</v>
       </c>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="106"/>
-      <c r="AM2" s="106"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="106"/>
-      <c r="AP2" s="106">
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="105">
         <v>3</v>
       </c>
-      <c r="AQ2" s="106"/>
-      <c r="AR2" s="106"/>
-      <c r="AS2" s="106"/>
-      <c r="AT2" s="106"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="106"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="105"/>
       <c r="AX2" s="3">
         <v>849</v>
       </c>
-      <c r="AY2" s="106"/>
-      <c r="AZ2" s="106"/>
-      <c r="BA2" s="106"/>
-      <c r="BB2" s="106"/>
+      <c r="AY2" s="105"/>
+      <c r="AZ2" s="105"/>
+      <c r="BA2" s="105"/>
+      <c r="BB2" s="105"/>
     </row>
     <row r="3" spans="1:55" ht="30" customHeight="1">
       <c r="A3" s="1">
@@ -4950,13 +4904,13 @@
       <c r="C3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
       <c r="N3" s="80"/>
       <c r="O3" s="80"/>
       <c r="P3" s="3">
@@ -4965,7 +4919,7 @@
       <c r="Q3" s="3">
         <v>750</v>
       </c>
-      <c r="R3" s="131">
+      <c r="R3" s="130">
         <v>749</v>
       </c>
       <c r="T3" s="6"/>
@@ -4975,49 +4929,49 @@
       <c r="V3" s="3">
         <v>789</v>
       </c>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106"/>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="106"/>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106"/>
-      <c r="AK3" s="106"/>
-      <c r="AL3" s="106"/>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106"/>
-      <c r="AO3" s="89">
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="105"/>
+      <c r="AK3" s="105"/>
+      <c r="AL3" s="105"/>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="88">
         <v>4</v>
       </c>
-      <c r="AP3" s="89" t="s">
+      <c r="AP3" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="AQ3" s="89">
+      <c r="AQ3" s="88">
         <v>2</v>
       </c>
-      <c r="AR3" s="89"/>
-      <c r="AS3" s="89"/>
-      <c r="AT3" s="106"/>
-      <c r="AU3" s="106"/>
-      <c r="AV3" s="106"/>
-      <c r="AW3" s="106"/>
+      <c r="AR3" s="88"/>
+      <c r="AS3" s="88"/>
+      <c r="AT3" s="105"/>
+      <c r="AU3" s="105"/>
+      <c r="AV3" s="105"/>
+      <c r="AW3" s="105"/>
       <c r="AX3" s="3">
         <v>848</v>
       </c>
-      <c r="AY3" s="106"/>
-      <c r="AZ3" s="106"/>
-      <c r="BA3" s="106"/>
-      <c r="BB3" s="106"/>
+      <c r="AY3" s="105"/>
+      <c r="AZ3" s="105"/>
+      <c r="BA3" s="105"/>
+      <c r="BB3" s="105"/>
     </row>
     <row r="4" spans="1:55" ht="30" customHeight="1">
-      <c r="A4" s="135">
+      <c r="A4" s="134">
         <v>728</v>
       </c>
       <c r="B4" s="1">
@@ -5026,39 +4980,39 @@
       <c r="C4" s="1">
         <v>726</v>
       </c>
-      <c r="D4" s="135">
+      <c r="D4" s="134">
         <v>458</v>
       </c>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
       <c r="I4" s="3">
         <v>745</v>
       </c>
       <c r="J4" s="3">
         <v>744</v>
       </c>
-      <c r="K4" s="131">
+      <c r="K4" s="130">
         <v>743</v>
       </c>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
       <c r="P4" s="3">
         <v>752</v>
       </c>
       <c r="Q4" s="3">
         <v>341</v>
       </c>
-      <c r="R4" s="131">
+      <c r="R4" s="130">
         <v>138</v>
       </c>
-      <c r="T4" s="106"/>
+      <c r="T4" s="105"/>
       <c r="U4" s="75">
         <v>783</v>
       </c>
-      <c r="V4" s="132">
+      <c r="V4" s="131">
         <v>786</v>
       </c>
-      <c r="X4" s="106"/>
+      <c r="X4" s="105"/>
       <c r="AA4" s="75">
         <v>803</v>
       </c>
@@ -5068,9 +5022,9 @@
       <c r="AC4" s="3">
         <v>805</v>
       </c>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="106"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
       <c r="AG4" s="3">
         <v>825</v>
       </c>
@@ -5080,31 +5034,31 @@
       <c r="AI4" s="75">
         <v>823</v>
       </c>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
+      <c r="AJ4" s="105"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="105"/>
       <c r="AX4" s="3">
         <v>847</v>
       </c>
-      <c r="AY4" s="106"/>
-      <c r="AZ4" s="106">
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="105">
         <v>13</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="105"/>
     </row>
     <row r="5" spans="1:55" ht="30" customHeight="1">
       <c r="C5" s="56" t="s">
@@ -5113,76 +5067,76 @@
       <c r="D5" s="3">
         <v>457</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106">
+      <c r="G5" s="105"/>
+      <c r="H5" s="105">
         <v>4</v>
       </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="3">
         <v>742</v>
       </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
       <c r="R5" s="3">
         <v>748</v>
       </c>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
       <c r="U5" s="3">
         <v>782</v>
       </c>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
       <c r="AA5" s="3">
         <v>802</v>
       </c>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
       <c r="AI5" s="3">
         <v>822</v>
       </c>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="89"/>
-      <c r="AQ5" s="89"/>
-      <c r="AR5" s="89"/>
-      <c r="AS5" s="89"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="105"/>
+      <c r="AN5" s="105"/>
+      <c r="AO5" s="88"/>
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="88"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="88"/>
+      <c r="AT5" s="105"/>
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="105"/>
+      <c r="AW5" s="105"/>
       <c r="AX5" s="75">
         <v>846</v>
       </c>
-      <c r="AY5" s="106"/>
-      <c r="AZ5" s="106"/>
-      <c r="BA5" s="106"/>
-      <c r="BB5" s="106"/>
+      <c r="AY5" s="105"/>
+      <c r="AZ5" s="105"/>
+      <c r="BA5" s="105"/>
+      <c r="BB5" s="105"/>
     </row>
     <row r="6" spans="1:55" ht="30" customHeight="1">
       <c r="D6" s="1">
         <v>456</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
       <c r="J6" s="56" t="s">
         <v>1</v>
       </c>
@@ -5192,9 +5146,9 @@
       <c r="L6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
       <c r="P6" s="56"/>
       <c r="Q6" s="56" t="s">
         <v>1</v>
@@ -5214,9 +5168,9 @@
       <c r="V6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="106"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
       <c r="Z6" s="56" t="s">
         <v>1</v>
       </c>
@@ -5226,11 +5180,11 @@
       <c r="AB6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="106"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
       <c r="AH6" s="56" t="s">
         <v>1</v>
       </c>
@@ -5240,18 +5194,18 @@
       <c r="AJ6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="AK6" s="106"/>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="106"/>
-      <c r="AN6" s="106"/>
-      <c r="AO6" s="106"/>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="106"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="105"/>
+      <c r="AN6" s="105"/>
+      <c r="AO6" s="105"/>
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105"/>
       <c r="AW6" s="56" t="s">
         <v>1</v>
       </c>
@@ -5261,16 +5215,16 @@
       <c r="AY6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="BA6" s="106"/>
-      <c r="BB6" s="106"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
     </row>
     <row r="7" spans="1:55" ht="30" customHeight="1">
       <c r="A7" s="3">
         <v>685</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="132">
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="131">
         <v>455</v>
       </c>
       <c r="E7" s="3">
@@ -5291,7 +5245,7 @@
       <c r="J7" s="3">
         <v>466</v>
       </c>
-      <c r="K7" s="131">
+      <c r="K7" s="130">
         <v>467</v>
       </c>
       <c r="L7" s="3">
@@ -5312,7 +5266,7 @@
       <c r="Q7" s="3">
         <v>473</v>
       </c>
-      <c r="R7" s="131">
+      <c r="R7" s="130">
         <v>474</v>
       </c>
       <c r="S7" s="3">
@@ -5321,7 +5275,7 @@
       <c r="T7" s="3">
         <v>476</v>
       </c>
-      <c r="U7" s="131">
+      <c r="U7" s="130">
         <v>477</v>
       </c>
       <c r="V7" s="3">
@@ -5339,7 +5293,7 @@
       <c r="Z7" s="3">
         <v>482</v>
       </c>
-      <c r="AA7" s="131">
+      <c r="AA7" s="130">
         <v>483</v>
       </c>
       <c r="AB7" s="3">
@@ -5363,7 +5317,7 @@
       <c r="AH7" s="3">
         <v>490</v>
       </c>
-      <c r="AI7" s="131">
+      <c r="AI7" s="130">
         <v>491</v>
       </c>
       <c r="AJ7" s="3">
@@ -5399,7 +5353,7 @@
       <c r="AT7" s="3">
         <v>494</v>
       </c>
-      <c r="AU7" s="132">
+      <c r="AU7" s="131">
         <v>495</v>
       </c>
       <c r="AV7" s="56" t="s">
@@ -5419,18 +5373,18 @@
       <c r="A8" s="3">
         <v>684</v>
       </c>
-      <c r="B8" s="106"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="56" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="3">
         <v>454</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
       <c r="J8" s="56" t="s">
         <v>1</v>
       </c>
@@ -5440,40 +5394,40 @@
       <c r="L8" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="106"/>
-      <c r="AF8" s="106"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="106"/>
-      <c r="AJ8" s="106"/>
-      <c r="AK8" s="106"/>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="106"/>
-      <c r="AN8" s="106"/>
-      <c r="AO8" s="106"/>
-      <c r="AP8" s="106"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="106"/>
-      <c r="AS8" s="106"/>
-      <c r="AT8" s="106"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
       <c r="AU8" s="75">
         <v>496</v>
       </c>
@@ -5486,10 +5440,10 @@
       <c r="AX8" s="75">
         <v>843</v>
       </c>
-      <c r="AY8" s="106"/>
-      <c r="AZ8" s="106"/>
-      <c r="BA8" s="106"/>
-      <c r="BB8" s="106"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="105"/>
+      <c r="BB8" s="105"/>
     </row>
     <row r="9" spans="1:55" ht="30" customHeight="1">
       <c r="A9" s="75">
@@ -5501,22 +5455,22 @@
       <c r="C9" s="3">
         <v>681</v>
       </c>
-      <c r="D9" s="131">
+      <c r="D9" s="130">
         <v>453</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106">
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105">
         <v>3</v>
       </c>
-      <c r="J9" s="106"/>
+      <c r="J9" s="105"/>
       <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
       <c r="N9" s="81" t="s">
         <v>122</v>
       </c>
@@ -5524,7 +5478,7 @@
       <c r="P9" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="Q9" s="106"/>
+      <c r="Q9" s="105"/>
       <c r="R9" s="16" t="s">
         <v>124</v>
       </c>
@@ -5532,7 +5486,7 @@
       <c r="T9" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="106"/>
+      <c r="U9" s="105"/>
       <c r="V9" s="16" t="s">
         <v>126</v>
       </c>
@@ -5540,7 +5494,7 @@
       <c r="X9" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="Y9" s="106"/>
+      <c r="Y9" s="105"/>
       <c r="Z9" s="16" t="s">
         <v>128</v>
       </c>
@@ -5548,7 +5502,7 @@
       <c r="AB9" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="AC9" s="106"/>
+      <c r="AC9" s="105"/>
       <c r="AD9" s="16" t="s">
         <v>130</v>
       </c>
@@ -5556,7 +5510,7 @@
       <c r="AF9" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="AG9" s="106"/>
+      <c r="AG9" s="105"/>
       <c r="AH9" s="16" t="s">
         <v>132</v>
       </c>
@@ -5564,7 +5518,7 @@
       <c r="AJ9" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="AK9" s="106"/>
+      <c r="AK9" s="105"/>
       <c r="AL9" s="16" t="s">
         <v>134</v>
       </c>
@@ -5572,14 +5526,14 @@
       <c r="AN9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AO9" s="106"/>
-      <c r="AP9" s="106"/>
-      <c r="AQ9" s="106"/>
-      <c r="AR9" s="106"/>
-      <c r="AS9" s="106">
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="105"/>
+      <c r="AR9" s="105"/>
+      <c r="AS9" s="105">
         <v>12</v>
       </c>
-      <c r="AT9" s="106"/>
+      <c r="AT9" s="105"/>
       <c r="AU9" s="3">
         <v>497</v>
       </c>
@@ -5590,29 +5544,29 @@
       <c r="AX9" s="6"/>
       <c r="AY9" s="6"/>
       <c r="AZ9" s="6"/>
-      <c r="BA9" s="106"/>
-      <c r="BB9" s="106"/>
+      <c r="BA9" s="105"/>
+      <c r="BB9" s="105"/>
     </row>
     <row r="10" spans="1:55" ht="30" customHeight="1">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="56" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="3">
         <v>452</v>
       </c>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="106"/>
+      <c r="J10" s="105"/>
       <c r="K10" s="13">
         <v>259</v>
       </c>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
       <c r="N10" s="79">
         <v>154</v>
       </c>
@@ -5668,20 +5622,20 @@
       <c r="AN10" s="17">
         <v>167</v>
       </c>
-      <c r="AO10" s="106"/>
-      <c r="AP10" s="106"/>
-      <c r="AQ10" s="106"/>
-      <c r="AR10" s="106"/>
-      <c r="AS10" s="106"/>
-      <c r="AT10" s="106"/>
+      <c r="AO10" s="105"/>
+      <c r="AP10" s="105"/>
+      <c r="AQ10" s="105"/>
+      <c r="AR10" s="105"/>
+      <c r="AS10" s="105"/>
+      <c r="AT10" s="105"/>
       <c r="AU10" s="3">
         <v>498</v>
       </c>
-      <c r="AV10" s="106"/>
-      <c r="AY10" s="106"/>
-      <c r="AZ10" s="106"/>
-      <c r="BA10" s="106"/>
-      <c r="BB10" s="106"/>
+      <c r="AV10" s="105"/>
+      <c r="AY10" s="105"/>
+      <c r="AZ10" s="105"/>
+      <c r="BA10" s="105"/>
+      <c r="BB10" s="105"/>
     </row>
     <row r="11" spans="1:55" ht="30" customHeight="1">
       <c r="A11" s="3">
@@ -5690,23 +5644,23 @@
       <c r="D11" s="3">
         <v>451</v>
       </c>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="96" t="s">
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="97">
+      <c r="I11" s="96">
         <v>137</v>
       </c>
-      <c r="J11" s="98">
+      <c r="J11" s="97">
         <v>347</v>
       </c>
       <c r="K11" s="78">
         <v>258</v>
       </c>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
       <c r="N11" s="82">
         <v>381</v>
       </c>
@@ -5714,7 +5668,7 @@
       <c r="P11" s="13">
         <v>382</v>
       </c>
-      <c r="Q11" s="106"/>
+      <c r="Q11" s="105"/>
       <c r="R11" s="13">
         <v>383</v>
       </c>
@@ -5722,7 +5676,7 @@
       <c r="T11" s="13">
         <v>384</v>
       </c>
-      <c r="U11" s="106"/>
+      <c r="U11" s="105"/>
       <c r="V11" s="13">
         <v>385</v>
       </c>
@@ -5730,7 +5684,7 @@
       <c r="X11" s="13">
         <v>386</v>
       </c>
-      <c r="Y11" s="106"/>
+      <c r="Y11" s="105"/>
       <c r="Z11" s="13">
         <v>387</v>
       </c>
@@ -5738,7 +5692,7 @@
       <c r="AB11" s="13">
         <v>388</v>
       </c>
-      <c r="AC11" s="106"/>
+      <c r="AC11" s="105"/>
       <c r="AD11" s="13">
         <v>389</v>
       </c>
@@ -5746,7 +5700,7 @@
       <c r="AF11" s="13">
         <v>390</v>
       </c>
-      <c r="AG11" s="106"/>
+      <c r="AG11" s="105"/>
       <c r="AH11" s="13">
         <v>391</v>
       </c>
@@ -5754,7 +5708,7 @@
       <c r="AJ11" s="13">
         <v>392</v>
       </c>
-      <c r="AK11" s="106"/>
+      <c r="AK11" s="105"/>
       <c r="AL11" s="13">
         <v>393</v>
       </c>
@@ -5762,22 +5716,22 @@
       <c r="AN11" s="13">
         <v>394</v>
       </c>
-      <c r="AO11" s="106"/>
-      <c r="AP11" s="106"/>
-      <c r="AQ11" s="106"/>
-      <c r="AR11" s="106"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="106"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="105"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="105"/>
+      <c r="AS11" s="105"/>
+      <c r="AT11" s="105"/>
       <c r="AU11" s="3">
         <v>499</v>
       </c>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="106"/>
-      <c r="AY11" s="106"/>
-      <c r="AZ11" s="106"/>
-      <c r="BA11" s="106"/>
-      <c r="BB11" s="106"/>
+      <c r="AV11" s="105"/>
+      <c r="AW11" s="105"/>
+      <c r="AX11" s="105"/>
+      <c r="AY11" s="105"/>
+      <c r="AZ11" s="105"/>
+      <c r="BA11" s="105"/>
+      <c r="BB11" s="105"/>
     </row>
     <row r="12" spans="1:55" ht="30" customHeight="1">
       <c r="A12" s="3">
@@ -5789,12 +5743,12 @@
       <c r="D12" s="3">
         <v>450</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="101"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="100"/>
       <c r="K12" s="13">
         <v>257</v>
       </c>
@@ -5885,22 +5839,22 @@
       <c r="AN12" s="13">
         <v>293</v>
       </c>
-      <c r="AO12" s="106"/>
-      <c r="AP12" s="106"/>
-      <c r="AQ12" s="106"/>
-      <c r="AR12" s="106"/>
-      <c r="AS12" s="106"/>
-      <c r="AT12" s="106"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="105"/>
+      <c r="AQ12" s="105"/>
+      <c r="AR12" s="105"/>
+      <c r="AS12" s="105"/>
+      <c r="AT12" s="105"/>
       <c r="AU12" s="3">
         <v>500</v>
       </c>
-      <c r="AV12" s="106"/>
-      <c r="AW12" s="106"/>
-      <c r="AX12" s="106"/>
-      <c r="AY12" s="106"/>
-      <c r="AZ12" s="106"/>
-      <c r="BA12" s="106"/>
-      <c r="BB12" s="106"/>
+      <c r="AV12" s="105"/>
+      <c r="AW12" s="105"/>
+      <c r="AX12" s="105"/>
+      <c r="AY12" s="105"/>
+      <c r="AZ12" s="105"/>
+      <c r="BA12" s="105"/>
+      <c r="BB12" s="105"/>
     </row>
     <row r="13" spans="1:55" ht="30" customHeight="1">
       <c r="A13" s="75">
@@ -5912,107 +5866,107 @@
       <c r="C13" s="3">
         <v>661</v>
       </c>
-      <c r="D13" s="131">
+      <c r="D13" s="130">
         <v>449</v>
       </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="96" t="s">
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="97">
+      <c r="I13" s="96">
         <v>136</v>
       </c>
-      <c r="J13" s="98">
+      <c r="J13" s="97">
         <v>346</v>
       </c>
       <c r="K13" s="13">
         <v>256</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
       <c r="R13" s="82">
         <v>363</v>
       </c>
-      <c r="S13" s="106"/>
+      <c r="S13" s="105"/>
       <c r="T13" s="13">
         <v>364</v>
       </c>
-      <c r="U13" s="106"/>
+      <c r="U13" s="105"/>
       <c r="V13" s="13">
         <v>365</v>
       </c>
-      <c r="W13" s="106"/>
+      <c r="W13" s="105"/>
       <c r="X13" s="13">
         <v>366</v>
       </c>
-      <c r="Y13" s="106"/>
+      <c r="Y13" s="105"/>
       <c r="Z13" s="13">
         <v>367</v>
       </c>
-      <c r="AA13" s="106"/>
+      <c r="AA13" s="105"/>
       <c r="AB13" s="13">
         <v>368</v>
       </c>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="106"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="105"/>
+      <c r="AE13" s="105"/>
       <c r="AF13" s="13">
         <v>370</v>
       </c>
-      <c r="AG13" s="106"/>
+      <c r="AG13" s="105"/>
       <c r="AH13" s="13">
         <v>371</v>
       </c>
-      <c r="AI13" s="106"/>
+      <c r="AI13" s="105"/>
       <c r="AJ13" s="13">
         <v>372</v>
       </c>
-      <c r="AK13" s="106"/>
+      <c r="AK13" s="105"/>
       <c r="AL13" s="13">
         <v>373</v>
       </c>
-      <c r="AM13" s="106"/>
+      <c r="AM13" s="105"/>
       <c r="AN13" s="13">
         <v>374</v>
       </c>
-      <c r="AO13" s="106"/>
-      <c r="AP13" s="106"/>
-      <c r="AQ13" s="106"/>
-      <c r="AR13" s="106"/>
-      <c r="AS13" s="106"/>
+      <c r="AO13" s="105"/>
+      <c r="AP13" s="105"/>
+      <c r="AQ13" s="105"/>
+      <c r="AR13" s="105"/>
+      <c r="AS13" s="105"/>
       <c r="AU13" s="3">
         <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:55" ht="30" customHeight="1">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="56" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="3">
         <v>448</v>
       </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="99"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="98"/>
       <c r="K14" s="13">
         <v>255</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="79">
         <v>141</v>
@@ -6038,7 +5992,7 @@
         <v>146</v>
       </c>
       <c r="AC14" s="21"/>
-      <c r="AD14" s="106"/>
+      <c r="AD14" s="105"/>
       <c r="AE14" s="21"/>
       <c r="AF14" s="17">
         <v>148</v>
@@ -6059,43 +6013,43 @@
       <c r="AN14" s="17">
         <v>152</v>
       </c>
-      <c r="AO14" s="106"/>
-      <c r="AP14" s="106"/>
-      <c r="AQ14" s="106"/>
-      <c r="AR14" s="106"/>
-      <c r="AS14" s="106"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="105"/>
+      <c r="AQ14" s="105"/>
+      <c r="AR14" s="105"/>
+      <c r="AS14" s="105"/>
       <c r="AU14" s="3">
         <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:55" ht="30" customHeight="1">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="3">
         <v>447</v>
       </c>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="96" t="s">
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="97">
+      <c r="I15" s="96">
         <v>135</v>
       </c>
-      <c r="J15" s="98">
+      <c r="J15" s="97">
         <v>345</v>
       </c>
       <c r="K15" s="13">
         <v>254</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
       <c r="R15" s="81" t="s">
         <v>40</v>
       </c>
@@ -6103,125 +6057,125 @@
       <c r="T15" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106" t="s">
+      <c r="U15" s="105"/>
+      <c r="V15" s="105" t="s">
         <v>136</v>
       </c>
       <c r="W15" s="6"/>
       <c r="X15" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106" t="s">
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105" t="s">
         <v>138</v>
       </c>
       <c r="AA15" s="6"/>
       <c r="AB15" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="AC15" s="106"/>
-      <c r="AD15" s="107"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="106"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="AG15" s="106"/>
-      <c r="AH15" s="107" t="s">
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="106" t="s">
         <v>141</v>
       </c>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="AK15" s="106"/>
-      <c r="AL15" s="106" t="s">
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="105" t="s">
         <v>143</v>
       </c>
       <c r="AM15" s="6"/>
       <c r="AN15" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="AO15" s="106"/>
-      <c r="AP15" s="106"/>
-      <c r="AQ15" s="106"/>
-      <c r="AR15" s="106"/>
-      <c r="AS15" s="106"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="105"/>
+      <c r="AQ15" s="105"/>
+      <c r="AR15" s="105"/>
+      <c r="AS15" s="105"/>
       <c r="AU15" s="3">
         <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:55" ht="30" customHeight="1">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="56" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="3">
         <v>446</v>
       </c>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="101"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="100"/>
       <c r="K16" s="13">
         <v>253</v>
       </c>
       <c r="N16" s="52"/>
       <c r="O16" s="65"/>
       <c r="P16" s="65"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="106"/>
-      <c r="AC16" s="106"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="106"/>
-      <c r="AK16" s="106"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="105"/>
+      <c r="AA16" s="105"/>
+      <c r="AB16" s="105"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="106"/>
+      <c r="AE16" s="105"/>
+      <c r="AK16" s="105"/>
       <c r="AL16" s="17">
         <v>116</v>
       </c>
-      <c r="AM16" s="106"/>
-      <c r="AN16" s="106"/>
-      <c r="AO16" s="106"/>
-      <c r="AP16" s="106"/>
-      <c r="AQ16" s="106"/>
-      <c r="AR16" s="106"/>
-      <c r="AS16" s="106"/>
+      <c r="AM16" s="105"/>
+      <c r="AN16" s="105"/>
+      <c r="AO16" s="105"/>
+      <c r="AP16" s="105"/>
+      <c r="AQ16" s="105"/>
+      <c r="AR16" s="105"/>
+      <c r="AS16" s="105"/>
       <c r="AU16" s="3">
         <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:61" ht="30" customHeight="1">
-      <c r="A17" s="106"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="75">
         <v>642</v>
       </c>
       <c r="C17" s="3">
         <v>641</v>
       </c>
-      <c r="D17" s="131">
+      <c r="D17" s="130">
         <v>445</v>
       </c>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="96" t="s">
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="97">
+      <c r="I17" s="96">
         <v>134</v>
       </c>
-      <c r="J17" s="98">
+      <c r="J17" s="97">
         <v>344</v>
       </c>
       <c r="K17" s="13">
@@ -6233,10 +6187,10 @@
       <c r="M17" s="18">
         <v>263</v>
       </c>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
       <c r="R17" s="81" t="s">
         <v>145</v>
       </c>
@@ -6244,7 +6198,7 @@
       <c r="T17" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="U17" s="106"/>
+      <c r="U17" s="105"/>
       <c r="V17" s="16" t="s">
         <v>147</v>
       </c>
@@ -6252,7 +6206,7 @@
       <c r="X17" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="Y17" s="106"/>
+      <c r="Y17" s="105"/>
       <c r="Z17" s="16" t="s">
         <v>149</v>
       </c>
@@ -6260,8 +6214,8 @@
       <c r="AB17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="106"/>
+      <c r="AC17" s="105"/>
+      <c r="AD17" s="105"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="12">
         <v>178</v>
@@ -6278,18 +6232,18 @@
       <c r="AL17" s="28">
         <v>332</v>
       </c>
-      <c r="AM17" s="106"/>
-      <c r="AN17" s="106"/>
-      <c r="AO17" s="106"/>
-      <c r="AQ17" s="106"/>
-      <c r="AR17" s="106"/>
-      <c r="AS17" s="106"/>
+      <c r="AM17" s="105"/>
+      <c r="AN17" s="105"/>
+      <c r="AO17" s="105"/>
+      <c r="AQ17" s="105"/>
+      <c r="AR17" s="105"/>
+      <c r="AS17" s="105"/>
       <c r="AU17" s="3">
         <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:61" ht="30" customHeight="1">
-      <c r="A18" s="106"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="3">
         <v>643</v>
       </c>
@@ -6299,23 +6253,23 @@
       <c r="D18" s="3">
         <v>444</v>
       </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="99"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="98"/>
       <c r="K18" s="13">
         <v>251</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
       <c r="R18" s="79">
         <v>172</v>
       </c>
@@ -6323,7 +6277,7 @@
       <c r="T18" s="17">
         <v>173</v>
       </c>
-      <c r="U18" s="106"/>
+      <c r="U18" s="105"/>
       <c r="V18" s="17">
         <v>174</v>
       </c>
@@ -6331,7 +6285,7 @@
       <c r="X18" s="17">
         <v>175</v>
       </c>
-      <c r="Y18" s="106"/>
+      <c r="Y18" s="105"/>
       <c r="Z18" s="17">
         <v>176</v>
       </c>
@@ -6339,7 +6293,7 @@
       <c r="AB18" s="25">
         <v>177</v>
       </c>
-      <c r="AD18" s="106"/>
+      <c r="AD18" s="105"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="28">
         <v>329</v>
@@ -6356,7 +6310,7 @@
       <c r="AL18" s="31">
         <v>327</v>
       </c>
-      <c r="AM18" s="104">
+      <c r="AM18" s="103">
         <v>207</v>
       </c>
       <c r="AN18" s="35">
@@ -6370,74 +6324,74 @@
       </c>
     </row>
     <row r="19" spans="1:61" ht="30" customHeight="1">
-      <c r="A19" s="106"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="3">
         <v>644</v>
       </c>
-      <c r="C19" s="106"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="3">
         <v>443</v>
       </c>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="96" t="s">
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="97">
+      <c r="I19" s="96">
         <v>133</v>
       </c>
-      <c r="J19" s="98">
+      <c r="J19" s="97">
         <v>343</v>
       </c>
       <c r="K19" s="13">
         <v>250</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
       <c r="R19" s="82">
         <v>317</v>
       </c>
-      <c r="S19" s="106"/>
+      <c r="S19" s="105"/>
       <c r="T19" s="13">
         <v>318</v>
       </c>
-      <c r="U19" s="106"/>
+      <c r="U19" s="105"/>
       <c r="V19" s="18">
         <v>319</v>
       </c>
-      <c r="W19" s="106"/>
+      <c r="W19" s="105"/>
       <c r="X19" s="13">
         <v>320</v>
       </c>
-      <c r="Y19" s="106"/>
+      <c r="Y19" s="105"/>
       <c r="Z19" s="18">
         <v>321</v>
       </c>
-      <c r="AA19" s="106"/>
+      <c r="AA19" s="105"/>
       <c r="AB19" s="13">
         <v>322</v>
       </c>
-      <c r="AD19" s="106"/>
-      <c r="AE19" s="106"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
       <c r="AF19" s="13">
         <v>324</v>
       </c>
       <c r="AH19" s="18">
         <v>325</v>
       </c>
-      <c r="AI19" s="106"/>
+      <c r="AI19" s="105"/>
       <c r="AJ19" s="13">
         <v>326</v>
       </c>
       <c r="AL19" s="32">
         <v>203</v>
       </c>
-      <c r="AM19" s="104">
+      <c r="AM19" s="103">
         <v>209</v>
       </c>
       <c r="AN19" s="35">
@@ -6451,20 +6405,20 @@
       </c>
     </row>
     <row r="20" spans="1:61" ht="30" customHeight="1">
-      <c r="A20" s="106"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="3">
         <v>645</v>
       </c>
-      <c r="C20" s="106"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="3">
         <v>442</v>
       </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="101"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="100"/>
       <c r="K20" s="13">
         <v>249</v>
       </c>
@@ -6549,7 +6503,7 @@
       <c r="AL20" s="32">
         <v>210</v>
       </c>
-      <c r="AM20" s="104">
+      <c r="AM20" s="103">
         <v>25</v>
       </c>
       <c r="AN20" s="35">
@@ -6567,27 +6521,27 @@
       <c r="B21" s="3">
         <v>646</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="105">
+      <c r="C21" s="105"/>
+      <c r="D21" s="104">
         <v>0</v>
       </c>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="96" t="s">
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="97">
+      <c r="I21" s="96">
         <v>132</v>
       </c>
-      <c r="J21" s="98">
+      <c r="J21" s="97">
         <v>342</v>
       </c>
       <c r="K21" s="13">
         <v>248</v>
       </c>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
       <c r="N21" s="82">
         <v>301</v>
       </c>
@@ -6648,21 +6602,21 @@
       <c r="B22" s="3">
         <v>647</v>
       </c>
-      <c r="C22" s="106"/>
+      <c r="C22" s="105"/>
       <c r="D22" s="7">
         <v>0</v>
       </c>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="99"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="98"/>
       <c r="K22" s="78">
         <v>247</v>
       </c>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
       <c r="N22" s="79">
         <v>101</v>
       </c>
@@ -6721,21 +6675,21 @@
     <row r="23" spans="1:61" ht="30" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="106"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="7">
         <v>0</v>
       </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
       <c r="K23" s="13">
         <v>246</v>
       </c>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
       <c r="N23" s="81" t="s">
         <v>59</v>
       </c>
@@ -6743,7 +6697,7 @@
       <c r="P23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Q23" s="106"/>
+      <c r="Q23" s="105"/>
       <c r="R23" s="16" t="s">
         <v>61</v>
       </c>
@@ -6751,7 +6705,7 @@
       <c r="T23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="U23" s="106"/>
+      <c r="U23" s="105"/>
       <c r="V23" s="16" t="s">
         <v>63</v>
       </c>
@@ -6759,7 +6713,7 @@
       <c r="X23" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Y23" s="106"/>
+      <c r="Y23" s="105"/>
       <c r="Z23" s="16" t="s">
         <v>65</v>
       </c>
@@ -6767,7 +6721,7 @@
       <c r="AB23" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AC23" s="106"/>
+      <c r="AC23" s="105"/>
       <c r="AD23" s="16" t="s">
         <v>67</v>
       </c>
@@ -6775,7 +6729,7 @@
       <c r="AF23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AG23" s="106"/>
+      <c r="AG23" s="105"/>
       <c r="AH23" s="16" t="s">
         <v>3</v>
       </c>
@@ -6783,7 +6737,7 @@
       <c r="AJ23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AK23" s="106"/>
+      <c r="AK23" s="105"/>
       <c r="AL23" s="16" t="s">
         <v>20</v>
       </c>
@@ -6794,13 +6748,13 @@
     <row r="24" spans="1:61" ht="30" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="106"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="7">
         <v>0</v>
       </c>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
       <c r="K24" s="19">
         <v>0</v>
       </c>
@@ -6811,42 +6765,42 @@
     <row r="25" spans="1:61" ht="30" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="106"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="7">
         <v>0</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
       <c r="K25" s="19">
         <v>0</v>
       </c>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="87"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="106"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="105"/>
+      <c r="X25" s="105"/>
+      <c r="Y25" s="105"/>
+      <c r="Z25" s="105"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="86"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="105"/>
       <c r="AH25" s="6"/>
-      <c r="AI25" s="106"/>
-      <c r="AJ25" s="106"/>
-      <c r="AK25" s="106"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="105"/>
+      <c r="AK25" s="105"/>
       <c r="AM25" s="29"/>
       <c r="AU25" s="19">
         <v>0</v>
@@ -6855,36 +6809,36 @@
     <row r="26" spans="1:61" ht="30" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="106"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="7">
         <v>0</v>
       </c>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="106"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="105"/>
       <c r="K26" s="19">
         <v>0</v>
       </c>
-      <c r="M26" s="106"/>
+      <c r="M26" s="105"/>
       <c r="N26" s="6"/>
       <c r="O26" s="16"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="105"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="86"/>
       <c r="AG26" s="3">
         <v>880</v>
       </c>
@@ -6897,7 +6851,7 @@
       <c r="AK26">
         <v>11</v>
       </c>
-      <c r="AL26" s="106"/>
+      <c r="AL26" s="105"/>
       <c r="AU26" s="19">
         <v>0</v>
       </c>
@@ -6905,46 +6859,46 @@
     <row r="27" spans="1:61" ht="30" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="106"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="7">
         <v>0</v>
       </c>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="106"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="105"/>
       <c r="K27" s="19">
         <v>0</v>
       </c>
-      <c r="M27" s="106"/>
+      <c r="M27" s="105"/>
       <c r="N27" s="6"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106">
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105">
         <v>6</v>
       </c>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="105"/>
       <c r="AD27" s="52"/>
       <c r="AE27" s="52"/>
-      <c r="AG27" s="106"/>
-      <c r="AH27" s="106"/>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="105"/>
       <c r="AI27" s="3">
         <v>877</v>
       </c>
-      <c r="AJ27" s="106"/>
-      <c r="AK27" s="106"/>
-      <c r="AL27" s="106"/>
+      <c r="AJ27" s="105"/>
+      <c r="AK27" s="105"/>
+      <c r="AL27" s="105"/>
       <c r="AU27" s="19">
         <v>0</v>
       </c>
@@ -6958,15 +6912,15 @@
     <row r="28" spans="1:61" ht="30" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="106"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="3">
         <v>441</v>
       </c>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
       <c r="J28" s="56" t="s">
         <v>1</v>
       </c>
@@ -6976,22 +6930,22 @@
       <c r="L28" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AG28" s="106"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="105"/>
+      <c r="AG28" s="105"/>
       <c r="AH28" s="56" t="s">
         <v>1</v>
       </c>
@@ -7001,15 +6955,15 @@
       <c r="AJ28" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="AK28" s="106"/>
-      <c r="AL28" s="106"/>
+      <c r="AK28" s="105"/>
+      <c r="AL28" s="105"/>
       <c r="AU28" s="3">
         <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:61" ht="30" customHeight="1">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="5"/>
       <c r="D29" s="3">
         <v>436</v>
@@ -7032,7 +6986,7 @@
       <c r="J29" s="3">
         <v>430</v>
       </c>
-      <c r="K29" s="131">
+      <c r="K29" s="130">
         <v>429</v>
       </c>
       <c r="L29" s="3">
@@ -7050,7 +7004,7 @@
       <c r="P29" s="3">
         <v>424</v>
       </c>
-      <c r="Q29" s="131">
+      <c r="Q29" s="130">
         <v>423</v>
       </c>
       <c r="R29" s="3">
@@ -7098,13 +7052,13 @@
       <c r="AF29" s="3">
         <v>408</v>
       </c>
-      <c r="AG29" s="131">
+      <c r="AG29" s="130">
         <v>407</v>
       </c>
       <c r="AH29" s="3">
         <v>406</v>
       </c>
-      <c r="AI29" s="131">
+      <c r="AI29" s="130">
         <v>405</v>
       </c>
       <c r="AJ29" s="3">
@@ -7149,7 +7103,7 @@
       <c r="AW29" s="3">
         <v>552</v>
       </c>
-      <c r="AX29" s="75">
+      <c r="AX29" s="130">
         <v>553</v>
       </c>
       <c r="AY29" s="3">
@@ -7173,7 +7127,7 @@
       <c r="BE29" s="3">
         <v>560</v>
       </c>
-      <c r="BF29" s="75">
+      <c r="BF29" s="130">
         <v>561</v>
       </c>
     </row>
@@ -7181,16 +7135,16 @@
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="8"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106">
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105">
         <v>2</v>
       </c>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
       <c r="P30" s="56" t="s">
         <v>1</v>
       </c>
@@ -7232,15 +7186,15 @@
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="8"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="106"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
       <c r="Q31" s="75">
         <v>622</v>
       </c>
@@ -7300,7 +7254,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="106"/>
+      <c r="F33" s="105"/>
       <c r="P33" s="56" t="s">
         <v>1</v>
       </c>
@@ -7317,10 +7271,10 @@
         <v>7</v>
       </c>
       <c r="AG33" s="29"/>
-      <c r="AK33" s="87"/>
-      <c r="AL33" s="87"/>
-      <c r="AU33" s="87"/>
-      <c r="AV33" s="87"/>
+      <c r="AK33" s="86"/>
+      <c r="AL33" s="86"/>
+      <c r="AU33" s="86"/>
+      <c r="AV33" s="86"/>
       <c r="AX33" s="1">
         <v>584</v>
       </c>
@@ -7328,38 +7282,38 @@
     <row r="34" spans="1:61" ht="30" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="106"/>
+      <c r="C34" s="105"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="106"/>
-      <c r="P34" s="136">
+      <c r="F34" s="105"/>
+      <c r="P34" s="135">
         <v>626</v>
       </c>
-      <c r="Q34" s="131">
+      <c r="Q34" s="130">
         <v>625</v>
       </c>
-      <c r="AK34" s="87"/>
-      <c r="AL34" s="87"/>
-      <c r="AU34" s="87"/>
-      <c r="AV34" s="87"/>
+      <c r="AK34" s="86"/>
+      <c r="AL34" s="86"/>
+      <c r="AU34" s="86"/>
+      <c r="AV34" s="86"/>
       <c r="AX34" s="1">
         <v>585</v>
       </c>
-      <c r="BH34" s="87"/>
-      <c r="BI34" s="87"/>
+      <c r="BH34" s="86"/>
+      <c r="BI34" s="86"/>
     </row>
     <row r="35" spans="1:61" ht="30" customHeight="1">
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="106"/>
+      <c r="F35" s="105"/>
       <c r="L35" s="20"/>
       <c r="P35" s="23">
         <v>627</v>
       </c>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
-      <c r="V35" s="108"/>
-      <c r="W35" s="108"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="V35" s="107"/>
+      <c r="W35" s="107"/>
       <c r="AH35" s="52"/>
       <c r="AI35" s="65"/>
       <c r="AJ35" s="65"/>
@@ -7369,498 +7323,498 @@
       <c r="AW35" s="1">
         <v>587</v>
       </c>
-      <c r="AX35" s="1">
+      <c r="AX35" s="136">
         <v>586</v>
       </c>
-      <c r="BH35" s="87"/>
-      <c r="BI35" s="87"/>
+      <c r="BH35" s="86"/>
+      <c r="BI35" s="86"/>
     </row>
     <row r="36" spans="1:61" ht="30" customHeight="1">
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="106"/>
+      <c r="F36" s="105"/>
       <c r="P36" s="23">
         <v>628</v>
       </c>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="106"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="105"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="83"/>
+      <c r="V36" s="83"/>
       <c r="W36" s="52"/>
       <c r="BG36" s="52"/>
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
     </row>
     <row r="37" spans="1:61" ht="30" customHeight="1">
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
       <c r="AV37" s="52"/>
       <c r="AW37" s="65"/>
       <c r="AX37" s="65"/>
     </row>
     <row r="38" spans="1:61" ht="30" customHeight="1">
-      <c r="A38" s="90"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="89"/>
     </row>
     <row r="39" spans="1:61" ht="30" customHeight="1">
-      <c r="A39" s="90"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="90"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="90"/>
-      <c r="U39" s="90"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="89"/>
+      <c r="T39" s="89"/>
+      <c r="U39" s="89"/>
     </row>
     <row r="40" spans="1:61" ht="30" customHeight="1">
-      <c r="A40" s="94"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="90"/>
-      <c r="U40" s="90"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="89"/>
     </row>
     <row r="41" spans="1:61" ht="30" customHeight="1">
-      <c r="A41" s="95"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="90"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="89"/>
     </row>
     <row r="42" spans="1:61" ht="30" customHeight="1">
-      <c r="A42" s="94"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="91"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="90"/>
-      <c r="U42" s="90"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="89"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="89"/>
     </row>
     <row r="43" spans="1:61" ht="30" customHeight="1">
-      <c r="A43" s="94"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="91"/>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="90"/>
-      <c r="S43" s="90"/>
-      <c r="T43" s="90"/>
-      <c r="U43" s="90"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="90"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="89"/>
     </row>
     <row r="44" spans="1:61" ht="30" customHeight="1">
-      <c r="A44" s="95"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="91"/>
-      <c r="O44" s="91"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="90"/>
-      <c r="U44" s="90"/>
+      <c r="A44" s="94"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="90"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
     </row>
     <row r="45" spans="1:61" ht="30" customHeight="1">
-      <c r="A45" s="94"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="84"/>
-      <c r="S45" s="84"/>
-      <c r="T45" s="84"/>
-      <c r="U45" s="84"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="83"/>
+      <c r="T45" s="83"/>
+      <c r="U45" s="83"/>
       <c r="V45" s="65"/>
     </row>
     <row r="46" spans="1:61" ht="30" customHeight="1">
-      <c r="A46" s="94"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="84"/>
-      <c r="U46" s="84"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="83"/>
+      <c r="Q46" s="83"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="83"/>
+      <c r="T46" s="83"/>
+      <c r="U46" s="83"/>
     </row>
     <row r="47" spans="1:61" ht="30" customHeight="1">
-      <c r="A47" s="95"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="91"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="90"/>
-      <c r="R47" s="90"/>
-      <c r="S47" s="90"/>
-      <c r="T47" s="90"/>
-      <c r="U47" s="90"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="90"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
     </row>
     <row r="48" spans="1:61" ht="30" customHeight="1">
-      <c r="A48" s="94"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="91"/>
-      <c r="M48" s="91"/>
-      <c r="N48" s="91"/>
-      <c r="O48" s="91"/>
-      <c r="P48" s="91"/>
-      <c r="Q48" s="90"/>
-      <c r="R48" s="90"/>
-      <c r="S48" s="90"/>
-      <c r="T48" s="90"/>
-      <c r="U48" s="90"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="90"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
     </row>
     <row r="49" spans="1:21" ht="30" customHeight="1">
-      <c r="A49" s="94"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="91"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="91"/>
-      <c r="O49" s="91"/>
-      <c r="P49" s="91"/>
-      <c r="Q49" s="90"/>
-      <c r="R49" s="90"/>
-      <c r="S49" s="90"/>
-      <c r="T49" s="90"/>
-      <c r="U49" s="90"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
     </row>
     <row r="50" spans="1:21" ht="30" customHeight="1">
-      <c r="A50" s="95"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="91"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="91"/>
-      <c r="O50" s="91"/>
-      <c r="P50" s="91"/>
-      <c r="Q50" s="90"/>
-      <c r="R50" s="90"/>
-      <c r="S50" s="90"/>
-      <c r="T50" s="90"/>
-      <c r="U50" s="90"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="90"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="90"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
     </row>
     <row r="51" spans="1:21" ht="30" customHeight="1">
-      <c r="A51" s="94"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="84"/>
-      <c r="U51" s="84"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="83"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="83"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="83"/>
     </row>
     <row r="52" spans="1:21" ht="30" customHeight="1">
-      <c r="A52" s="94"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
-      <c r="U52" s="84"/>
+      <c r="A52" s="93"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="83"/>
     </row>
     <row r="53" spans="1:21" ht="30" customHeight="1">
-      <c r="A53" s="95"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="91"/>
-      <c r="L53" s="91"/>
-      <c r="M53" s="91"/>
-      <c r="N53" s="91"/>
-      <c r="O53" s="91"/>
-      <c r="P53" s="91"/>
-      <c r="Q53" s="90"/>
-      <c r="R53" s="90"/>
-      <c r="S53" s="90"/>
-      <c r="T53" s="90"/>
-      <c r="U53" s="90"/>
+      <c r="A53" s="94"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="89"/>
+      <c r="R53" s="89"/>
+      <c r="S53" s="89"/>
+      <c r="T53" s="89"/>
+      <c r="U53" s="89"/>
     </row>
     <row r="54" spans="1:21" ht="30" customHeight="1">
-      <c r="A54" s="94"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="91"/>
-      <c r="M54" s="91"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="91"/>
-      <c r="P54" s="91"/>
-      <c r="Q54" s="90"/>
-      <c r="R54" s="90"/>
-      <c r="S54" s="90"/>
-      <c r="T54" s="90"/>
-      <c r="U54" s="90"/>
+      <c r="A54" s="93"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="90"/>
+      <c r="Q54" s="89"/>
+      <c r="R54" s="89"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
     </row>
     <row r="55" spans="1:21" ht="30" customHeight="1">
-      <c r="A55" s="94"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="91"/>
-      <c r="K55" s="91"/>
-      <c r="L55" s="91"/>
-      <c r="M55" s="91"/>
-      <c r="N55" s="91"/>
-      <c r="O55" s="91"/>
-      <c r="P55" s="91"/>
-      <c r="Q55" s="90"/>
-      <c r="R55" s="90"/>
-      <c r="S55" s="90"/>
-      <c r="T55" s="90"/>
-      <c r="U55" s="90"/>
+      <c r="A55" s="93"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="90"/>
+      <c r="N55" s="90"/>
+      <c r="O55" s="90"/>
+      <c r="P55" s="90"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="89"/>
     </row>
     <row r="56" spans="1:21" ht="30" customHeight="1">
-      <c r="A56" s="95"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="91"/>
-      <c r="K56" s="91"/>
-      <c r="L56" s="91"/>
-      <c r="M56" s="91"/>
-      <c r="N56" s="91"/>
-      <c r="O56" s="91"/>
-      <c r="P56" s="91"/>
-      <c r="Q56" s="90"/>
-      <c r="R56" s="90"/>
-      <c r="S56" s="90"/>
-      <c r="T56" s="90"/>
-      <c r="U56" s="90"/>
+      <c r="A56" s="94"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
+      <c r="K56" s="90"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="90"/>
+      <c r="N56" s="90"/>
+      <c r="O56" s="90"/>
+      <c r="P56" s="90"/>
+      <c r="Q56" s="89"/>
+      <c r="R56" s="89"/>
+      <c r="S56" s="89"/>
+      <c r="T56" s="89"/>
+      <c r="U56" s="89"/>
     </row>
     <row r="57" spans="1:21" ht="30" customHeight="1">
-      <c r="A57" s="94"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="91"/>
-      <c r="M57" s="91"/>
-      <c r="N57" s="91"/>
-      <c r="O57" s="91"/>
-      <c r="P57" s="91"/>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
-      <c r="S57" s="90"/>
-      <c r="T57" s="90"/>
-      <c r="U57" s="90"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="90"/>
+      <c r="Q57" s="89"/>
+      <c r="R57" s="89"/>
+      <c r="S57" s="89"/>
+      <c r="T57" s="89"/>
+      <c r="U57" s="89"/>
     </row>
     <row r="58" spans="1:21" ht="30" customHeight="1"/>
     <row r="59" spans="1:21" ht="30" customHeight="1"/>
@@ -8742,13 +8696,13 @@
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
-      <c r="AW19" s="128" t="s">
+      <c r="AW19" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="AX19" s="128"/>
-      <c r="AY19" s="128"/>
-      <c r="AZ19" s="128"/>
-      <c r="BA19" s="128"/>
+      <c r="AX19" s="127"/>
+      <c r="AY19" s="127"/>
+      <c r="AZ19" s="127"/>
+      <c r="BA19" s="127"/>
       <c r="BB19" s="2"/>
       <c r="BC19" s="2"/>
       <c r="BD19" s="46">
@@ -8829,11 +8783,11 @@
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
-      <c r="AW20" s="128"/>
-      <c r="AX20" s="128"/>
-      <c r="AY20" s="128"/>
-      <c r="AZ20" s="128"/>
-      <c r="BA20" s="128"/>
+      <c r="AW20" s="127"/>
+      <c r="AX20" s="127"/>
+      <c r="AY20" s="127"/>
+      <c r="AZ20" s="127"/>
+      <c r="BA20" s="127"/>
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
       <c r="BD20" s="46">
@@ -8896,11 +8850,11 @@
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
-      <c r="AW21" s="128"/>
-      <c r="AX21" s="128"/>
-      <c r="AY21" s="128"/>
-      <c r="AZ21" s="128"/>
-      <c r="BA21" s="128"/>
+      <c r="AW21" s="127"/>
+      <c r="AX21" s="127"/>
+      <c r="AY21" s="127"/>
+      <c r="AZ21" s="127"/>
+      <c r="BA21" s="127"/>
       <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
       <c r="BD21" s="46">
@@ -10490,18 +10444,18 @@
       </c>
     </row>
     <row r="37" spans="1:67" ht="30" customHeight="1">
-      <c r="A37" s="129" t="s">
+      <c r="A37" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="130"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="130"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
       <c r="K37" s="2"/>
       <c r="L37" s="46">
         <v>445</v>
@@ -10586,16 +10540,16 @@
       <c r="BC37" s="63"/>
     </row>
     <row r="38" spans="1:67" ht="30" customHeight="1">
-      <c r="A38" s="130"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
+      <c r="A38" s="129"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
       <c r="K38" s="2"/>
       <c r="L38" s="46">
         <v>444</v>
@@ -10665,16 +10619,16 @@
       <c r="BC38" s="63"/>
     </row>
     <row r="39" spans="1:67" ht="30" customHeight="1">
-      <c r="A39" s="130"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
       <c r="K39" s="2"/>
       <c r="L39" s="46">
         <v>443</v>
@@ -10750,16 +10704,16 @@
       <c r="BC39" s="63"/>
     </row>
     <row r="40" spans="1:67" ht="30" customHeight="1">
-      <c r="A40" s="130"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
+      <c r="A40" s="129"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
       <c r="K40" s="2"/>
       <c r="L40" s="46">
         <v>442</v>
@@ -10796,16 +10750,16 @@
       <c r="BC40" s="63"/>
     </row>
     <row r="41" spans="1:67" ht="30" customHeight="1">
-      <c r="A41" s="130"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
+      <c r="A41" s="129"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
       <c r="K41" s="2"/>
       <c r="L41" s="46">
         <v>441</v>
@@ -10841,16 +10795,16 @@
       <c r="BC41" s="63"/>
     </row>
     <row r="42" spans="1:67" ht="30" customHeight="1">
-      <c r="A42" s="130"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
+      <c r="A42" s="129"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="129"/>
       <c r="K42" s="2"/>
       <c r="L42" s="7"/>
       <c r="M42" s="2"/>
@@ -10890,16 +10844,16 @@
       <c r="BC42" s="63"/>
     </row>
     <row r="43" spans="1:67" ht="30" customHeight="1">
-      <c r="A43" s="130"/>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="130"/>
+      <c r="A43" s="129"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
       <c r="K43" s="2"/>
       <c r="L43" s="7"/>
       <c r="M43" s="2"/>
@@ -11378,11 +11332,11 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="2"/>
-      <c r="W52" s="109" t="s">
+      <c r="W52" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="X52" s="108"/>
-      <c r="Y52" s="108"/>
+      <c r="X52" s="107"/>
+      <c r="Y52" s="107"/>
       <c r="AM52" s="30">
         <v>608</v>
       </c>
@@ -11397,10 +11351,10 @@
         <v>51</v>
       </c>
       <c r="F54" s="52"/>
-      <c r="G54" s="109" t="s">
+      <c r="G54" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="109"/>
+      <c r="H54" s="108"/>
       <c r="J54" s="52" t="s">
         <v>75</v>
       </c>
@@ -11425,488 +11379,488 @@
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
       <c r="I55" s="57"/>
-      <c r="J55" s="110" t="s">
+      <c r="J55" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="K55" s="111"/>
-      <c r="L55" s="112" t="s">
+      <c r="K55" s="110"/>
+      <c r="L55" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="M55" s="113"/>
-      <c r="N55" s="113"/>
-      <c r="O55" s="113"/>
-      <c r="P55" s="113"/>
-      <c r="Q55" s="113"/>
-      <c r="R55" s="113"/>
-      <c r="S55" s="113"/>
-      <c r="T55" s="113"/>
-      <c r="U55" s="113"/>
-      <c r="V55" s="113"/>
-      <c r="W55" s="113"/>
-      <c r="X55" s="114"/>
+      <c r="M55" s="112"/>
+      <c r="N55" s="112"/>
+      <c r="O55" s="112"/>
+      <c r="P55" s="112"/>
+      <c r="Q55" s="112"/>
+      <c r="R55" s="112"/>
+      <c r="S55" s="112"/>
+      <c r="T55" s="112"/>
+      <c r="U55" s="112"/>
+      <c r="V55" s="112"/>
+      <c r="W55" s="112"/>
+      <c r="X55" s="113"/>
     </row>
     <row r="56" spans="1:70" ht="30" customHeight="1">
-      <c r="F56" s="115" t="s">
+      <c r="F56" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
       <c r="I56" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="J56" s="116" t="s">
+      <c r="J56" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="K56" s="117"/>
-      <c r="L56" s="116" t="s">
+      <c r="K56" s="116"/>
+      <c r="L56" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="M56" s="118"/>
-      <c r="N56" s="118"/>
-      <c r="O56" s="118"/>
-      <c r="P56" s="118"/>
-      <c r="Q56" s="118"/>
-      <c r="R56" s="118"/>
-      <c r="S56" s="118"/>
-      <c r="T56" s="118"/>
-      <c r="U56" s="118"/>
-      <c r="V56" s="118"/>
-      <c r="W56" s="118"/>
-      <c r="X56" s="117"/>
+      <c r="M56" s="117"/>
+      <c r="N56" s="117"/>
+      <c r="O56" s="117"/>
+      <c r="P56" s="117"/>
+      <c r="Q56" s="117"/>
+      <c r="R56" s="117"/>
+      <c r="S56" s="117"/>
+      <c r="T56" s="117"/>
+      <c r="U56" s="117"/>
+      <c r="V56" s="117"/>
+      <c r="W56" s="117"/>
+      <c r="X56" s="116"/>
     </row>
     <row r="57" spans="1:70" ht="30" customHeight="1">
-      <c r="F57" s="119" t="s">
+      <c r="F57" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="119"/>
       <c r="I57" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="J57" s="116" t="s">
+      <c r="J57" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="K57" s="117"/>
-      <c r="L57" s="116" t="s">
+      <c r="K57" s="116"/>
+      <c r="L57" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="M57" s="118"/>
-      <c r="N57" s="118"/>
-      <c r="O57" s="118"/>
-      <c r="P57" s="118"/>
-      <c r="Q57" s="118"/>
-      <c r="R57" s="118"/>
-      <c r="S57" s="118"/>
-      <c r="T57" s="118"/>
-      <c r="U57" s="118"/>
-      <c r="V57" s="118"/>
-      <c r="W57" s="118"/>
-      <c r="X57" s="117"/>
+      <c r="M57" s="117"/>
+      <c r="N57" s="117"/>
+      <c r="O57" s="117"/>
+      <c r="P57" s="117"/>
+      <c r="Q57" s="117"/>
+      <c r="R57" s="117"/>
+      <c r="S57" s="117"/>
+      <c r="T57" s="117"/>
+      <c r="U57" s="117"/>
+      <c r="V57" s="117"/>
+      <c r="W57" s="117"/>
+      <c r="X57" s="116"/>
     </row>
     <row r="58" spans="1:70" ht="30" customHeight="1">
       <c r="I58" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="J58" s="116" t="s">
+      <c r="J58" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="K58" s="117"/>
-      <c r="L58" s="116" t="s">
+      <c r="K58" s="116"/>
+      <c r="L58" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="M58" s="118"/>
-      <c r="N58" s="118"/>
-      <c r="O58" s="118"/>
-      <c r="P58" s="118"/>
-      <c r="Q58" s="118"/>
-      <c r="R58" s="118"/>
-      <c r="S58" s="118"/>
-      <c r="T58" s="118"/>
-      <c r="U58" s="118"/>
-      <c r="V58" s="118"/>
-      <c r="W58" s="118"/>
-      <c r="X58" s="117"/>
+      <c r="M58" s="117"/>
+      <c r="N58" s="117"/>
+      <c r="O58" s="117"/>
+      <c r="P58" s="117"/>
+      <c r="Q58" s="117"/>
+      <c r="R58" s="117"/>
+      <c r="S58" s="117"/>
+      <c r="T58" s="117"/>
+      <c r="U58" s="117"/>
+      <c r="V58" s="117"/>
+      <c r="W58" s="117"/>
+      <c r="X58" s="116"/>
     </row>
     <row r="59" spans="1:70" ht="30" customHeight="1">
       <c r="I59" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="J59" s="116" t="s">
+      <c r="J59" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="K59" s="117"/>
-      <c r="L59" s="116" t="s">
+      <c r="K59" s="116"/>
+      <c r="L59" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="118"/>
-      <c r="N59" s="118"/>
-      <c r="O59" s="118"/>
-      <c r="P59" s="118"/>
-      <c r="Q59" s="118"/>
-      <c r="R59" s="118"/>
-      <c r="S59" s="118"/>
-      <c r="T59" s="118"/>
-      <c r="U59" s="118"/>
-      <c r="V59" s="118"/>
-      <c r="W59" s="118"/>
-      <c r="X59" s="117"/>
+      <c r="M59" s="117"/>
+      <c r="N59" s="117"/>
+      <c r="O59" s="117"/>
+      <c r="P59" s="117"/>
+      <c r="Q59" s="117"/>
+      <c r="R59" s="117"/>
+      <c r="S59" s="117"/>
+      <c r="T59" s="117"/>
+      <c r="U59" s="117"/>
+      <c r="V59" s="117"/>
+      <c r="W59" s="117"/>
+      <c r="X59" s="116"/>
     </row>
     <row r="60" spans="1:70" ht="30" customHeight="1">
       <c r="I60" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="J60" s="116" t="s">
+      <c r="J60" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="K60" s="117"/>
-      <c r="L60" s="116" t="s">
+      <c r="K60" s="116"/>
+      <c r="L60" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="121"/>
-      <c r="N60" s="121"/>
-      <c r="O60" s="121"/>
-      <c r="P60" s="121"/>
-      <c r="Q60" s="121"/>
-      <c r="R60" s="121"/>
-      <c r="S60" s="121"/>
-      <c r="T60" s="121"/>
-      <c r="U60" s="121"/>
-      <c r="V60" s="121"/>
-      <c r="W60" s="121"/>
-      <c r="X60" s="122"/>
+      <c r="M60" s="120"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="120"/>
+      <c r="P60" s="120"/>
+      <c r="Q60" s="120"/>
+      <c r="R60" s="120"/>
+      <c r="S60" s="120"/>
+      <c r="T60" s="120"/>
+      <c r="U60" s="120"/>
+      <c r="V60" s="120"/>
+      <c r="W60" s="120"/>
+      <c r="X60" s="121"/>
     </row>
     <row r="61" spans="1:70" ht="30" customHeight="1">
       <c r="I61" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="J61" s="116" t="s">
+      <c r="J61" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="K61" s="117"/>
-      <c r="L61" s="116" t="s">
+      <c r="K61" s="116"/>
+      <c r="L61" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="M61" s="123"/>
-      <c r="N61" s="123"/>
-      <c r="O61" s="123"/>
-      <c r="P61" s="123"/>
-      <c r="Q61" s="123"/>
-      <c r="R61" s="123"/>
-      <c r="S61" s="123"/>
-      <c r="T61" s="123"/>
-      <c r="U61" s="123"/>
-      <c r="V61" s="123"/>
-      <c r="W61" s="123"/>
-      <c r="X61" s="123"/>
-      <c r="Y61" s="123"/>
-      <c r="Z61" s="123"/>
-      <c r="AA61" s="123"/>
-      <c r="AB61" s="123"/>
-      <c r="AC61" s="124"/>
+      <c r="M61" s="122"/>
+      <c r="N61" s="122"/>
+      <c r="O61" s="122"/>
+      <c r="P61" s="122"/>
+      <c r="Q61" s="122"/>
+      <c r="R61" s="122"/>
+      <c r="S61" s="122"/>
+      <c r="T61" s="122"/>
+      <c r="U61" s="122"/>
+      <c r="V61" s="122"/>
+      <c r="W61" s="122"/>
+      <c r="X61" s="122"/>
+      <c r="Y61" s="122"/>
+      <c r="Z61" s="122"/>
+      <c r="AA61" s="122"/>
+      <c r="AB61" s="122"/>
+      <c r="AC61" s="123"/>
       <c r="AD61" s="65"/>
     </row>
     <row r="62" spans="1:70" ht="30" customHeight="1">
       <c r="I62" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="J62" s="116" t="s">
+      <c r="J62" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="K62" s="117"/>
-      <c r="L62" s="116" t="s">
+      <c r="K62" s="116"/>
+      <c r="L62" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="M62" s="123"/>
-      <c r="N62" s="123"/>
-      <c r="O62" s="123"/>
-      <c r="P62" s="123"/>
-      <c r="Q62" s="123"/>
-      <c r="R62" s="123"/>
-      <c r="S62" s="123"/>
-      <c r="T62" s="123"/>
-      <c r="U62" s="123"/>
-      <c r="V62" s="123"/>
-      <c r="W62" s="123"/>
-      <c r="X62" s="123"/>
-      <c r="Y62" s="123"/>
-      <c r="Z62" s="123"/>
-      <c r="AA62" s="123"/>
-      <c r="AB62" s="123"/>
-      <c r="AC62" s="124"/>
+      <c r="M62" s="122"/>
+      <c r="N62" s="122"/>
+      <c r="O62" s="122"/>
+      <c r="P62" s="122"/>
+      <c r="Q62" s="122"/>
+      <c r="R62" s="122"/>
+      <c r="S62" s="122"/>
+      <c r="T62" s="122"/>
+      <c r="U62" s="122"/>
+      <c r="V62" s="122"/>
+      <c r="W62" s="122"/>
+      <c r="X62" s="122"/>
+      <c r="Y62" s="122"/>
+      <c r="Z62" s="122"/>
+      <c r="AA62" s="122"/>
+      <c r="AB62" s="122"/>
+      <c r="AC62" s="123"/>
     </row>
     <row r="63" spans="1:70" ht="30" customHeight="1">
       <c r="I63" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="J63" s="116" t="s">
+      <c r="J63" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="K63" s="117"/>
-      <c r="L63" s="125" t="s">
+      <c r="K63" s="116"/>
+      <c r="L63" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="M63" s="126"/>
-      <c r="N63" s="126"/>
-      <c r="O63" s="126"/>
-      <c r="P63" s="126"/>
-      <c r="Q63" s="126"/>
-      <c r="R63" s="126"/>
-      <c r="S63" s="126"/>
-      <c r="T63" s="126"/>
-      <c r="U63" s="126"/>
-      <c r="V63" s="126"/>
-      <c r="W63" s="126"/>
-      <c r="X63" s="127"/>
+      <c r="M63" s="125"/>
+      <c r="N63" s="125"/>
+      <c r="O63" s="125"/>
+      <c r="P63" s="125"/>
+      <c r="Q63" s="125"/>
+      <c r="R63" s="125"/>
+      <c r="S63" s="125"/>
+      <c r="T63" s="125"/>
+      <c r="U63" s="125"/>
+      <c r="V63" s="125"/>
+      <c r="W63" s="125"/>
+      <c r="X63" s="126"/>
     </row>
     <row r="64" spans="1:70" ht="30" customHeight="1">
       <c r="I64" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="J64" s="116" t="s">
+      <c r="J64" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="K64" s="117"/>
-      <c r="L64" s="116" t="s">
+      <c r="K64" s="116"/>
+      <c r="L64" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="M64" s="118"/>
-      <c r="N64" s="118"/>
-      <c r="O64" s="118"/>
-      <c r="P64" s="118"/>
-      <c r="Q64" s="118"/>
-      <c r="R64" s="118"/>
-      <c r="S64" s="118"/>
-      <c r="T64" s="118"/>
-      <c r="U64" s="118"/>
-      <c r="V64" s="118"/>
-      <c r="W64" s="118"/>
-      <c r="X64" s="117"/>
+      <c r="M64" s="117"/>
+      <c r="N64" s="117"/>
+      <c r="O64" s="117"/>
+      <c r="P64" s="117"/>
+      <c r="Q64" s="117"/>
+      <c r="R64" s="117"/>
+      <c r="S64" s="117"/>
+      <c r="T64" s="117"/>
+      <c r="U64" s="117"/>
+      <c r="V64" s="117"/>
+      <c r="W64" s="117"/>
+      <c r="X64" s="116"/>
     </row>
     <row r="65" spans="9:29" ht="30" customHeight="1">
       <c r="I65" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J65" s="116" t="s">
+      <c r="J65" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="117"/>
-      <c r="L65" s="116" t="s">
+      <c r="K65" s="116"/>
+      <c r="L65" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="M65" s="118"/>
-      <c r="N65" s="118"/>
-      <c r="O65" s="118"/>
-      <c r="P65" s="118"/>
-      <c r="Q65" s="118"/>
-      <c r="R65" s="118"/>
-      <c r="S65" s="118"/>
-      <c r="T65" s="118"/>
-      <c r="U65" s="118"/>
-      <c r="V65" s="118"/>
-      <c r="W65" s="118"/>
-      <c r="X65" s="117"/>
+      <c r="M65" s="117"/>
+      <c r="N65" s="117"/>
+      <c r="O65" s="117"/>
+      <c r="P65" s="117"/>
+      <c r="Q65" s="117"/>
+      <c r="R65" s="117"/>
+      <c r="S65" s="117"/>
+      <c r="T65" s="117"/>
+      <c r="U65" s="117"/>
+      <c r="V65" s="117"/>
+      <c r="W65" s="117"/>
+      <c r="X65" s="116"/>
     </row>
     <row r="66" spans="9:29" ht="30" customHeight="1">
       <c r="I66" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J66" s="116" t="s">
+      <c r="J66" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="K66" s="117"/>
-      <c r="L66" s="116" t="s">
+      <c r="K66" s="116"/>
+      <c r="L66" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="M66" s="118"/>
-      <c r="N66" s="118"/>
-      <c r="O66" s="118"/>
-      <c r="P66" s="118"/>
-      <c r="Q66" s="118"/>
-      <c r="R66" s="118"/>
-      <c r="S66" s="118"/>
-      <c r="T66" s="118"/>
-      <c r="U66" s="118"/>
-      <c r="V66" s="118"/>
-      <c r="W66" s="118"/>
-      <c r="X66" s="117"/>
+      <c r="M66" s="117"/>
+      <c r="N66" s="117"/>
+      <c r="O66" s="117"/>
+      <c r="P66" s="117"/>
+      <c r="Q66" s="117"/>
+      <c r="R66" s="117"/>
+      <c r="S66" s="117"/>
+      <c r="T66" s="117"/>
+      <c r="U66" s="117"/>
+      <c r="V66" s="117"/>
+      <c r="W66" s="117"/>
+      <c r="X66" s="116"/>
     </row>
     <row r="67" spans="9:29" ht="30" customHeight="1">
       <c r="I67" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="J67" s="116" t="s">
+      <c r="J67" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="K67" s="117"/>
-      <c r="L67" s="116" t="s">
+      <c r="K67" s="116"/>
+      <c r="L67" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="M67" s="123"/>
-      <c r="N67" s="123"/>
-      <c r="O67" s="123"/>
-      <c r="P67" s="123"/>
-      <c r="Q67" s="123"/>
-      <c r="R67" s="123"/>
-      <c r="S67" s="123"/>
-      <c r="T67" s="123"/>
-      <c r="U67" s="123"/>
-      <c r="V67" s="123"/>
-      <c r="W67" s="123"/>
-      <c r="X67" s="123"/>
-      <c r="Y67" s="123"/>
-      <c r="Z67" s="123"/>
-      <c r="AA67" s="123"/>
-      <c r="AB67" s="123"/>
-      <c r="AC67" s="124"/>
+      <c r="M67" s="122"/>
+      <c r="N67" s="122"/>
+      <c r="O67" s="122"/>
+      <c r="P67" s="122"/>
+      <c r="Q67" s="122"/>
+      <c r="R67" s="122"/>
+      <c r="S67" s="122"/>
+      <c r="T67" s="122"/>
+      <c r="U67" s="122"/>
+      <c r="V67" s="122"/>
+      <c r="W67" s="122"/>
+      <c r="X67" s="122"/>
+      <c r="Y67" s="122"/>
+      <c r="Z67" s="122"/>
+      <c r="AA67" s="122"/>
+      <c r="AB67" s="122"/>
+      <c r="AC67" s="123"/>
     </row>
     <row r="68" spans="9:29" ht="30" customHeight="1">
       <c r="I68" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="J68" s="116" t="s">
+      <c r="J68" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="K68" s="117"/>
-      <c r="L68" s="116" t="s">
+      <c r="K68" s="116"/>
+      <c r="L68" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="M68" s="123"/>
-      <c r="N68" s="123"/>
-      <c r="O68" s="123"/>
-      <c r="P68" s="123"/>
-      <c r="Q68" s="123"/>
-      <c r="R68" s="123"/>
-      <c r="S68" s="123"/>
-      <c r="T68" s="123"/>
-      <c r="U68" s="123"/>
-      <c r="V68" s="123"/>
-      <c r="W68" s="123"/>
-      <c r="X68" s="123"/>
-      <c r="Y68" s="123"/>
-      <c r="Z68" s="123"/>
-      <c r="AA68" s="123"/>
-      <c r="AB68" s="123"/>
-      <c r="AC68" s="124"/>
+      <c r="M68" s="122"/>
+      <c r="N68" s="122"/>
+      <c r="O68" s="122"/>
+      <c r="P68" s="122"/>
+      <c r="Q68" s="122"/>
+      <c r="R68" s="122"/>
+      <c r="S68" s="122"/>
+      <c r="T68" s="122"/>
+      <c r="U68" s="122"/>
+      <c r="V68" s="122"/>
+      <c r="W68" s="122"/>
+      <c r="X68" s="122"/>
+      <c r="Y68" s="122"/>
+      <c r="Z68" s="122"/>
+      <c r="AA68" s="122"/>
+      <c r="AB68" s="122"/>
+      <c r="AC68" s="123"/>
     </row>
     <row r="69" spans="9:29" ht="30" customHeight="1">
       <c r="I69" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="J69" s="116" t="s">
+      <c r="J69" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="K69" s="117"/>
-      <c r="L69" s="125" t="s">
+      <c r="K69" s="116"/>
+      <c r="L69" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="M69" s="126"/>
-      <c r="N69" s="126"/>
-      <c r="O69" s="126"/>
-      <c r="P69" s="126"/>
-      <c r="Q69" s="126"/>
-      <c r="R69" s="126"/>
-      <c r="S69" s="126"/>
-      <c r="T69" s="126"/>
-      <c r="U69" s="126"/>
-      <c r="V69" s="126"/>
-      <c r="W69" s="126"/>
-      <c r="X69" s="127"/>
+      <c r="M69" s="125"/>
+      <c r="N69" s="125"/>
+      <c r="O69" s="125"/>
+      <c r="P69" s="125"/>
+      <c r="Q69" s="125"/>
+      <c r="R69" s="125"/>
+      <c r="S69" s="125"/>
+      <c r="T69" s="125"/>
+      <c r="U69" s="125"/>
+      <c r="V69" s="125"/>
+      <c r="W69" s="125"/>
+      <c r="X69" s="126"/>
     </row>
     <row r="70" spans="9:29" ht="30" customHeight="1">
       <c r="I70" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="J70" s="116" t="s">
+      <c r="J70" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="K70" s="117"/>
-      <c r="L70" s="116" t="s">
+      <c r="K70" s="116"/>
+      <c r="L70" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="M70" s="118"/>
-      <c r="N70" s="118"/>
-      <c r="O70" s="118"/>
-      <c r="P70" s="118"/>
-      <c r="Q70" s="118"/>
-      <c r="R70" s="118"/>
-      <c r="S70" s="118"/>
-      <c r="T70" s="118"/>
-      <c r="U70" s="118"/>
-      <c r="V70" s="118"/>
-      <c r="W70" s="118"/>
-      <c r="X70" s="117"/>
+      <c r="M70" s="117"/>
+      <c r="N70" s="117"/>
+      <c r="O70" s="117"/>
+      <c r="P70" s="117"/>
+      <c r="Q70" s="117"/>
+      <c r="R70" s="117"/>
+      <c r="S70" s="117"/>
+      <c r="T70" s="117"/>
+      <c r="U70" s="117"/>
+      <c r="V70" s="117"/>
+      <c r="W70" s="117"/>
+      <c r="X70" s="116"/>
     </row>
     <row r="71" spans="9:29" ht="30" customHeight="1">
       <c r="I71" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="J71" s="116" t="s">
+      <c r="J71" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="117"/>
-      <c r="L71" s="116" t="s">
+      <c r="K71" s="116"/>
+      <c r="L71" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="M71" s="118"/>
-      <c r="N71" s="118"/>
-      <c r="O71" s="118"/>
-      <c r="P71" s="118"/>
-      <c r="Q71" s="118"/>
-      <c r="R71" s="118"/>
-      <c r="S71" s="118"/>
-      <c r="T71" s="118"/>
-      <c r="U71" s="118"/>
-      <c r="V71" s="118"/>
-      <c r="W71" s="118"/>
-      <c r="X71" s="117"/>
+      <c r="M71" s="117"/>
+      <c r="N71" s="117"/>
+      <c r="O71" s="117"/>
+      <c r="P71" s="117"/>
+      <c r="Q71" s="117"/>
+      <c r="R71" s="117"/>
+      <c r="S71" s="117"/>
+      <c r="T71" s="117"/>
+      <c r="U71" s="117"/>
+      <c r="V71" s="117"/>
+      <c r="W71" s="117"/>
+      <c r="X71" s="116"/>
     </row>
     <row r="72" spans="9:29" ht="30" customHeight="1">
       <c r="I72" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="J72" s="116" t="s">
+      <c r="J72" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="K72" s="117"/>
-      <c r="L72" s="125" t="s">
+      <c r="K72" s="116"/>
+      <c r="L72" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="M72" s="126"/>
-      <c r="N72" s="126"/>
-      <c r="O72" s="126"/>
-      <c r="P72" s="126"/>
-      <c r="Q72" s="126"/>
-      <c r="R72" s="126"/>
-      <c r="S72" s="126"/>
-      <c r="T72" s="126"/>
-      <c r="U72" s="126"/>
-      <c r="V72" s="126"/>
-      <c r="W72" s="126"/>
-      <c r="X72" s="127"/>
+      <c r="M72" s="125"/>
+      <c r="N72" s="125"/>
+      <c r="O72" s="125"/>
+      <c r="P72" s="125"/>
+      <c r="Q72" s="125"/>
+      <c r="R72" s="125"/>
+      <c r="S72" s="125"/>
+      <c r="T72" s="125"/>
+      <c r="U72" s="125"/>
+      <c r="V72" s="125"/>
+      <c r="W72" s="125"/>
+      <c r="X72" s="126"/>
     </row>
     <row r="73" spans="9:29" ht="30" customHeight="1">
       <c r="I73" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="J73" s="116" t="s">
+      <c r="J73" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="K73" s="117"/>
-      <c r="L73" s="116" t="s">
+      <c r="K73" s="116"/>
+      <c r="L73" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="M73" s="118"/>
-      <c r="N73" s="118"/>
-      <c r="O73" s="118"/>
-      <c r="P73" s="118"/>
-      <c r="Q73" s="118"/>
-      <c r="R73" s="118"/>
-      <c r="S73" s="118"/>
-      <c r="T73" s="118"/>
-      <c r="U73" s="118"/>
-      <c r="V73" s="118"/>
-      <c r="W73" s="118"/>
-      <c r="X73" s="117"/>
+      <c r="M73" s="117"/>
+      <c r="N73" s="117"/>
+      <c r="O73" s="117"/>
+      <c r="P73" s="117"/>
+      <c r="Q73" s="117"/>
+      <c r="R73" s="117"/>
+      <c r="S73" s="117"/>
+      <c r="T73" s="117"/>
+      <c r="U73" s="117"/>
+      <c r="V73" s="117"/>
+      <c r="W73" s="117"/>
+      <c r="X73" s="116"/>
     </row>
     <row r="74" spans="9:29" ht="30" customHeight="1"/>
     <row r="75" spans="9:29" ht="30" customHeight="1"/>
@@ -12433,13 +12387,13 @@
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
-      <c r="AW19" s="128" t="s">
+      <c r="AW19" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="AX19" s="128"/>
-      <c r="AY19" s="128"/>
-      <c r="AZ19" s="128"/>
-      <c r="BA19" s="128"/>
+      <c r="AX19" s="127"/>
+      <c r="AY19" s="127"/>
+      <c r="AZ19" s="127"/>
+      <c r="BA19" s="127"/>
       <c r="BB19" s="2"/>
       <c r="BC19" s="2"/>
       <c r="BD19" s="2"/>
@@ -12518,11 +12472,11 @@
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
-      <c r="AW20" s="128"/>
-      <c r="AX20" s="128"/>
-      <c r="AY20" s="128"/>
-      <c r="AZ20" s="128"/>
-      <c r="BA20" s="128"/>
+      <c r="AW20" s="127"/>
+      <c r="AX20" s="127"/>
+      <c r="AY20" s="127"/>
+      <c r="AZ20" s="127"/>
+      <c r="BA20" s="127"/>
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
       <c r="BD20" s="2"/>
@@ -12583,11 +12537,11 @@
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
-      <c r="AW21" s="128"/>
-      <c r="AX21" s="128"/>
-      <c r="AY21" s="128"/>
-      <c r="AZ21" s="128"/>
-      <c r="BA21" s="128"/>
+      <c r="AW21" s="127"/>
+      <c r="AX21" s="127"/>
+      <c r="AY21" s="127"/>
+      <c r="AZ21" s="127"/>
+      <c r="BA21" s="127"/>
       <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
       <c r="BD21" s="2"/>
@@ -14161,18 +14115,18 @@
       </c>
     </row>
     <row r="37" spans="1:67" ht="30" customHeight="1">
-      <c r="A37" s="129" t="s">
+      <c r="A37" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="130"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="130"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
       <c r="K37" s="2"/>
       <c r="L37" s="46">
         <v>445</v>
@@ -14257,16 +14211,16 @@
       <c r="BC37" s="63"/>
     </row>
     <row r="38" spans="1:67" ht="30" customHeight="1">
-      <c r="A38" s="130"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
+      <c r="A38" s="129"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
       <c r="K38" s="2"/>
       <c r="L38" s="46">
         <v>444</v>
@@ -14336,16 +14290,16 @@
       <c r="BC38" s="63"/>
     </row>
     <row r="39" spans="1:67" ht="30" customHeight="1">
-      <c r="A39" s="130"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
       <c r="K39" s="2"/>
       <c r="L39" s="46">
         <v>443</v>
@@ -14421,16 +14375,16 @@
       <c r="BC39" s="63"/>
     </row>
     <row r="40" spans="1:67" ht="30" customHeight="1">
-      <c r="A40" s="130"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
+      <c r="A40" s="129"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
       <c r="K40" s="2"/>
       <c r="L40" s="46">
         <v>442</v>
@@ -14467,16 +14421,16 @@
       <c r="BC40" s="63"/>
     </row>
     <row r="41" spans="1:67" ht="30" customHeight="1">
-      <c r="A41" s="130"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
+      <c r="A41" s="129"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
       <c r="K41" s="2"/>
       <c r="L41" s="46">
         <v>441</v>
@@ -14512,16 +14466,16 @@
       <c r="BC41" s="63"/>
     </row>
     <row r="42" spans="1:67" ht="30" customHeight="1">
-      <c r="A42" s="130"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
+      <c r="A42" s="129"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="129"/>
       <c r="K42" s="2"/>
       <c r="L42" s="7"/>
       <c r="M42" s="2"/>
@@ -14561,16 +14515,16 @@
       <c r="BC42" s="63"/>
     </row>
     <row r="43" spans="1:67" ht="30" customHeight="1">
-      <c r="A43" s="130"/>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="130"/>
+      <c r="A43" s="129"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
       <c r="K43" s="2"/>
       <c r="L43" s="7"/>
       <c r="M43" s="2"/>
@@ -15049,11 +15003,11 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="2"/>
-      <c r="W52" s="109" t="s">
+      <c r="W52" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="X52" s="108"/>
-      <c r="Y52" s="108"/>
+      <c r="X52" s="107"/>
+      <c r="Y52" s="107"/>
       <c r="AM52" s="30">
         <v>608</v>
       </c>
@@ -15068,10 +15022,10 @@
         <v>51</v>
       </c>
       <c r="F54" s="52"/>
-      <c r="G54" s="109" t="s">
+      <c r="G54" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="109"/>
+      <c r="H54" s="108"/>
       <c r="J54" s="52" t="s">
         <v>75</v>
       </c>
@@ -15096,488 +15050,488 @@
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
       <c r="I55" s="57"/>
-      <c r="J55" s="110" t="s">
+      <c r="J55" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="K55" s="111"/>
-      <c r="L55" s="112" t="s">
+      <c r="K55" s="110"/>
+      <c r="L55" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="M55" s="113"/>
-      <c r="N55" s="113"/>
-      <c r="O55" s="113"/>
-      <c r="P55" s="113"/>
-      <c r="Q55" s="113"/>
-      <c r="R55" s="113"/>
-      <c r="S55" s="113"/>
-      <c r="T55" s="113"/>
-      <c r="U55" s="113"/>
-      <c r="V55" s="113"/>
-      <c r="W55" s="113"/>
-      <c r="X55" s="114"/>
+      <c r="M55" s="112"/>
+      <c r="N55" s="112"/>
+      <c r="O55" s="112"/>
+      <c r="P55" s="112"/>
+      <c r="Q55" s="112"/>
+      <c r="R55" s="112"/>
+      <c r="S55" s="112"/>
+      <c r="T55" s="112"/>
+      <c r="U55" s="112"/>
+      <c r="V55" s="112"/>
+      <c r="W55" s="112"/>
+      <c r="X55" s="113"/>
     </row>
     <row r="56" spans="1:70" ht="30" customHeight="1">
-      <c r="F56" s="115" t="s">
+      <c r="F56" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
       <c r="I56" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="J56" s="116" t="s">
+      <c r="J56" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="K56" s="117"/>
-      <c r="L56" s="116" t="s">
+      <c r="K56" s="116"/>
+      <c r="L56" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="M56" s="118"/>
-      <c r="N56" s="118"/>
-      <c r="O56" s="118"/>
-      <c r="P56" s="118"/>
-      <c r="Q56" s="118"/>
-      <c r="R56" s="118"/>
-      <c r="S56" s="118"/>
-      <c r="T56" s="118"/>
-      <c r="U56" s="118"/>
-      <c r="V56" s="118"/>
-      <c r="W56" s="118"/>
-      <c r="X56" s="117"/>
+      <c r="M56" s="117"/>
+      <c r="N56" s="117"/>
+      <c r="O56" s="117"/>
+      <c r="P56" s="117"/>
+      <c r="Q56" s="117"/>
+      <c r="R56" s="117"/>
+      <c r="S56" s="117"/>
+      <c r="T56" s="117"/>
+      <c r="U56" s="117"/>
+      <c r="V56" s="117"/>
+      <c r="W56" s="117"/>
+      <c r="X56" s="116"/>
     </row>
     <row r="57" spans="1:70" ht="30" customHeight="1">
-      <c r="F57" s="119" t="s">
+      <c r="F57" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="119"/>
       <c r="I57" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="J57" s="116" t="s">
+      <c r="J57" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="K57" s="117"/>
-      <c r="L57" s="116" t="s">
+      <c r="K57" s="116"/>
+      <c r="L57" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="M57" s="118"/>
-      <c r="N57" s="118"/>
-      <c r="O57" s="118"/>
-      <c r="P57" s="118"/>
-      <c r="Q57" s="118"/>
-      <c r="R57" s="118"/>
-      <c r="S57" s="118"/>
-      <c r="T57" s="118"/>
-      <c r="U57" s="118"/>
-      <c r="V57" s="118"/>
-      <c r="W57" s="118"/>
-      <c r="X57" s="117"/>
+      <c r="M57" s="117"/>
+      <c r="N57" s="117"/>
+      <c r="O57" s="117"/>
+      <c r="P57" s="117"/>
+      <c r="Q57" s="117"/>
+      <c r="R57" s="117"/>
+      <c r="S57" s="117"/>
+      <c r="T57" s="117"/>
+      <c r="U57" s="117"/>
+      <c r="V57" s="117"/>
+      <c r="W57" s="117"/>
+      <c r="X57" s="116"/>
     </row>
     <row r="58" spans="1:70" ht="30" customHeight="1">
       <c r="I58" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="J58" s="116" t="s">
+      <c r="J58" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="K58" s="117"/>
-      <c r="L58" s="116" t="s">
+      <c r="K58" s="116"/>
+      <c r="L58" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="M58" s="118"/>
-      <c r="N58" s="118"/>
-      <c r="O58" s="118"/>
-      <c r="P58" s="118"/>
-      <c r="Q58" s="118"/>
-      <c r="R58" s="118"/>
-      <c r="S58" s="118"/>
-      <c r="T58" s="118"/>
-      <c r="U58" s="118"/>
-      <c r="V58" s="118"/>
-      <c r="W58" s="118"/>
-      <c r="X58" s="117"/>
+      <c r="M58" s="117"/>
+      <c r="N58" s="117"/>
+      <c r="O58" s="117"/>
+      <c r="P58" s="117"/>
+      <c r="Q58" s="117"/>
+      <c r="R58" s="117"/>
+      <c r="S58" s="117"/>
+      <c r="T58" s="117"/>
+      <c r="U58" s="117"/>
+      <c r="V58" s="117"/>
+      <c r="W58" s="117"/>
+      <c r="X58" s="116"/>
     </row>
     <row r="59" spans="1:70" ht="30" customHeight="1">
       <c r="I59" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="J59" s="116" t="s">
+      <c r="J59" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="K59" s="117"/>
-      <c r="L59" s="116" t="s">
+      <c r="K59" s="116"/>
+      <c r="L59" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="118"/>
-      <c r="N59" s="118"/>
-      <c r="O59" s="118"/>
-      <c r="P59" s="118"/>
-      <c r="Q59" s="118"/>
-      <c r="R59" s="118"/>
-      <c r="S59" s="118"/>
-      <c r="T59" s="118"/>
-      <c r="U59" s="118"/>
-      <c r="V59" s="118"/>
-      <c r="W59" s="118"/>
-      <c r="X59" s="117"/>
+      <c r="M59" s="117"/>
+      <c r="N59" s="117"/>
+      <c r="O59" s="117"/>
+      <c r="P59" s="117"/>
+      <c r="Q59" s="117"/>
+      <c r="R59" s="117"/>
+      <c r="S59" s="117"/>
+      <c r="T59" s="117"/>
+      <c r="U59" s="117"/>
+      <c r="V59" s="117"/>
+      <c r="W59" s="117"/>
+      <c r="X59" s="116"/>
     </row>
     <row r="60" spans="1:70" ht="30" customHeight="1">
       <c r="I60" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="J60" s="116" t="s">
+      <c r="J60" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="K60" s="117"/>
-      <c r="L60" s="116" t="s">
+      <c r="K60" s="116"/>
+      <c r="L60" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="121"/>
-      <c r="N60" s="121"/>
-      <c r="O60" s="121"/>
-      <c r="P60" s="121"/>
-      <c r="Q60" s="121"/>
-      <c r="R60" s="121"/>
-      <c r="S60" s="121"/>
-      <c r="T60" s="121"/>
-      <c r="U60" s="121"/>
-      <c r="V60" s="121"/>
-      <c r="W60" s="121"/>
-      <c r="X60" s="122"/>
+      <c r="M60" s="120"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="120"/>
+      <c r="P60" s="120"/>
+      <c r="Q60" s="120"/>
+      <c r="R60" s="120"/>
+      <c r="S60" s="120"/>
+      <c r="T60" s="120"/>
+      <c r="U60" s="120"/>
+      <c r="V60" s="120"/>
+      <c r="W60" s="120"/>
+      <c r="X60" s="121"/>
     </row>
     <row r="61" spans="1:70" ht="30" customHeight="1">
       <c r="I61" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="J61" s="116" t="s">
+      <c r="J61" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="K61" s="117"/>
-      <c r="L61" s="116" t="s">
+      <c r="K61" s="116"/>
+      <c r="L61" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="M61" s="123"/>
-      <c r="N61" s="123"/>
-      <c r="O61" s="123"/>
-      <c r="P61" s="123"/>
-      <c r="Q61" s="123"/>
-      <c r="R61" s="123"/>
-      <c r="S61" s="123"/>
-      <c r="T61" s="123"/>
-      <c r="U61" s="123"/>
-      <c r="V61" s="123"/>
-      <c r="W61" s="123"/>
-      <c r="X61" s="123"/>
-      <c r="Y61" s="123"/>
-      <c r="Z61" s="123"/>
-      <c r="AA61" s="123"/>
-      <c r="AB61" s="123"/>
-      <c r="AC61" s="124"/>
+      <c r="M61" s="122"/>
+      <c r="N61" s="122"/>
+      <c r="O61" s="122"/>
+      <c r="P61" s="122"/>
+      <c r="Q61" s="122"/>
+      <c r="R61" s="122"/>
+      <c r="S61" s="122"/>
+      <c r="T61" s="122"/>
+      <c r="U61" s="122"/>
+      <c r="V61" s="122"/>
+      <c r="W61" s="122"/>
+      <c r="X61" s="122"/>
+      <c r="Y61" s="122"/>
+      <c r="Z61" s="122"/>
+      <c r="AA61" s="122"/>
+      <c r="AB61" s="122"/>
+      <c r="AC61" s="123"/>
       <c r="AD61" s="65"/>
     </row>
     <row r="62" spans="1:70" ht="30" customHeight="1">
       <c r="I62" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="J62" s="116" t="s">
+      <c r="J62" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="K62" s="117"/>
-      <c r="L62" s="116" t="s">
+      <c r="K62" s="116"/>
+      <c r="L62" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="M62" s="123"/>
-      <c r="N62" s="123"/>
-      <c r="O62" s="123"/>
-      <c r="P62" s="123"/>
-      <c r="Q62" s="123"/>
-      <c r="R62" s="123"/>
-      <c r="S62" s="123"/>
-      <c r="T62" s="123"/>
-      <c r="U62" s="123"/>
-      <c r="V62" s="123"/>
-      <c r="W62" s="123"/>
-      <c r="X62" s="123"/>
-      <c r="Y62" s="123"/>
-      <c r="Z62" s="123"/>
-      <c r="AA62" s="123"/>
-      <c r="AB62" s="123"/>
-      <c r="AC62" s="124"/>
+      <c r="M62" s="122"/>
+      <c r="N62" s="122"/>
+      <c r="O62" s="122"/>
+      <c r="P62" s="122"/>
+      <c r="Q62" s="122"/>
+      <c r="R62" s="122"/>
+      <c r="S62" s="122"/>
+      <c r="T62" s="122"/>
+      <c r="U62" s="122"/>
+      <c r="V62" s="122"/>
+      <c r="W62" s="122"/>
+      <c r="X62" s="122"/>
+      <c r="Y62" s="122"/>
+      <c r="Z62" s="122"/>
+      <c r="AA62" s="122"/>
+      <c r="AB62" s="122"/>
+      <c r="AC62" s="123"/>
     </row>
     <row r="63" spans="1:70" ht="30" customHeight="1">
       <c r="I63" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="J63" s="116" t="s">
+      <c r="J63" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="K63" s="117"/>
-      <c r="L63" s="125" t="s">
+      <c r="K63" s="116"/>
+      <c r="L63" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="M63" s="126"/>
-      <c r="N63" s="126"/>
-      <c r="O63" s="126"/>
-      <c r="P63" s="126"/>
-      <c r="Q63" s="126"/>
-      <c r="R63" s="126"/>
-      <c r="S63" s="126"/>
-      <c r="T63" s="126"/>
-      <c r="U63" s="126"/>
-      <c r="V63" s="126"/>
-      <c r="W63" s="126"/>
-      <c r="X63" s="127"/>
+      <c r="M63" s="125"/>
+      <c r="N63" s="125"/>
+      <c r="O63" s="125"/>
+      <c r="P63" s="125"/>
+      <c r="Q63" s="125"/>
+      <c r="R63" s="125"/>
+      <c r="S63" s="125"/>
+      <c r="T63" s="125"/>
+      <c r="U63" s="125"/>
+      <c r="V63" s="125"/>
+      <c r="W63" s="125"/>
+      <c r="X63" s="126"/>
     </row>
     <row r="64" spans="1:70" ht="30" customHeight="1">
       <c r="I64" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="J64" s="116" t="s">
+      <c r="J64" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="K64" s="117"/>
-      <c r="L64" s="116" t="s">
+      <c r="K64" s="116"/>
+      <c r="L64" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="M64" s="118"/>
-      <c r="N64" s="118"/>
-      <c r="O64" s="118"/>
-      <c r="P64" s="118"/>
-      <c r="Q64" s="118"/>
-      <c r="R64" s="118"/>
-      <c r="S64" s="118"/>
-      <c r="T64" s="118"/>
-      <c r="U64" s="118"/>
-      <c r="V64" s="118"/>
-      <c r="W64" s="118"/>
-      <c r="X64" s="117"/>
+      <c r="M64" s="117"/>
+      <c r="N64" s="117"/>
+      <c r="O64" s="117"/>
+      <c r="P64" s="117"/>
+      <c r="Q64" s="117"/>
+      <c r="R64" s="117"/>
+      <c r="S64" s="117"/>
+      <c r="T64" s="117"/>
+      <c r="U64" s="117"/>
+      <c r="V64" s="117"/>
+      <c r="W64" s="117"/>
+      <c r="X64" s="116"/>
     </row>
     <row r="65" spans="9:29" ht="30" customHeight="1">
       <c r="I65" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J65" s="116" t="s">
+      <c r="J65" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="117"/>
-      <c r="L65" s="116" t="s">
+      <c r="K65" s="116"/>
+      <c r="L65" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="M65" s="118"/>
-      <c r="N65" s="118"/>
-      <c r="O65" s="118"/>
-      <c r="P65" s="118"/>
-      <c r="Q65" s="118"/>
-      <c r="R65" s="118"/>
-      <c r="S65" s="118"/>
-      <c r="T65" s="118"/>
-      <c r="U65" s="118"/>
-      <c r="V65" s="118"/>
-      <c r="W65" s="118"/>
-      <c r="X65" s="117"/>
+      <c r="M65" s="117"/>
+      <c r="N65" s="117"/>
+      <c r="O65" s="117"/>
+      <c r="P65" s="117"/>
+      <c r="Q65" s="117"/>
+      <c r="R65" s="117"/>
+      <c r="S65" s="117"/>
+      <c r="T65" s="117"/>
+      <c r="U65" s="117"/>
+      <c r="V65" s="117"/>
+      <c r="W65" s="117"/>
+      <c r="X65" s="116"/>
     </row>
     <row r="66" spans="9:29" ht="30" customHeight="1">
       <c r="I66" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J66" s="116" t="s">
+      <c r="J66" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="K66" s="117"/>
-      <c r="L66" s="116" t="s">
+      <c r="K66" s="116"/>
+      <c r="L66" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="M66" s="118"/>
-      <c r="N66" s="118"/>
-      <c r="O66" s="118"/>
-      <c r="P66" s="118"/>
-      <c r="Q66" s="118"/>
-      <c r="R66" s="118"/>
-      <c r="S66" s="118"/>
-      <c r="T66" s="118"/>
-      <c r="U66" s="118"/>
-      <c r="V66" s="118"/>
-      <c r="W66" s="118"/>
-      <c r="X66" s="117"/>
+      <c r="M66" s="117"/>
+      <c r="N66" s="117"/>
+      <c r="O66" s="117"/>
+      <c r="P66" s="117"/>
+      <c r="Q66" s="117"/>
+      <c r="R66" s="117"/>
+      <c r="S66" s="117"/>
+      <c r="T66" s="117"/>
+      <c r="U66" s="117"/>
+      <c r="V66" s="117"/>
+      <c r="W66" s="117"/>
+      <c r="X66" s="116"/>
     </row>
     <row r="67" spans="9:29" ht="30" customHeight="1">
       <c r="I67" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="J67" s="116" t="s">
+      <c r="J67" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="K67" s="117"/>
-      <c r="L67" s="116" t="s">
+      <c r="K67" s="116"/>
+      <c r="L67" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="M67" s="123"/>
-      <c r="N67" s="123"/>
-      <c r="O67" s="123"/>
-      <c r="P67" s="123"/>
-      <c r="Q67" s="123"/>
-      <c r="R67" s="123"/>
-      <c r="S67" s="123"/>
-      <c r="T67" s="123"/>
-      <c r="U67" s="123"/>
-      <c r="V67" s="123"/>
-      <c r="W67" s="123"/>
-      <c r="X67" s="123"/>
-      <c r="Y67" s="123"/>
-      <c r="Z67" s="123"/>
-      <c r="AA67" s="123"/>
-      <c r="AB67" s="123"/>
-      <c r="AC67" s="124"/>
+      <c r="M67" s="122"/>
+      <c r="N67" s="122"/>
+      <c r="O67" s="122"/>
+      <c r="P67" s="122"/>
+      <c r="Q67" s="122"/>
+      <c r="R67" s="122"/>
+      <c r="S67" s="122"/>
+      <c r="T67" s="122"/>
+      <c r="U67" s="122"/>
+      <c r="V67" s="122"/>
+      <c r="W67" s="122"/>
+      <c r="X67" s="122"/>
+      <c r="Y67" s="122"/>
+      <c r="Z67" s="122"/>
+      <c r="AA67" s="122"/>
+      <c r="AB67" s="122"/>
+      <c r="AC67" s="123"/>
     </row>
     <row r="68" spans="9:29" ht="30" customHeight="1">
       <c r="I68" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="J68" s="116" t="s">
+      <c r="J68" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="K68" s="117"/>
-      <c r="L68" s="116" t="s">
+      <c r="K68" s="116"/>
+      <c r="L68" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="M68" s="123"/>
-      <c r="N68" s="123"/>
-      <c r="O68" s="123"/>
-      <c r="P68" s="123"/>
-      <c r="Q68" s="123"/>
-      <c r="R68" s="123"/>
-      <c r="S68" s="123"/>
-      <c r="T68" s="123"/>
-      <c r="U68" s="123"/>
-      <c r="V68" s="123"/>
-      <c r="W68" s="123"/>
-      <c r="X68" s="123"/>
-      <c r="Y68" s="123"/>
-      <c r="Z68" s="123"/>
-      <c r="AA68" s="123"/>
-      <c r="AB68" s="123"/>
-      <c r="AC68" s="124"/>
+      <c r="M68" s="122"/>
+      <c r="N68" s="122"/>
+      <c r="O68" s="122"/>
+      <c r="P68" s="122"/>
+      <c r="Q68" s="122"/>
+      <c r="R68" s="122"/>
+      <c r="S68" s="122"/>
+      <c r="T68" s="122"/>
+      <c r="U68" s="122"/>
+      <c r="V68" s="122"/>
+      <c r="W68" s="122"/>
+      <c r="X68" s="122"/>
+      <c r="Y68" s="122"/>
+      <c r="Z68" s="122"/>
+      <c r="AA68" s="122"/>
+      <c r="AB68" s="122"/>
+      <c r="AC68" s="123"/>
     </row>
     <row r="69" spans="9:29" ht="30" customHeight="1">
       <c r="I69" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="J69" s="116" t="s">
+      <c r="J69" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="K69" s="117"/>
-      <c r="L69" s="125" t="s">
+      <c r="K69" s="116"/>
+      <c r="L69" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="M69" s="126"/>
-      <c r="N69" s="126"/>
-      <c r="O69" s="126"/>
-      <c r="P69" s="126"/>
-      <c r="Q69" s="126"/>
-      <c r="R69" s="126"/>
-      <c r="S69" s="126"/>
-      <c r="T69" s="126"/>
-      <c r="U69" s="126"/>
-      <c r="V69" s="126"/>
-      <c r="W69" s="126"/>
-      <c r="X69" s="127"/>
+      <c r="M69" s="125"/>
+      <c r="N69" s="125"/>
+      <c r="O69" s="125"/>
+      <c r="P69" s="125"/>
+      <c r="Q69" s="125"/>
+      <c r="R69" s="125"/>
+      <c r="S69" s="125"/>
+      <c r="T69" s="125"/>
+      <c r="U69" s="125"/>
+      <c r="V69" s="125"/>
+      <c r="W69" s="125"/>
+      <c r="X69" s="126"/>
     </row>
     <row r="70" spans="9:29" ht="30" customHeight="1">
       <c r="I70" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="J70" s="116" t="s">
+      <c r="J70" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="K70" s="117"/>
-      <c r="L70" s="116" t="s">
+      <c r="K70" s="116"/>
+      <c r="L70" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="M70" s="118"/>
-      <c r="N70" s="118"/>
-      <c r="O70" s="118"/>
-      <c r="P70" s="118"/>
-      <c r="Q70" s="118"/>
-      <c r="R70" s="118"/>
-      <c r="S70" s="118"/>
-      <c r="T70" s="118"/>
-      <c r="U70" s="118"/>
-      <c r="V70" s="118"/>
-      <c r="W70" s="118"/>
-      <c r="X70" s="117"/>
+      <c r="M70" s="117"/>
+      <c r="N70" s="117"/>
+      <c r="O70" s="117"/>
+      <c r="P70" s="117"/>
+      <c r="Q70" s="117"/>
+      <c r="R70" s="117"/>
+      <c r="S70" s="117"/>
+      <c r="T70" s="117"/>
+      <c r="U70" s="117"/>
+      <c r="V70" s="117"/>
+      <c r="W70" s="117"/>
+      <c r="X70" s="116"/>
     </row>
     <row r="71" spans="9:29" ht="30" customHeight="1">
       <c r="I71" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="J71" s="116" t="s">
+      <c r="J71" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="117"/>
-      <c r="L71" s="116" t="s">
+      <c r="K71" s="116"/>
+      <c r="L71" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="M71" s="118"/>
-      <c r="N71" s="118"/>
-      <c r="O71" s="118"/>
-      <c r="P71" s="118"/>
-      <c r="Q71" s="118"/>
-      <c r="R71" s="118"/>
-      <c r="S71" s="118"/>
-      <c r="T71" s="118"/>
-      <c r="U71" s="118"/>
-      <c r="V71" s="118"/>
-      <c r="W71" s="118"/>
-      <c r="X71" s="117"/>
+      <c r="M71" s="117"/>
+      <c r="N71" s="117"/>
+      <c r="O71" s="117"/>
+      <c r="P71" s="117"/>
+      <c r="Q71" s="117"/>
+      <c r="R71" s="117"/>
+      <c r="S71" s="117"/>
+      <c r="T71" s="117"/>
+      <c r="U71" s="117"/>
+      <c r="V71" s="117"/>
+      <c r="W71" s="117"/>
+      <c r="X71" s="116"/>
     </row>
     <row r="72" spans="9:29" ht="30" customHeight="1">
       <c r="I72" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="J72" s="116" t="s">
+      <c r="J72" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="K72" s="117"/>
-      <c r="L72" s="125" t="s">
+      <c r="K72" s="116"/>
+      <c r="L72" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="M72" s="126"/>
-      <c r="N72" s="126"/>
-      <c r="O72" s="126"/>
-      <c r="P72" s="126"/>
-      <c r="Q72" s="126"/>
-      <c r="R72" s="126"/>
-      <c r="S72" s="126"/>
-      <c r="T72" s="126"/>
-      <c r="U72" s="126"/>
-      <c r="V72" s="126"/>
-      <c r="W72" s="126"/>
-      <c r="X72" s="127"/>
+      <c r="M72" s="125"/>
+      <c r="N72" s="125"/>
+      <c r="O72" s="125"/>
+      <c r="P72" s="125"/>
+      <c r="Q72" s="125"/>
+      <c r="R72" s="125"/>
+      <c r="S72" s="125"/>
+      <c r="T72" s="125"/>
+      <c r="U72" s="125"/>
+      <c r="V72" s="125"/>
+      <c r="W72" s="125"/>
+      <c r="X72" s="126"/>
     </row>
     <row r="73" spans="9:29" ht="30" customHeight="1">
       <c r="I73" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="J73" s="116" t="s">
+      <c r="J73" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="K73" s="117"/>
-      <c r="L73" s="116" t="s">
+      <c r="K73" s="116"/>
+      <c r="L73" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="M73" s="118"/>
-      <c r="N73" s="118"/>
-      <c r="O73" s="118"/>
-      <c r="P73" s="118"/>
-      <c r="Q73" s="118"/>
-      <c r="R73" s="118"/>
-      <c r="S73" s="118"/>
-      <c r="T73" s="118"/>
-      <c r="U73" s="118"/>
-      <c r="V73" s="118"/>
-      <c r="W73" s="118"/>
-      <c r="X73" s="117"/>
+      <c r="M73" s="117"/>
+      <c r="N73" s="117"/>
+      <c r="O73" s="117"/>
+      <c r="P73" s="117"/>
+      <c r="Q73" s="117"/>
+      <c r="R73" s="117"/>
+      <c r="S73" s="117"/>
+      <c r="T73" s="117"/>
+      <c r="U73" s="117"/>
+      <c r="V73" s="117"/>
+      <c r="W73" s="117"/>
+      <c r="X73" s="116"/>
     </row>
     <row r="74" spans="9:29" ht="30" customHeight="1"/>
     <row r="75" spans="9:29" ht="30" customHeight="1"/>
